--- a/BBrito.xlsx
+++ b/BBrito.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EF2A3A-89E4-439C-8FDD-3CBCA98E3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3882F1E-05A7-45A3-90FE-5A85BE299BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B9E0E5B-35FC-4485-95B3-8885C20D1100}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vsilva2" sheetId="1" r:id="rId1"/>
+    <sheet name="BBrito" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -511,7 +511,7 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BBrito.xlsx
+++ b/BBrito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3882F1E-05A7-45A3-90FE-5A85BE299BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECFB9E9-259B-4A3E-AAA5-1335028B6A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B9E0E5B-35FC-4485-95B3-8885C20D1100}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="42">
   <si>
     <t/>
   </si>
@@ -64,9 +64,6 @@
     <t>Entidade</t>
   </si>
   <si>
-    <t>Data Venc.</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
   </si>
   <si>
     <t>Talho F.M. &amp; Almeida, Lda.</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -508,11 +502,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D137E9BB-E1C2-45D9-AC6D-B99BE11B15AC}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,7 +512,7 @@
     <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -529,9 +521,9 @@
     <col min="13" max="13" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -545,2608 +537,2588 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>79.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1581</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>79.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1581</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>208</v>
+        <v>657</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>62.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>442.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>657</v>
+        <v>1498</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>442.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>276.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1498</v>
+        <v>1607</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>276.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>975.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1607</v>
+        <v>2070</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>975.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>309.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2070</v>
+        <v>2103</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>309.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2103</v>
+        <v>2149</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>80.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1707.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2149</v>
+        <v>1597</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
-        <v>1707.61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1004.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
-        <v>1004.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>263.54000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1598</v>
+        <v>1890</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
-        <v>263.54000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>875.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>45</v>
       </c>
       <c r="E14" s="1">
-        <v>875.87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>833.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1891</v>
+        <v>1599</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1">
-        <v>833.18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>820.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1599</v>
+        <v>1892</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>43</v>
       </c>
       <c r="E16" s="1">
-        <v>820.59</v>
+        <v>395.51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1892</v>
+        <v>2146</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>43</v>
       </c>
       <c r="E17" s="1">
-        <v>395.51</v>
+        <v>1137.46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2146</v>
+        <v>1893</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1">
-        <v>1137.46</v>
+        <v>93.01</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1893</v>
+        <v>1030</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
-        <v>93.01</v>
+        <v>327.02</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1030</v>
+        <v>1894</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>37</v>
       </c>
       <c r="E20" s="1">
-        <v>327.02</v>
+        <v>777.01</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>37</v>
       </c>
       <c r="E21" s="1">
-        <v>777.01</v>
+        <v>807.52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1895</v>
+        <v>653</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1">
-        <v>807.52</v>
+        <v>140.97</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>653</v>
+        <v>810</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>36</v>
       </c>
       <c r="E23" s="1">
-        <v>140.97</v>
+        <v>290.42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>810</v>
+        <v>1600</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>36</v>
       </c>
       <c r="E24" s="1">
-        <v>290.42</v>
+        <v>664.49</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1600</v>
+        <v>2052</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>36</v>
       </c>
       <c r="E25" s="1">
-        <v>664.49</v>
+        <v>34.130000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2052</v>
+        <v>654</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1">
-        <v>34.130000000000003</v>
+        <v>64.319999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>654</v>
+        <v>1601</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>34</v>
       </c>
       <c r="E27" s="1">
-        <v>64.319999999999993</v>
+        <v>556.16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1601</v>
+        <v>1897</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1">
-        <v>556.16</v>
+        <v>1009.59</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1897</v>
+        <v>1589</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E29" s="1">
-        <v>1009.59</v>
+        <v>503.93</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E30" s="1">
-        <v>503.93</v>
+        <v>854.19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1">
-        <v>854.19</v>
+        <v>965.58</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1">
-        <v>965.58</v>
+        <v>661.05</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>64</v>
       </c>
       <c r="E33" s="1">
-        <v>661.05</v>
+        <v>455.28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1594</v>
+        <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1">
-        <v>455.28</v>
+        <v>448.28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1032</v>
+        <v>2088</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>23</v>
       </c>
       <c r="E35" s="1">
-        <v>448.28</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>23</v>
       </c>
       <c r="E36" s="1">
-        <v>4.84</v>
+        <v>302.58</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2090</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="1">
-        <v>302.58</v>
+        <v>53.82</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>202</v>
+        <v>1603</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>22</v>
       </c>
       <c r="E38" s="1">
-        <v>53.82</v>
+        <v>801.17</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1603</v>
+        <v>1634</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>22</v>
       </c>
       <c r="E39" s="1">
-        <v>801.17</v>
+        <v>895.27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1634</v>
+        <v>2053</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>22</v>
       </c>
       <c r="E40" s="1">
-        <v>895.27</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2053</v>
+        <v>2066</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>22</v>
       </c>
       <c r="E41" s="1">
-        <v>26.99</v>
+        <v>499.21</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2066</v>
+        <v>2147</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>22</v>
       </c>
       <c r="E42" s="1">
-        <v>499.21</v>
+        <v>914.63</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2147</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1">
-        <v>914.63</v>
+        <v>50.49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>203</v>
+        <v>1604</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1">
-        <v>50.49</v>
+        <v>724.49</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1604</v>
+        <v>2067</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
       <c r="E45" s="1">
-        <v>724.49</v>
+        <v>53.65</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2067</v>
+        <v>1898</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1">
-        <v>53.65</v>
+        <v>811.01</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1898</v>
+        <v>479</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1">
-        <v>811.01</v>
+        <v>202.87</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>479</v>
+        <v>1033</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" s="1">
-        <v>202.87</v>
+        <v>367.27</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1033</v>
+        <v>1249</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" s="1">
-        <v>367.27</v>
+        <v>669.77</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1249</v>
+        <v>2143</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
       <c r="E50" s="1">
-        <v>669.77</v>
+        <v>296.99</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2143</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1">
-        <v>296.99</v>
+        <v>101.57</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>204</v>
+        <v>655</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52">
         <v>15</v>
       </c>
       <c r="E52" s="1">
-        <v>101.57</v>
+        <v>397.75</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>655</v>
+        <v>2068</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>15</v>
       </c>
       <c r="E53" s="1">
-        <v>397.75</v>
+        <v>279.77</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2068</v>
+        <v>205</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1">
-        <v>279.77</v>
+        <v>40.15</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>205</v>
+        <v>2144</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>14</v>
       </c>
       <c r="E55" s="1">
-        <v>40.15</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2144</v>
+        <v>1605</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1">
-        <v>98.34</v>
+        <v>812.97</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1605</v>
+        <v>715</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
         <v>9</v>
       </c>
-      <c r="D57">
-        <v>13</v>
-      </c>
       <c r="E57" s="1">
-        <v>812.97</v>
+        <v>588.15</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>715</v>
+        <v>1034</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58">
         <v>9</v>
       </c>
       <c r="E58" s="1">
-        <v>588.15</v>
+        <v>389.41</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1034</v>
+        <v>1691</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59" s="1">
-        <v>389.41</v>
+        <v>395.94</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1691</v>
+        <v>1935</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
       <c r="E60" s="1">
-        <v>395.94</v>
+        <v>540.98</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1935</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="1">
-        <v>540.98</v>
+        <v>150.69999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62">
         <v>8</v>
       </c>
       <c r="E62" s="1">
-        <v>150.69999999999999</v>
+        <v>173.04</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>231</v>
+        <v>656</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
       <c r="E63" s="1">
-        <v>173.04</v>
+        <v>377.84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>656</v>
+        <v>2054</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64">
         <v>8</v>
       </c>
       <c r="E64" s="1">
-        <v>377.84</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2054</v>
+        <v>2069</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>8</v>
       </c>
       <c r="E65" s="1">
-        <v>33.700000000000003</v>
+        <v>292.06</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2069</v>
+        <v>699</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1">
-        <v>292.06</v>
+        <v>433.87</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>699</v>
+        <v>1250</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>7</v>
       </c>
       <c r="E67" s="1">
-        <v>433.87</v>
+        <v>837.69</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1250</v>
+        <v>2091</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68">
         <v>7</v>
       </c>
       <c r="E68" s="1">
-        <v>837.69</v>
+        <v>554.03</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2091</v>
+        <v>232</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" s="1">
-        <v>554.03</v>
+        <v>492.92</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>232</v>
+        <v>1140</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>6</v>
       </c>
       <c r="E70" s="1">
-        <v>492.92</v>
+        <v>265.83</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1140</v>
+        <v>1606</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71">
         <v>6</v>
       </c>
       <c r="E71" s="1">
-        <v>265.83</v>
+        <v>929.61</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1606</v>
+        <v>2125</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72">
         <v>6</v>
       </c>
       <c r="E72" s="1">
-        <v>929.61</v>
+        <v>115.46</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2125</v>
+        <v>1575</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="E73" s="1">
-        <v>115.46</v>
+        <v>405.93</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E74" s="1">
-        <v>405.93</v>
+        <v>593.80999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75">
         <v>111</v>
       </c>
       <c r="E75" s="1">
-        <v>593.80999999999995</v>
+        <v>1306.02</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E76" s="1">
-        <v>1306.02</v>
+        <v>876.84</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1584</v>
+        <v>2005</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>106</v>
       </c>
       <c r="E77" s="1">
-        <v>876.84</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2005</v>
+        <v>1577</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E78" s="1">
-        <v>253.95</v>
+        <v>760.12</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1577</v>
+        <v>1585</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79">
         <v>104</v>
       </c>
       <c r="E79" s="1">
-        <v>760.12</v>
+        <v>952.64</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E80" s="1">
-        <v>952.64</v>
+        <v>710.26</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1578</v>
+        <v>1586</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>97</v>
       </c>
       <c r="E81" s="1">
-        <v>710.26</v>
+        <v>1264.6300000000001</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E82" s="1">
-        <v>1264.6300000000001</v>
+        <v>203.08</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1579</v>
+        <v>1766</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D83">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="E83" s="1">
-        <v>203.08</v>
+        <v>601.16</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E84" s="1">
-        <v>601.16</v>
+        <v>914.85</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E85" s="1">
-        <v>914.85</v>
+        <v>460.32</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E86" s="1">
-        <v>460.32</v>
+        <v>835.09</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E87" s="1">
-        <v>835.09</v>
+        <v>783.98</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E88" s="1">
-        <v>783.98</v>
+        <v>193.11</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E89" s="1">
-        <v>193.11</v>
+        <v>1126.82</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E90" s="1">
-        <v>1126.82</v>
+        <v>412.7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E91" s="1">
-        <v>412.7</v>
+        <v>211.26</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E92" s="1">
-        <v>211.26</v>
+        <v>1372.04</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E93" s="1">
-        <v>1372.04</v>
+        <v>1137.1400000000001</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E94" s="1">
-        <v>1137.1400000000001</v>
+        <v>715.96</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E95" s="1">
-        <v>715.96</v>
+        <v>712.88</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E96" s="1">
-        <v>712.88</v>
+        <v>972.03</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E97" s="1">
-        <v>972.03</v>
+        <v>799.39</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E98" s="1">
-        <v>799.39</v>
+        <v>796.55</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E99" s="1">
-        <v>796.55</v>
+        <v>934.67</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E100" s="1">
-        <v>934.67</v>
+        <v>514.53</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E101" s="1">
-        <v>514.53</v>
+        <v>1133.27</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E102" s="1">
-        <v>1133.27</v>
+        <v>444.67</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E103" s="1">
-        <v>444.67</v>
+        <v>928.15</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E104" s="1">
-        <v>928.15</v>
+        <v>449.81</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E105" s="1">
-        <v>449.81</v>
+        <v>663.91</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1789</v>
+        <v>1546</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="E106" s="1">
-        <v>663.91</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107">
         <v>176</v>
       </c>
       <c r="E107" s="1">
-        <v>200</v>
+        <v>520.52</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E108" s="1">
-        <v>520.52</v>
+        <v>77.16</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109">
         <v>174</v>
       </c>
       <c r="E109" s="1">
-        <v>77.16</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>174</v>
       </c>
       <c r="E110" s="1">
-        <v>19.5</v>
+        <v>356.04</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E111" s="1">
-        <v>356.04</v>
+        <v>617.21</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112">
         <v>170</v>
       </c>
       <c r="E112" s="1">
-        <v>617.21</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E113" s="1">
-        <v>16.96</v>
+        <v>1512.51</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114">
         <v>167</v>
       </c>
       <c r="E114" s="1">
-        <v>1512.51</v>
+        <v>821.08</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E115" s="1">
-        <v>821.08</v>
+        <v>1012.74</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E116" s="1">
-        <v>1012.74</v>
+        <v>561.69000000000005</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117">
         <v>155</v>
       </c>
       <c r="E117" s="1">
-        <v>561.69000000000005</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E118" s="1">
-        <v>15.72</v>
+        <v>863.99</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>153</v>
       </c>
       <c r="E119" s="1">
-        <v>863.99</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E120" s="1">
-        <v>13.65</v>
+        <v>528.26</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121">
         <v>148</v>
       </c>
       <c r="E121" s="1">
-        <v>528.26</v>
+        <v>17.309999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E122" s="1">
-        <v>17.309999999999999</v>
+        <v>931.78</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1563</v>
+        <v>1999</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E123" s="1">
-        <v>931.78</v>
+        <v>310.57</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1999</v>
+        <v>1564</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E124" s="1">
-        <v>310.57</v>
+        <v>468.37</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1564</v>
+        <v>2000</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125">
         <v>141</v>
       </c>
       <c r="E125" s="1">
-        <v>468.37</v>
+        <v>257.26</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2000</v>
+        <v>1565</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E126" s="1">
-        <v>257.26</v>
+        <v>1078.33</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <v>139</v>
       </c>
       <c r="E127" s="1">
-        <v>1078.33</v>
+        <v>68.86</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <v>139</v>
       </c>
       <c r="E128" s="1">
-        <v>68.86</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1567</v>
+        <v>2001</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E129" s="1">
-        <v>19.5</v>
+        <v>631.23</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2001</v>
+        <v>1568</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E130" s="1">
-        <v>631.23</v>
+        <v>509.69</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E131" s="1">
-        <v>509.69</v>
+        <v>749.22</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1569</v>
+        <v>2002</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E132" s="1">
-        <v>749.22</v>
+        <v>513.54</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2002</v>
+        <v>1570</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E133" s="1">
-        <v>513.54</v>
+        <v>481.54</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E134" s="1">
-        <v>481.54</v>
+        <v>782.67</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1571</v>
+        <v>2003</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E135" s="1">
-        <v>782.67</v>
+        <v>229.46</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2003</v>
+        <v>1138</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="E136" s="1">
-        <v>229.46</v>
+        <v>873.24</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1138</v>
+        <v>1596</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E137" s="1">
-        <v>873.24</v>
+        <v>1254.4000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1596</v>
+        <v>1031</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E138" s="1">
-        <v>1254.4000000000001</v>
+        <v>337.27</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1031</v>
+        <v>2089</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D139">
         <v>30</v>
       </c>
       <c r="E139" s="1">
-        <v>337.27</v>
+        <v>432.52</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>2089</v>
+        <v>201</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E140" s="1">
-        <v>432.52</v>
+        <v>137.46</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>201</v>
+        <v>1139</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141" s="1">
-        <v>137.46</v>
+        <v>325.24</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1139</v>
+        <v>2065</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142">
         <v>28</v>
       </c>
       <c r="E142" s="1">
-        <v>325.24</v>
+        <v>263.51</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>2065</v>
+        <v>1602</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E143" s="1">
-        <v>263.51</v>
+        <v>917.36</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1602</v>
+        <v>1580</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D144">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E144" s="1">
-        <v>917.36</v>
+        <v>87.76</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145">
         <v>90</v>
       </c>
       <c r="E145" s="1">
-        <v>87.76</v>
+        <v>1142.43</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1587</v>
+        <v>2079</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E146" s="1">
-        <v>1142.43</v>
+        <v>326.52</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2079</v>
+        <v>1588</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E147" s="1">
-        <v>326.52</v>
+        <v>524.29999999999995</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1588</v>
+        <v>2084</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D148">
         <v>85</v>
       </c>
       <c r="E148" s="1">
-        <v>524.29999999999995</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>2084</v>
+        <v>1572</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E149" s="1">
-        <v>20.84</v>
+        <v>694.57</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D150">
         <v>120</v>
       </c>
       <c r="E150" s="1">
-        <v>694.57</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D151">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E151" s="1">
-        <v>19.5</v>
+        <v>374.8</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1574</v>
+        <v>1582</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D152">
         <v>118</v>
       </c>
       <c r="E152" s="1">
-        <v>374.8</v>
+        <v>633.61</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1582</v>
+        <v>2004</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D153">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E153" s="1">
-        <v>633.61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>2004</v>
-      </c>
-      <c r="B154" t="s">
-        <v>38</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154">
-        <v>115</v>
-      </c>
-      <c r="E154" s="1">
         <v>475.38</v>
       </c>
     </row>

--- a/BBrito.xlsx
+++ b/BBrito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECFB9E9-259B-4A3E-AAA5-1335028B6A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8414F-E0CE-4A5A-A07F-0CC56D330FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B9E0E5B-35FC-4485-95B3-8885C20D1100}"/>
   </bookViews>
@@ -217,9 +217,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -504,16 +503,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D137E9BB-E1C2-45D9-AC6D-B99BE11B15AC}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -528,13 +528,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -545,13 +545,13 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>79.38</v>
       </c>
     </row>
@@ -562,13 +562,13 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1000</v>
       </c>
     </row>
@@ -579,13 +579,13 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>62.51</v>
       </c>
     </row>
@@ -596,13 +596,13 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>442.17</v>
       </c>
     </row>
@@ -613,13 +613,13 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>276.01</v>
       </c>
     </row>
@@ -630,13 +630,13 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>975.75</v>
       </c>
     </row>
@@ -647,13 +647,13 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>309.58</v>
       </c>
     </row>
@@ -664,13 +664,13 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>80.87</v>
       </c>
     </row>
@@ -681,13 +681,13 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>1707.61</v>
       </c>
     </row>
@@ -698,13 +698,13 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>1004.34</v>
       </c>
     </row>
@@ -715,13 +715,13 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12">
         <v>49</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>263.54000000000002</v>
       </c>
     </row>
@@ -732,13 +732,13 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13">
         <v>45</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>875.87</v>
       </c>
     </row>
@@ -749,13 +749,13 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14">
         <v>45</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>833.18</v>
       </c>
     </row>
@@ -766,13 +766,13 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15">
         <v>43</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>820.59</v>
       </c>
     </row>
@@ -783,13 +783,13 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16">
         <v>43</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>395.51</v>
       </c>
     </row>
@@ -800,13 +800,13 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17">
         <v>43</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>1137.46</v>
       </c>
     </row>
@@ -817,13 +817,13 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18">
         <v>38</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>93.01</v>
       </c>
     </row>
@@ -834,13 +834,13 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19">
         <v>37</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>327.02</v>
       </c>
     </row>
@@ -851,13 +851,13 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20">
         <v>37</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>777.01</v>
       </c>
     </row>
@@ -868,13 +868,13 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21">
         <v>37</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>807.52</v>
       </c>
     </row>
@@ -885,13 +885,13 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22">
         <v>36</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>140.97</v>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23">
         <v>36</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>290.42</v>
       </c>
     </row>
@@ -919,13 +919,13 @@
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24">
         <v>36</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>664.49</v>
       </c>
     </row>
@@ -936,13 +936,13 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25">
         <v>36</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>34.130000000000003</v>
       </c>
     </row>
@@ -953,13 +953,13 @@
       <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D26">
         <v>34</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>64.319999999999993</v>
       </c>
     </row>
@@ -970,13 +970,13 @@
       <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27">
         <v>34</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>556.16</v>
       </c>
     </row>
@@ -987,13 +987,13 @@
       <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28">
         <v>31</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>1009.59</v>
       </c>
     </row>
@@ -1004,13 +1004,13 @@
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29">
         <v>83</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>503.93</v>
       </c>
     </row>
@@ -1021,13 +1021,13 @@
       <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30">
         <v>76</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>854.19</v>
       </c>
     </row>
@@ -1038,13 +1038,13 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31">
         <v>69</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>965.58</v>
       </c>
     </row>
@@ -1055,13 +1055,13 @@
       <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32">
         <v>64</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>661.05</v>
       </c>
     </row>
@@ -1072,13 +1072,13 @@
       <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33">
         <v>64</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>455.28</v>
       </c>
     </row>
@@ -1089,13 +1089,13 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34">
         <v>23</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>448.28</v>
       </c>
     </row>
@@ -1106,13 +1106,13 @@
       <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35">
         <v>23</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>4.84</v>
       </c>
     </row>
@@ -1123,13 +1123,13 @@
       <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36">
         <v>23</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>302.58</v>
       </c>
     </row>
@@ -1140,13 +1140,13 @@
       <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37">
         <v>22</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>53.82</v>
       </c>
     </row>
@@ -1157,13 +1157,13 @@
       <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38">
         <v>22</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>801.17</v>
       </c>
     </row>
@@ -1174,13 +1174,13 @@
       <c r="B39" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39">
         <v>22</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>895.27</v>
       </c>
     </row>
@@ -1191,13 +1191,13 @@
       <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40">
         <v>22</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>26.99</v>
       </c>
     </row>
@@ -1208,13 +1208,13 @@
       <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41">
         <v>22</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>499.21</v>
       </c>
     </row>
@@ -1225,13 +1225,13 @@
       <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42">
         <v>22</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>914.63</v>
       </c>
     </row>
@@ -1242,13 +1242,13 @@
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43">
         <v>21</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>50.49</v>
       </c>
     </row>
@@ -1259,13 +1259,13 @@
       <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>724.49</v>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="B45" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>53.65</v>
       </c>
     </row>
@@ -1293,13 +1293,13 @@
       <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>811.01</v>
       </c>
     </row>
@@ -1310,13 +1310,13 @@
       <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>202.87</v>
       </c>
     </row>
@@ -1327,13 +1327,13 @@
       <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>367.27</v>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
       <c r="B49" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>669.77</v>
       </c>
     </row>
@@ -1361,13 +1361,13 @@
       <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>296.99</v>
       </c>
     </row>
@@ -1378,13 +1378,13 @@
       <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51">
         <v>15</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>101.57</v>
       </c>
     </row>
@@ -1395,13 +1395,13 @@
       <c r="B52" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52">
         <v>15</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>397.75</v>
       </c>
     </row>
@@ -1412,13 +1412,13 @@
       <c r="B53" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53">
         <v>15</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>279.77</v>
       </c>
     </row>
@@ -1429,13 +1429,13 @@
       <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54">
         <v>14</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>40.15</v>
       </c>
     </row>
@@ -1446,13 +1446,13 @@
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55">
         <v>14</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>98.34</v>
       </c>
     </row>
@@ -1463,13 +1463,13 @@
       <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56">
         <v>13</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>812.97</v>
       </c>
     </row>
@@ -1480,13 +1480,13 @@
       <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>588.15</v>
       </c>
     </row>
@@ -1497,13 +1497,13 @@
       <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D58">
         <v>9</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>389.41</v>
       </c>
     </row>
@@ -1514,13 +1514,13 @@
       <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>395.94</v>
       </c>
     </row>
@@ -1531,13 +1531,13 @@
       <c r="B60" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>540.98</v>
       </c>
     </row>
@@ -1548,13 +1548,13 @@
       <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>150.69999999999999</v>
       </c>
     </row>
@@ -1565,13 +1565,13 @@
       <c r="B62" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62">
         <v>8</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>173.04</v>
       </c>
     </row>
@@ -1582,13 +1582,13 @@
       <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>377.84</v>
       </c>
     </row>
@@ -1599,13 +1599,13 @@
       <c r="B64" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64">
         <v>8</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>33.700000000000003</v>
       </c>
     </row>
@@ -1616,13 +1616,13 @@
       <c r="B65" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65">
         <v>8</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>292.06</v>
       </c>
     </row>
@@ -1633,13 +1633,13 @@
       <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66">
         <v>7</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>433.87</v>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="B67" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67">
         <v>7</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>837.69</v>
       </c>
     </row>
@@ -1667,13 +1667,13 @@
       <c r="B68" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68">
         <v>7</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>554.03</v>
       </c>
     </row>
@@ -1684,13 +1684,13 @@
       <c r="B69" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D69">
         <v>6</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>492.92</v>
       </c>
     </row>
@@ -1701,13 +1701,13 @@
       <c r="B70" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70">
         <v>6</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>265.83</v>
       </c>
     </row>
@@ -1718,13 +1718,13 @@
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D71">
         <v>6</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>929.61</v>
       </c>
     </row>
@@ -1735,13 +1735,13 @@
       <c r="B72" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D72">
         <v>6</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>115.46</v>
       </c>
     </row>
@@ -1752,13 +1752,13 @@
       <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D73">
         <v>113</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="2">
         <v>405.93</v>
       </c>
     </row>
@@ -1769,13 +1769,13 @@
       <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D74">
         <v>111</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2">
         <v>593.80999999999995</v>
       </c>
     </row>
@@ -1786,13 +1786,13 @@
       <c r="B75" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D75">
         <v>111</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="2">
         <v>1306.02</v>
       </c>
     </row>
@@ -1803,13 +1803,13 @@
       <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D76">
         <v>106</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
         <v>876.84</v>
       </c>
     </row>
@@ -1820,13 +1820,13 @@
       <c r="B77" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D77">
         <v>106</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
         <v>253.95</v>
       </c>
     </row>
@@ -1837,13 +1837,13 @@
       <c r="B78" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D78">
         <v>104</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="2">
         <v>760.12</v>
       </c>
     </row>
@@ -1854,13 +1854,13 @@
       <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D79">
         <v>104</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="2">
         <v>952.64</v>
       </c>
     </row>
@@ -1871,13 +1871,13 @@
       <c r="B80" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D80">
         <v>97</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="2">
         <v>710.26</v>
       </c>
     </row>
@@ -1888,13 +1888,13 @@
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D81">
         <v>97</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="2">
         <v>1264.6300000000001</v>
       </c>
     </row>
@@ -1905,13 +1905,13 @@
       <c r="B82" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D82">
         <v>92</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="2">
         <v>203.08</v>
       </c>
     </row>
@@ -1922,13 +1922,13 @@
       <c r="B83" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D83">
         <v>279</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="2">
         <v>601.16</v>
       </c>
     </row>
@@ -1939,13 +1939,13 @@
       <c r="B84" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D84">
         <v>274</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="2">
         <v>914.85</v>
       </c>
     </row>
@@ -1956,13 +1956,13 @@
       <c r="B85" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D85">
         <v>272</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="2">
         <v>460.32</v>
       </c>
     </row>
@@ -1973,13 +1973,13 @@
       <c r="B86" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D86">
         <v>267</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2">
         <v>835.09</v>
       </c>
     </row>
@@ -1990,13 +1990,13 @@
       <c r="B87" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D87">
         <v>265</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="2">
         <v>783.98</v>
       </c>
     </row>
@@ -2007,13 +2007,13 @@
       <c r="B88" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D88">
         <v>261</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="2">
         <v>193.11</v>
       </c>
     </row>
@@ -2024,13 +2024,13 @@
       <c r="B89" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D89">
         <v>260</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="2">
         <v>1126.82</v>
       </c>
     </row>
@@ -2041,13 +2041,13 @@
       <c r="B90" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D90">
         <v>258</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2">
         <v>412.7</v>
       </c>
     </row>
@@ -2058,13 +2058,13 @@
       <c r="B91" t="s">
         <v>38</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D91">
         <v>253</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2">
         <v>211.26</v>
       </c>
     </row>
@@ -2075,13 +2075,13 @@
       <c r="B92" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D92">
         <v>251</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="2">
         <v>1372.04</v>
       </c>
     </row>
@@ -2092,13 +2092,13 @@
       <c r="B93" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D93">
         <v>246</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2">
         <v>1137.1400000000001</v>
       </c>
     </row>
@@ -2109,13 +2109,13 @@
       <c r="B94" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D94">
         <v>244</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="2">
         <v>715.96</v>
       </c>
     </row>
@@ -2126,13 +2126,13 @@
       <c r="B95" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D95">
         <v>239</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="2">
         <v>712.88</v>
       </c>
     </row>
@@ -2143,13 +2143,13 @@
       <c r="B96" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D96">
         <v>237</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>972.03</v>
       </c>
     </row>
@@ -2160,13 +2160,13 @@
       <c r="B97" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D97">
         <v>232</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="2">
         <v>799.39</v>
       </c>
     </row>
@@ -2177,13 +2177,13 @@
       <c r="B98" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D98">
         <v>230</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="2">
         <v>796.55</v>
       </c>
     </row>
@@ -2194,13 +2194,13 @@
       <c r="B99" t="s">
         <v>38</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D99">
         <v>225</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="2">
         <v>934.67</v>
       </c>
     </row>
@@ -2211,13 +2211,13 @@
       <c r="B100" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D100">
         <v>219</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="2">
         <v>514.53</v>
       </c>
     </row>
@@ -2228,13 +2228,13 @@
       <c r="B101" t="s">
         <v>38</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D101">
         <v>218</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="2">
         <v>1133.27</v>
       </c>
     </row>
@@ -2245,13 +2245,13 @@
       <c r="B102" t="s">
         <v>38</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D102">
         <v>216</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="2">
         <v>444.67</v>
       </c>
     </row>
@@ -2262,13 +2262,13 @@
       <c r="B103" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D103">
         <v>211</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2">
         <v>928.15</v>
       </c>
     </row>
@@ -2279,13 +2279,13 @@
       <c r="B104" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D104">
         <v>209</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2">
         <v>449.81</v>
       </c>
     </row>
@@ -2296,13 +2296,13 @@
       <c r="B105" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D105">
         <v>204</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="2">
         <v>663.91</v>
       </c>
     </row>
@@ -2313,13 +2313,13 @@
       <c r="B106" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D106">
         <v>176</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="2">
         <v>200</v>
       </c>
     </row>
@@ -2330,13 +2330,13 @@
       <c r="B107" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D107">
         <v>176</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
         <v>520.52</v>
       </c>
     </row>
@@ -2347,13 +2347,13 @@
       <c r="B108" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D108">
         <v>174</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2">
         <v>77.16</v>
       </c>
     </row>
@@ -2364,13 +2364,13 @@
       <c r="B109" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D109">
         <v>174</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="2">
         <v>19.5</v>
       </c>
     </row>
@@ -2381,13 +2381,13 @@
       <c r="B110" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D110">
         <v>174</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="2">
         <v>356.04</v>
       </c>
     </row>
@@ -2398,13 +2398,13 @@
       <c r="B111" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D111">
         <v>170</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="2">
         <v>617.21</v>
       </c>
     </row>
@@ -2415,13 +2415,13 @@
       <c r="B112" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D112">
         <v>170</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2">
         <v>16.96</v>
       </c>
     </row>
@@ -2432,13 +2432,13 @@
       <c r="B113" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D113">
         <v>167</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2">
         <v>1512.51</v>
       </c>
     </row>
@@ -2449,13 +2449,13 @@
       <c r="B114" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D114">
         <v>167</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="2">
         <v>821.08</v>
       </c>
     </row>
@@ -2466,13 +2466,13 @@
       <c r="B115" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D115">
         <v>160</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="2">
         <v>1012.74</v>
       </c>
     </row>
@@ -2483,13 +2483,13 @@
       <c r="B116" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D116">
         <v>155</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="2">
         <v>561.69000000000005</v>
       </c>
     </row>
@@ -2500,13 +2500,13 @@
       <c r="B117" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D117">
         <v>155</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="2">
         <v>15.72</v>
       </c>
     </row>
@@ -2517,13 +2517,13 @@
       <c r="B118" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D118">
         <v>153</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="2">
         <v>863.99</v>
       </c>
     </row>
@@ -2534,13 +2534,13 @@
       <c r="B119" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D119">
         <v>153</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="2">
         <v>13.65</v>
       </c>
     </row>
@@ -2551,13 +2551,13 @@
       <c r="B120" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D120">
         <v>148</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="2">
         <v>528.26</v>
       </c>
     </row>
@@ -2568,13 +2568,13 @@
       <c r="B121" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D121">
         <v>148</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="2">
         <v>17.309999999999999</v>
       </c>
     </row>
@@ -2585,13 +2585,13 @@
       <c r="B122" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D122">
         <v>146</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="2">
         <v>931.78</v>
       </c>
     </row>
@@ -2602,13 +2602,13 @@
       <c r="B123" t="s">
         <v>37</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D123">
         <v>143</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="2">
         <v>310.57</v>
       </c>
     </row>
@@ -2619,13 +2619,13 @@
       <c r="B124" t="s">
         <v>12</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D124">
         <v>141</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="2">
         <v>468.37</v>
       </c>
     </row>
@@ -2636,13 +2636,13 @@
       <c r="B125" t="s">
         <v>37</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D125">
         <v>141</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="2">
         <v>257.26</v>
       </c>
     </row>
@@ -2653,13 +2653,13 @@
       <c r="B126" t="s">
         <v>12</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D126">
         <v>139</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="2">
         <v>1078.33</v>
       </c>
     </row>
@@ -2670,13 +2670,13 @@
       <c r="B127" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D127">
         <v>139</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="2">
         <v>68.86</v>
       </c>
     </row>
@@ -2687,13 +2687,13 @@
       <c r="B128" t="s">
         <v>12</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D128">
         <v>139</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="2">
         <v>19.5</v>
       </c>
     </row>
@@ -2704,13 +2704,13 @@
       <c r="B129" t="s">
         <v>37</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D129">
         <v>136</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="2">
         <v>631.23</v>
       </c>
     </row>
@@ -2721,13 +2721,13 @@
       <c r="B130" t="s">
         <v>12</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D130">
         <v>134</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="2">
         <v>509.69</v>
       </c>
     </row>
@@ -2738,13 +2738,13 @@
       <c r="B131" t="s">
         <v>12</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D131">
         <v>132</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2">
         <v>749.22</v>
       </c>
     </row>
@@ -2755,13 +2755,13 @@
       <c r="B132" t="s">
         <v>37</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D132">
         <v>129</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2">
         <v>513.54</v>
       </c>
     </row>
@@ -2772,13 +2772,13 @@
       <c r="B133" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D133">
         <v>127</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2">
         <v>481.54</v>
       </c>
     </row>
@@ -2789,13 +2789,13 @@
       <c r="B134" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D134">
         <v>125</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2">
         <v>782.67</v>
       </c>
     </row>
@@ -2806,13 +2806,13 @@
       <c r="B135" t="s">
         <v>37</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D135">
         <v>122</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2">
         <v>229.46</v>
       </c>
     </row>
@@ -2823,13 +2823,13 @@
       <c r="B136" t="s">
         <v>39</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D136">
         <v>58</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2">
         <v>873.24</v>
       </c>
     </row>
@@ -2840,13 +2840,13 @@
       <c r="B137" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D137">
         <v>57</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2">
         <v>1254.4000000000001</v>
       </c>
     </row>
@@ -2857,13 +2857,13 @@
       <c r="B138" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D138">
         <v>30</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="2">
         <v>337.27</v>
       </c>
     </row>
@@ -2874,13 +2874,13 @@
       <c r="B139" t="s">
         <v>25</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D139">
         <v>30</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="2">
         <v>432.52</v>
       </c>
     </row>
@@ -2891,13 +2891,13 @@
       <c r="B140" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D140">
         <v>29</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="2">
         <v>137.46</v>
       </c>
     </row>
@@ -2908,13 +2908,13 @@
       <c r="B141" t="s">
         <v>39</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D141">
         <v>28</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="2">
         <v>325.24</v>
       </c>
     </row>
@@ -2925,13 +2925,13 @@
       <c r="B142" t="s">
         <v>17</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D142">
         <v>28</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="2">
         <v>263.51</v>
       </c>
     </row>
@@ -2942,13 +2942,13 @@
       <c r="B143" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D143">
         <v>27</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2">
         <v>917.36</v>
       </c>
     </row>
@@ -2959,13 +2959,13 @@
       <c r="B144" t="s">
         <v>12</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D144">
         <v>90</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="2">
         <v>87.76</v>
       </c>
     </row>
@@ -2976,13 +2976,13 @@
       <c r="B145" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D145">
         <v>90</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="2">
         <v>1142.43</v>
       </c>
     </row>
@@ -2993,13 +2993,13 @@
       <c r="B146" t="s">
         <v>40</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D146">
         <v>88</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="2">
         <v>326.52</v>
       </c>
     </row>
@@ -3010,13 +3010,13 @@
       <c r="B147" t="s">
         <v>16</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D147">
         <v>85</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="2">
         <v>524.29999999999995</v>
       </c>
     </row>
@@ -3027,13 +3027,13 @@
       <c r="B148" t="s">
         <v>41</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D148">
         <v>85</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="2">
         <v>20.84</v>
       </c>
     </row>
@@ -3044,13 +3044,13 @@
       <c r="B149" t="s">
         <v>12</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D149">
         <v>120</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="2">
         <v>694.57</v>
       </c>
     </row>
@@ -3061,13 +3061,13 @@
       <c r="B150" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D150">
         <v>120</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="2">
         <v>19.5</v>
       </c>
     </row>
@@ -3078,13 +3078,13 @@
       <c r="B151" t="s">
         <v>12</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D151">
         <v>118</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="2">
         <v>374.8</v>
       </c>
     </row>
@@ -3095,13 +3095,13 @@
       <c r="B152" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D152">
         <v>118</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="2">
         <v>633.61</v>
       </c>
     </row>
@@ -3112,13 +3112,13 @@
       <c r="B153" t="s">
         <v>37</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D153">
         <v>115</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="2">
         <v>475.38</v>
       </c>
     </row>

--- a/BBrito.xlsx
+++ b/BBrito.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ce9537a3d4953a2/Desktop/COMERCIAIS/Comerciais_Sttremlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8414F-E0CE-4A5A-A07F-0CC56D330FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B3E6CA3C-B130-407D-BDFC-7EC1AFB665BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E7E429-C2C0-4EE7-ACCC-2C21EA42104E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B9E0E5B-35FC-4485-95B3-8885C20D1100}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FEBCBBD6-9125-4308-829D-349325E88E11}"/>
   </bookViews>
   <sheets>
     <sheet name="BBrito" sheetId="1" r:id="rId1"/>
@@ -35,49 +35,910 @@
 </workbook>
 </file>
 
-<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
-<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
-  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
-      <code xml:space="preserve">import numpy as np
-import pandas as pd
-import matplotlib.pyplot as plt
-import seaborn as sns
-import statsmodels as sm
-import excel
-import warnings
-warnings.simplefilter('ignore')
-excel.set_xl_scalar_conversion(excel.convert_to_scalar)
-excel.set_xl_array_conversion(excel.convert_to_dataframe)
-</code>
-    </initialization>
-  </environmentDefinition>
-</python>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="89">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="34"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="37"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="38"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="40"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="41"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="42"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="43"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="44"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="45"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="46"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="47"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="48"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="49"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="50"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="51"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="52"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="53"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="54"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="55"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="56"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="57"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="58"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="59"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="60"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="61"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="62"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="63"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="64"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="65"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="66"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="67"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="68"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="69"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="70"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="71"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="72"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="73"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="74"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="75"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="76"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="77"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="78"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="79"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="80"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="81"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="82"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="83"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="84"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="85"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="86"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="87"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="88"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="89">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
+    </bk>
+    <bk>
+      <rc t="1" v="25"/>
+    </bk>
+    <bk>
+      <rc t="1" v="26"/>
+    </bk>
+    <bk>
+      <rc t="1" v="27"/>
+    </bk>
+    <bk>
+      <rc t="1" v="28"/>
+    </bk>
+    <bk>
+      <rc t="1" v="29"/>
+    </bk>
+    <bk>
+      <rc t="1" v="30"/>
+    </bk>
+    <bk>
+      <rc t="1" v="31"/>
+    </bk>
+    <bk>
+      <rc t="1" v="32"/>
+    </bk>
+    <bk>
+      <rc t="1" v="33"/>
+    </bk>
+    <bk>
+      <rc t="1" v="34"/>
+    </bk>
+    <bk>
+      <rc t="1" v="35"/>
+    </bk>
+    <bk>
+      <rc t="1" v="36"/>
+    </bk>
+    <bk>
+      <rc t="1" v="37"/>
+    </bk>
+    <bk>
+      <rc t="1" v="38"/>
+    </bk>
+    <bk>
+      <rc t="1" v="39"/>
+    </bk>
+    <bk>
+      <rc t="1" v="40"/>
+    </bk>
+    <bk>
+      <rc t="1" v="41"/>
+    </bk>
+    <bk>
+      <rc t="1" v="42"/>
+    </bk>
+    <bk>
+      <rc t="1" v="43"/>
+    </bk>
+    <bk>
+      <rc t="1" v="44"/>
+    </bk>
+    <bk>
+      <rc t="1" v="45"/>
+    </bk>
+    <bk>
+      <rc t="1" v="46"/>
+    </bk>
+    <bk>
+      <rc t="1" v="47"/>
+    </bk>
+    <bk>
+      <rc t="1" v="48"/>
+    </bk>
+    <bk>
+      <rc t="1" v="49"/>
+    </bk>
+    <bk>
+      <rc t="1" v="50"/>
+    </bk>
+    <bk>
+      <rc t="1" v="51"/>
+    </bk>
+    <bk>
+      <rc t="1" v="52"/>
+    </bk>
+    <bk>
+      <rc t="1" v="53"/>
+    </bk>
+    <bk>
+      <rc t="1" v="54"/>
+    </bk>
+    <bk>
+      <rc t="1" v="55"/>
+    </bk>
+    <bk>
+      <rc t="1" v="56"/>
+    </bk>
+    <bk>
+      <rc t="1" v="57"/>
+    </bk>
+    <bk>
+      <rc t="1" v="58"/>
+    </bk>
+    <bk>
+      <rc t="1" v="59"/>
+    </bk>
+    <bk>
+      <rc t="1" v="60"/>
+    </bk>
+    <bk>
+      <rc t="1" v="61"/>
+    </bk>
+    <bk>
+      <rc t="1" v="62"/>
+    </bk>
+    <bk>
+      <rc t="1" v="63"/>
+    </bk>
+    <bk>
+      <rc t="1" v="64"/>
+    </bk>
+    <bk>
+      <rc t="1" v="65"/>
+    </bk>
+    <bk>
+      <rc t="1" v="66"/>
+    </bk>
+    <bk>
+      <rc t="1" v="67"/>
+    </bk>
+    <bk>
+      <rc t="1" v="68"/>
+    </bk>
+    <bk>
+      <rc t="1" v="69"/>
+    </bk>
+    <bk>
+      <rc t="1" v="70"/>
+    </bk>
+    <bk>
+      <rc t="1" v="71"/>
+    </bk>
+    <bk>
+      <rc t="1" v="72"/>
+    </bk>
+    <bk>
+      <rc t="1" v="73"/>
+    </bk>
+    <bk>
+      <rc t="1" v="74"/>
+    </bk>
+    <bk>
+      <rc t="1" v="75"/>
+    </bk>
+    <bk>
+      <rc t="1" v="76"/>
+    </bk>
+    <bk>
+      <rc t="1" v="77"/>
+    </bk>
+    <bk>
+      <rc t="1" v="78"/>
+    </bk>
+    <bk>
+      <rc t="1" v="79"/>
+    </bk>
+    <bk>
+      <rc t="1" v="80"/>
+    </bk>
+    <bk>
+      <rc t="1" v="81"/>
+    </bk>
+    <bk>
+      <rc t="1" v="82"/>
+    </bk>
+    <bk>
+      <rc t="1" v="83"/>
+    </bk>
+    <bk>
+      <rc t="1" v="84"/>
+    </bk>
+    <bk>
+      <rc t="1" v="85"/>
+    </bk>
+    <bk>
+      <rc t="1" v="86"/>
+    </bk>
+    <bk>
+      <rc t="1" v="87"/>
+    </bk>
+    <bk>
+      <rc t="1" v="88"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="42">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Entidade</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Dias</t>
-  </si>
-  <si>
-    <t>Valor Pendente</t>
-  </si>
-  <si>
-    <t>1A5</t>
-  </si>
-  <si>
-    <t>31A60</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="44">
   <si>
     <t>61A90</t>
   </si>
@@ -85,10 +946,37 @@
     <t>6A30</t>
   </si>
   <si>
+    <t>31A60</t>
+  </si>
+  <si>
+    <t>M120</t>
+  </si>
+  <si>
     <t>91A120</t>
   </si>
   <si>
-    <t>M120</t>
+    <t>1A5</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Valor Pendente</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Data Venc.</t>
+  </si>
+  <si>
+    <t>Entidade</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Talho Estádio - Comércio De Carnes, Lda.</t>
@@ -217,15 +1105,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -236,6 +1138,464 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="89">
+  <rv s="0">
+    <fb>45847</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45848</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45849</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45800</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45801</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45805</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45807</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45812</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45813</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45814</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45816</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45819</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45767</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45774</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45781</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45786</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45827</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45828</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45829</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45830</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45833</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45834</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45835</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45836</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45837</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45841</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45842</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45843</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45844</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45737</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45739</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45744</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45746</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45753</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45758</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45571</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45576</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45578</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45583</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45585</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45589</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45590</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45592</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45597</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45599</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45604</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45606</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45611</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45613</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45618</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45620</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45625</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45631</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45632</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45634</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45639</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45641</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45646</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45674</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45676</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45680</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45683</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45690</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45695</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45697</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45702</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45704</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45707</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45709</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45711</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45714</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45716</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45718</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45721</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45723</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45725</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45728</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45792</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45793</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45820</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45821</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45822</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45823</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45760</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45762</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45765</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45730</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45732</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45735</fb>
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="1">
+    <spb s="0">
+      <v>1</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </x:dxf>
+  </dxfs>
+  <richStyles>
+    <rSty dxfid="0"/>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F77A9F1-8123-4397-8D08-378AC26D99EA}" name="Table2" displayName="Table2" ref="A1:G153" totalsRowShown="0">
+  <autoFilter ref="A1:G153" xr:uid="{0D4FB37F-8E1E-434E-97C4-F68A0AA7B04C}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{07177B86-8101-482E-A98B-12295254DBD6}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{031B62AC-2CDA-4BF6-885D-C2BC6A4E2E15}" name="Entidade"/>
+    <tableColumn id="3" xr3:uid="{40AD57D5-B29F-4A3E-A9A0-636D4C8FC022}" name="Data Venc." dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{6113AB82-58C0-4561-9D45-7D1EEF6BF1C5}" name="Categoria" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2584802-6D85-44FA-8A69-256C7F1C2401}" name="Dias" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8C23BCB3-5A3D-4A22-B3D4-5FC967B59168}" name="Valor Pendente"/>
+    <tableColumn id="6" xr3:uid="{D8FA29B7-8C84-4EFB-BEBD-A94EF15B6C39}" name="Mês" dataDxfId="2">
+      <calculatedColumnFormula>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,2630 +1860,3700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D137E9BB-E1C2-45D9-AC6D-B99BE11B15AC}">
-  <dimension ref="A1:F153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3702E335-D03A-4CD2-9EEA-6FFCDD70AB4F}">
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1161</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" vm="1">
+        <v>45847</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2">
         <v>79.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1581</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" vm="2">
+        <v>45848</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" vm="3">
+        <v>45849</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4">
         <v>62.51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>657</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" vm="3">
+        <v>45849</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5">
         <v>442.17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1498</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" vm="3">
+        <v>45849</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6">
         <v>276.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1607</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" vm="3">
+        <v>45849</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7">
         <v>975.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2070</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" vm="3">
+        <v>45849</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8">
         <v>309.58</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2103</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" vm="3">
+        <v>45849</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9">
         <v>80.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2149</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" vm="3">
+        <v>45849</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10">
         <v>1707.61</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1597</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" vm="4">
+        <v>45800</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
         <v>50</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11">
         <v>1004.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1598</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" vm="5">
+        <v>45801</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
         <v>49</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12">
         <v>263.54000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1890</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" vm="6">
+        <v>45805</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
         <v>45</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13">
         <v>875.87</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1891</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" vm="6">
+        <v>45805</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
         <v>45</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14">
         <v>833.18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1599</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" vm="7">
+        <v>45807</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
         <v>43</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15">
         <v>820.59</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1892</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" vm="7">
+        <v>45807</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
         <v>43</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16">
         <v>395.51</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2146</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" vm="7">
+        <v>45807</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
         <v>43</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17">
         <v>1137.46</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1893</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" vm="8">
+        <v>45812</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
         <v>38</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18">
         <v>93.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1030</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" vm="9">
+        <v>45813</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
         <v>37</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19">
         <v>327.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1894</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" vm="9">
+        <v>45813</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
         <v>37</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20">
         <v>777.01</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1895</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" vm="9">
+        <v>45813</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
         <v>37</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21">
         <v>807.52</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>653</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" vm="10">
+        <v>45814</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
         <v>36</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22">
         <v>140.97</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>810</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" vm="10">
+        <v>45814</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
         <v>36</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23">
         <v>290.42</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1600</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" vm="10">
+        <v>45814</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
         <v>36</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24">
         <v>664.49</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2052</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" vm="10">
+        <v>45814</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
         <v>36</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25">
         <v>34.130000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>654</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" vm="11">
+        <v>45816</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
         <v>34</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26">
         <v>64.319999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1601</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" vm="11">
+        <v>45816</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
         <v>34</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27">
         <v>556.16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1897</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" vm="12">
+        <v>45819</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
         <v>31</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28">
         <v>1009.59</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1589</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" vm="13">
+        <v>45767</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
         <v>83</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29">
         <v>503.93</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1590</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" vm="14">
+        <v>45774</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>76</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30">
         <v>854.19</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1591</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" vm="15">
+        <v>45781</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <v>69</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31">
         <v>965.58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1593</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2" vm="16">
+        <v>45786</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>64</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32">
         <v>661.05</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1594</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2" vm="16">
+        <v>45786</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>64</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33">
         <v>455.28</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
         <v>23</v>
       </c>
-      <c r="E34" s="2">
+      <c r="C34" s="2" vm="17">
+        <v>45827</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>23</v>
+      </c>
+      <c r="F34">
         <v>448.28</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2088</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" vm="17">
+        <v>45827</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
         <v>23</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2090</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" vm="17">
+        <v>45827</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
         <v>23</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36">
         <v>302.58</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" vm="18">
+        <v>45828</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
         <v>22</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37">
         <v>53.82</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1603</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2" vm="18">
+        <v>45828</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
         <v>22</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38">
         <v>801.17</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1634</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" vm="18">
+        <v>45828</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
         <v>22</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39">
         <v>895.27</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2053</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" vm="18">
+        <v>45828</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
         <v>22</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40">
         <v>26.99</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2066</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2" vm="18">
+        <v>45828</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
         <v>22</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41">
         <v>499.21</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2147</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2" vm="18">
+        <v>45828</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
         <v>22</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42">
         <v>914.63</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>203</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" vm="19">
+        <v>45829</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
         <v>21</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43">
         <v>50.49</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1604</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2" vm="20">
+        <v>45830</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
         <v>20</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44">
         <v>724.49</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2067</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" vm="20">
+        <v>45830</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
         <v>20</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45">
         <v>53.65</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1898</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" vm="21">
+        <v>45833</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
         <v>17</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46">
         <v>811.01</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>479</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" vm="22">
+        <v>45834</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
         <v>16</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47">
         <v>202.87</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1033</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" vm="22">
+        <v>45834</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
         <v>16</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48">
         <v>367.27</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1249</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="C49" s="2" vm="22">
+        <v>45834</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
         <v>16</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49">
         <v>669.77</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2143</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
+        <v>31</v>
+      </c>
+      <c r="C50" s="2" vm="22">
+        <v>45834</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
         <v>16</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50">
         <v>296.99</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
         <v>15</v>
       </c>
-      <c r="E51" s="2">
+      <c r="C51" s="2" vm="23">
+        <v>45835</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>15</v>
+      </c>
+      <c r="F51">
         <v>101.57</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>655</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2" vm="23">
+        <v>45835</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
         <v>15</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52">
         <v>397.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2068</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2" vm="23">
+        <v>45835</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
         <v>15</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53">
         <v>279.77</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>205</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" vm="24">
+        <v>45836</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
         <v>14</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54">
         <v>40.15</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2144</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="C55" s="2" vm="24">
+        <v>45836</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
         <v>14</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55">
         <v>98.34</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1605</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2" vm="25">
+        <v>45837</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
         <v>13</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56">
         <v>812.97</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>715</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="C57" s="2" vm="26">
+        <v>45841</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
         <v>9</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57">
         <v>588.15</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1034</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2" vm="26">
+        <v>45841</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
         <v>9</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58">
         <v>389.41</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1691</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59">
+        <v>33</v>
+      </c>
+      <c r="C59" s="2" vm="26">
+        <v>45841</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
         <v>9</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59">
         <v>395.94</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1935</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60">
+        <v>34</v>
+      </c>
+      <c r="C60" s="2" vm="26">
+        <v>45841</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
         <v>9</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60">
         <v>540.98</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" vm="27">
+        <v>45842</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
         <v>8</v>
       </c>
-      <c r="D61">
-        <v>8</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="F61">
         <v>150.69999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="2" vm="27">
+        <v>45842</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
         <v>8</v>
       </c>
-      <c r="D62">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="F62">
         <v>173.04</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>656</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2" vm="27">
+        <v>45842</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
         <v>8</v>
       </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="F63">
         <v>377.84</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2054</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="2" vm="27">
+        <v>45842</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
         <v>8</v>
       </c>
-      <c r="D64">
-        <v>8</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="F64">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2069</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2" vm="27">
+        <v>45842</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
         <v>8</v>
       </c>
-      <c r="D65">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="F65">
         <v>292.06</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>699</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66">
+        <v>36</v>
+      </c>
+      <c r="C66" s="2" vm="28">
+        <v>45843</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
         <v>7</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66">
         <v>433.87</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1250</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="C67" s="2" vm="28">
+        <v>45843</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
         <v>7</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67">
         <v>837.69</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2091</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68">
+        <v>27</v>
+      </c>
+      <c r="C68" s="2" vm="28">
+        <v>45843</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
         <v>7</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68">
         <v>554.03</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>232</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69">
+        <v>35</v>
+      </c>
+      <c r="C69" s="2" vm="29">
+        <v>45844</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
         <v>6</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69">
         <v>492.92</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1140</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70">
+        <v>37</v>
+      </c>
+      <c r="C70" s="2" vm="29">
+        <v>45844</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
         <v>6</v>
       </c>
-      <c r="E70" s="2">
+      <c r="F70">
         <v>265.83</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1606</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="C71" s="2" vm="29">
+        <v>45844</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
         <v>6</v>
       </c>
-      <c r="E71" s="2">
+      <c r="F71">
         <v>929.61</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2125</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72">
+        <v>38</v>
+      </c>
+      <c r="C72" s="2" vm="29">
+        <v>45844</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
         <v>6</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72">
         <v>115.46</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jul</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1575</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="C73" s="2" vm="30">
+        <v>45737</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1">
         <v>113</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73">
         <v>405.93</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1576</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2" vm="31">
+        <v>45739</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1">
         <v>111</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74">
         <v>593.80999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1583</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75">
+        <v>18</v>
+      </c>
+      <c r="C75" s="2" vm="31">
+        <v>45739</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1">
         <v>111</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75">
         <v>1306.02</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1584</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2" vm="32">
+        <v>45744</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1">
         <v>106</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76">
         <v>876.84</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2005</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77">
+        <v>39</v>
+      </c>
+      <c r="C77" s="2" vm="32">
+        <v>45744</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1">
         <v>106</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77">
         <v>253.95</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1577</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2" vm="33">
+        <v>45746</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
         <v>104</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78">
         <v>760.12</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1585</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79">
+        <v>18</v>
+      </c>
+      <c r="C79" s="2" vm="33">
+        <v>45746</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1">
         <v>104</v>
       </c>
-      <c r="E79" s="2">
+      <c r="F79">
         <v>952.64</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1578</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2" vm="34">
+        <v>45753</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1">
         <v>97</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80">
         <v>710.26</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1586</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81">
+        <v>18</v>
+      </c>
+      <c r="C81" s="2" vm="34">
+        <v>45753</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1">
         <v>97</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81">
         <v>1264.6300000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1579</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82">
+        <v>14</v>
+      </c>
+      <c r="C82" s="2" vm="35">
+        <v>45758</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1">
         <v>92</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82">
         <v>203.08</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1766</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83">
+        <v>40</v>
+      </c>
+      <c r="C83" s="2" vm="36">
+        <v>45571</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1">
         <v>279</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83">
         <v>601.16</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>out</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1767</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="C84" s="2" vm="37">
+        <v>45576</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1">
         <v>274</v>
       </c>
-      <c r="E84" s="2">
+      <c r="F84">
         <v>914.85</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>out</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1768</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="C85" s="2" vm="38">
+        <v>45578</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1">
         <v>272</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85">
         <v>460.32</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>out</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1769</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86">
+        <v>40</v>
+      </c>
+      <c r="C86" s="2" vm="39">
+        <v>45583</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1">
         <v>267</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F86">
         <v>835.09</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>out</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1771</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="C87" s="2" vm="40">
+        <v>45585</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1">
         <v>265</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F87">
         <v>783.98</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>out</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1772</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="C88" s="2" vm="41">
+        <v>45589</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
         <v>261</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88">
         <v>193.11</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>out</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1773</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89">
+        <v>40</v>
+      </c>
+      <c r="C89" s="2" vm="42">
+        <v>45590</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1">
         <v>260</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89">
         <v>1126.82</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>out</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1774</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90">
+        <v>40</v>
+      </c>
+      <c r="C90" s="2" vm="43">
+        <v>45592</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1">
         <v>258</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90">
         <v>412.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>out</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1775</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="C91" s="2" vm="44">
+        <v>45597</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
         <v>253</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91">
         <v>211.26</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1776</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="C92" s="2" vm="45">
+        <v>45599</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
         <v>251</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92">
         <v>1372.04</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1777</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="C93" s="2" vm="46">
+        <v>45604</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1">
         <v>246</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93">
         <v>1137.1400000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1778</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="C94" s="2" vm="47">
+        <v>45606</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
         <v>244</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94">
         <v>715.96</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1779</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95">
+        <v>40</v>
+      </c>
+      <c r="C95" s="2" vm="48">
+        <v>45611</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1">
         <v>239</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95">
         <v>712.88</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1780</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96">
+        <v>40</v>
+      </c>
+      <c r="C96" s="2" vm="49">
+        <v>45613</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
         <v>237</v>
       </c>
-      <c r="E96" s="2">
+      <c r="F96">
         <v>972.03</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1781</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97">
+        <v>40</v>
+      </c>
+      <c r="C97" s="2" vm="50">
+        <v>45618</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
         <v>232</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97">
         <v>799.39</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1782</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98">
+        <v>40</v>
+      </c>
+      <c r="C98" s="2" vm="51">
+        <v>45620</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1">
         <v>230</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98">
         <v>796.55</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1783</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99">
+        <v>40</v>
+      </c>
+      <c r="C99" s="2" vm="52">
+        <v>45625</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1">
         <v>225</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99">
         <v>934.67</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>nov</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1784</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100">
+        <v>40</v>
+      </c>
+      <c r="C100" s="2" vm="53">
+        <v>45631</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1">
         <v>219</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100">
         <v>514.53</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>dez</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1785</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101">
+        <v>40</v>
+      </c>
+      <c r="C101" s="2" vm="54">
+        <v>45632</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
         <v>218</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101">
         <v>1133.27</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>dez</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1786</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102">
+        <v>40</v>
+      </c>
+      <c r="C102" s="2" vm="55">
+        <v>45634</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1">
         <v>216</v>
       </c>
-      <c r="E102" s="2">
+      <c r="F102">
         <v>444.67</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>dez</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1787</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103">
+        <v>40</v>
+      </c>
+      <c r="C103" s="2" vm="56">
+        <v>45639</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1">
         <v>211</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103">
         <v>928.15</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>dez</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1788</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104">
+        <v>40</v>
+      </c>
+      <c r="C104" s="2" vm="57">
+        <v>45641</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1">
         <v>209</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104">
         <v>449.81</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>dez</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1789</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105">
+        <v>40</v>
+      </c>
+      <c r="C105" s="2" vm="58">
+        <v>45646</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1">
         <v>204</v>
       </c>
-      <c r="E105" s="2">
+      <c r="F105">
         <v>663.91</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>dez</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1546</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106">
+        <v>14</v>
+      </c>
+      <c r="C106" s="2" vm="59">
+        <v>45674</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1">
         <v>176</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106">
         <v>200</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1547</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107">
+        <v>14</v>
+      </c>
+      <c r="C107" s="2" vm="59">
+        <v>45674</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1">
         <v>176</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107">
         <v>520.52</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1548</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108">
+        <v>14</v>
+      </c>
+      <c r="C108" s="2" vm="60">
+        <v>45676</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
         <v>174</v>
       </c>
-      <c r="E108" s="2">
+      <c r="F108">
         <v>77.16</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1549</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109">
+        <v>14</v>
+      </c>
+      <c r="C109" s="2" vm="60">
+        <v>45676</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1">
         <v>174</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1550</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110">
+        <v>14</v>
+      </c>
+      <c r="C110" s="2" vm="60">
+        <v>45676</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1">
         <v>174</v>
       </c>
-      <c r="E110" s="2">
+      <c r="F110">
         <v>356.04</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1551</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111">
+        <v>14</v>
+      </c>
+      <c r="C111" s="2" vm="61">
+        <v>45680</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1">
         <v>170</v>
       </c>
-      <c r="E111" s="2">
+      <c r="F111">
         <v>617.21</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1552</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112">
+        <v>14</v>
+      </c>
+      <c r="C112" s="2" vm="61">
+        <v>45680</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1">
         <v>170</v>
       </c>
-      <c r="E112" s="2">
+      <c r="F112">
         <v>16.96</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1554</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113">
+        <v>14</v>
+      </c>
+      <c r="C113" s="2" vm="62">
+        <v>45683</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1">
         <v>167</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113">
         <v>1512.51</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1555</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114">
+        <v>14</v>
+      </c>
+      <c r="C114" s="2" vm="62">
+        <v>45683</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1">
         <v>167</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114">
         <v>821.08</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jan</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1556</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115">
+        <v>14</v>
+      </c>
+      <c r="C115" s="2" vm="63">
+        <v>45690</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1">
         <v>160</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115">
         <v>1012.74</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1557</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116">
+        <v>14</v>
+      </c>
+      <c r="C116" s="2" vm="64">
+        <v>45695</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1">
         <v>155</v>
       </c>
-      <c r="E116" s="2">
+      <c r="F116">
         <v>561.69000000000005</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1558</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117">
+        <v>14</v>
+      </c>
+      <c r="C117" s="2" vm="64">
+        <v>45695</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1">
         <v>155</v>
       </c>
-      <c r="E117" s="2">
+      <c r="F117">
         <v>15.72</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1559</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118">
+        <v>14</v>
+      </c>
+      <c r="C118" s="2" vm="65">
+        <v>45697</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1">
         <v>153</v>
       </c>
-      <c r="E118" s="2">
+      <c r="F118">
         <v>863.99</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1560</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119">
+        <v>14</v>
+      </c>
+      <c r="C119" s="2" vm="65">
+        <v>45697</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1">
         <v>153</v>
       </c>
-      <c r="E119" s="2">
+      <c r="F119">
         <v>13.65</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1561</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120">
+        <v>14</v>
+      </c>
+      <c r="C120" s="2" vm="66">
+        <v>45702</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="1">
         <v>148</v>
       </c>
-      <c r="E120" s="2">
+      <c r="F120">
         <v>528.26</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1562</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121">
+        <v>14</v>
+      </c>
+      <c r="C121" s="2" vm="66">
+        <v>45702</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1">
         <v>148</v>
       </c>
-      <c r="E121" s="2">
+      <c r="F121">
         <v>17.309999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1563</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122">
+        <v>14</v>
+      </c>
+      <c r="C122" s="2" vm="67">
+        <v>45704</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
         <v>146</v>
       </c>
-      <c r="E122" s="2">
+      <c r="F122">
         <v>931.78</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1999</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123">
+        <v>39</v>
+      </c>
+      <c r="C123" s="2" vm="68">
+        <v>45707</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1">
         <v>143</v>
       </c>
-      <c r="E123" s="2">
+      <c r="F123">
         <v>310.57</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1564</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124">
+        <v>14</v>
+      </c>
+      <c r="C124" s="2" vm="69">
+        <v>45709</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1">
         <v>141</v>
       </c>
-      <c r="E124" s="2">
+      <c r="F124">
         <v>468.37</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G124" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2000</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125">
+        <v>39</v>
+      </c>
+      <c r="C125" s="2" vm="69">
+        <v>45709</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="1">
         <v>141</v>
       </c>
-      <c r="E125" s="2">
+      <c r="F125">
         <v>257.26</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1565</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126">
+        <v>14</v>
+      </c>
+      <c r="C126" s="2" vm="70">
+        <v>45711</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="1">
         <v>139</v>
       </c>
-      <c r="E126" s="2">
+      <c r="F126">
         <v>1078.33</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1566</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127">
+        <v>14</v>
+      </c>
+      <c r="C127" s="2" vm="70">
+        <v>45711</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="1">
         <v>139</v>
       </c>
-      <c r="E127" s="2">
+      <c r="F127">
         <v>68.86</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1567</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128">
+        <v>14</v>
+      </c>
+      <c r="C128" s="2" vm="70">
+        <v>45711</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1">
         <v>139</v>
       </c>
-      <c r="E128" s="2">
+      <c r="F128">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2001</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129">
+        <v>39</v>
+      </c>
+      <c r="C129" s="2" vm="71">
+        <v>45714</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1">
         <v>136</v>
       </c>
-      <c r="E129" s="2">
+      <c r="F129">
         <v>631.23</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1568</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130">
+        <v>14</v>
+      </c>
+      <c r="C130" s="2" vm="72">
+        <v>45716</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="1">
         <v>134</v>
       </c>
-      <c r="E130" s="2">
+      <c r="F130">
         <v>509.69</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>fev</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1569</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131">
+        <v>14</v>
+      </c>
+      <c r="C131" s="2" vm="73">
+        <v>45718</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="1">
         <v>132</v>
       </c>
-      <c r="E131" s="2">
+      <c r="F131">
         <v>749.22</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2002</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132">
+        <v>39</v>
+      </c>
+      <c r="C132" s="2" vm="74">
+        <v>45721</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="1">
         <v>129</v>
       </c>
-      <c r="E132" s="2">
+      <c r="F132">
         <v>513.54</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G132" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1570</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133">
+        <v>14</v>
+      </c>
+      <c r="C133" s="2" vm="75">
+        <v>45723</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="1">
         <v>127</v>
       </c>
-      <c r="E133" s="2">
+      <c r="F133">
         <v>481.54</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G133" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1571</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134">
+        <v>14</v>
+      </c>
+      <c r="C134" s="2" vm="76">
+        <v>45725</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="1">
         <v>125</v>
       </c>
-      <c r="E134" s="2">
+      <c r="F134">
         <v>782.67</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G134" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2003</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135">
+        <v>39</v>
+      </c>
+      <c r="C135" s="2" vm="77">
+        <v>45728</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="1">
         <v>122</v>
       </c>
-      <c r="E135" s="2">
+      <c r="F135">
         <v>229.46</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G135" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1138</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136">
+        <v>41</v>
+      </c>
+      <c r="C136" s="2" vm="78">
+        <v>45792</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="1">
         <v>58</v>
       </c>
-      <c r="E136" s="2">
+      <c r="F136">
         <v>873.24</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G136" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1596</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137">
+        <v>18</v>
+      </c>
+      <c r="C137" s="2" vm="79">
+        <v>45793</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1">
         <v>57</v>
       </c>
-      <c r="E137" s="2">
+      <c r="F137">
         <v>1254.4000000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G137" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mai</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1031</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138">
+        <v>23</v>
+      </c>
+      <c r="C138" s="2" vm="80">
+        <v>45820</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
         <v>30</v>
       </c>
-      <c r="E138" s="2">
+      <c r="F138">
         <v>337.27</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G138" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2089</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139">
+        <v>27</v>
+      </c>
+      <c r="C139" s="2" vm="80">
+        <v>45820</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
         <v>30</v>
       </c>
-      <c r="E139" s="2">
+      <c r="F139">
         <v>432.52</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G139" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>201</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140">
+        <v>15</v>
+      </c>
+      <c r="C140" s="2" vm="81">
+        <v>45821</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
         <v>29</v>
       </c>
-      <c r="E140" s="2">
+      <c r="F140">
         <v>137.46</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G140" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1139</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141">
+        <v>41</v>
+      </c>
+      <c r="C141" s="2" vm="82">
+        <v>45822</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
         <v>28</v>
       </c>
-      <c r="E141" s="2">
+      <c r="F141">
         <v>325.24</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G141" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2065</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142">
+        <v>19</v>
+      </c>
+      <c r="C142" s="2" vm="82">
+        <v>45822</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
         <v>28</v>
       </c>
-      <c r="E142" s="2">
+      <c r="F142">
         <v>263.51</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G142" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1602</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143">
+        <v>18</v>
+      </c>
+      <c r="C143" s="2" vm="83">
+        <v>45823</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1">
         <v>27</v>
       </c>
-      <c r="E143" s="2">
+      <c r="F143">
         <v>917.36</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G143" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>jun</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1580</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144">
+        <v>14</v>
+      </c>
+      <c r="C144" s="2" vm="84">
+        <v>45760</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
         <v>90</v>
       </c>
-      <c r="E144" s="2">
+      <c r="F144">
         <v>87.76</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G144" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1587</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145">
+        <v>18</v>
+      </c>
+      <c r="C145" s="2" vm="84">
+        <v>45760</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
         <v>90</v>
       </c>
-      <c r="E145" s="2">
+      <c r="F145">
         <v>1142.43</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G145" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2079</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146">
+        <v>42</v>
+      </c>
+      <c r="C146" s="2" vm="85">
+        <v>45762</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
         <v>88</v>
       </c>
-      <c r="E146" s="2">
+      <c r="F146">
         <v>326.52</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G146" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1588</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147">
+        <v>18</v>
+      </c>
+      <c r="C147" s="2" vm="86">
+        <v>45765</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
         <v>85</v>
       </c>
-      <c r="E147" s="2">
+      <c r="F147">
         <v>524.29999999999995</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G147" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2084</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148">
+        <v>43</v>
+      </c>
+      <c r="C148" s="2" vm="86">
+        <v>45765</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
         <v>85</v>
       </c>
-      <c r="E148" s="2">
+      <c r="F148">
         <v>20.84</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G148" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>abr</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1572</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149">
+        <v>14</v>
+      </c>
+      <c r="C149" s="2" vm="87">
+        <v>45730</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="1">
         <v>120</v>
       </c>
-      <c r="E149" s="2">
+      <c r="F149">
         <v>694.57</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G149" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1573</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150">
+        <v>14</v>
+      </c>
+      <c r="C150" s="2" vm="87">
+        <v>45730</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" s="1">
         <v>120</v>
       </c>
-      <c r="E150" s="2">
+      <c r="F150">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G150" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1574</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151">
+        <v>14</v>
+      </c>
+      <c r="C151" s="2" vm="88">
+        <v>45732</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="1">
         <v>118</v>
       </c>
-      <c r="E151" s="2">
+      <c r="F151">
         <v>374.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G151" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1582</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152">
+        <v>18</v>
+      </c>
+      <c r="C152" s="2" vm="88">
+        <v>45732</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="1">
         <v>118</v>
       </c>
-      <c r="E152" s="2">
+      <c r="F152">
         <v>633.61</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G152" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2004</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153">
+        <v>39</v>
+      </c>
+      <c r="C153" s="2" vm="89">
+        <v>45735</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="1">
         <v>115</v>
       </c>
-      <c r="E153" s="2">
+      <c r="F153">
         <v>475.38</v>
+      </c>
+      <c r="G153" s="3" t="str">
+        <f>TEXT(Table2[[#This Row],[Data Venc.]],"mmm")</f>
+        <v>mar</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/BBrito.xlsx
+++ b/BBrito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D0EAE0-9D2A-4A38-B5DE-9EC9B49790E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FF4C57-5CE2-4D1D-AF0C-BA95F2849488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C472D74-6AB7-4877-A39C-7D10FA773EF4}"/>
   </bookViews>
@@ -95,37 +95,16 @@
     <t>31A60</t>
   </si>
   <si>
-    <t>6A30</t>
-  </si>
-  <si>
     <t>NC</t>
-  </si>
-  <si>
-    <t>A VENCER</t>
-  </si>
-  <si>
-    <t>Moura &amp; Costa, Lda</t>
   </si>
   <si>
     <t>61A90</t>
   </si>
   <si>
-    <t>Justino Ferreira &amp; Pinheiro - Unipessoal, Lda.</t>
-  </si>
-  <si>
     <t>RPR</t>
   </si>
   <si>
-    <t>Talho Montes De Azurva 2, Lda.</t>
-  </si>
-  <si>
-    <t>Vera Lúcia Da Graça Ferreira</t>
-  </si>
-  <si>
     <t>Talho Concorrência - Comércio De Carnes Unipessoal, Lda</t>
-  </si>
-  <si>
-    <t>Talho Montes De Azurva 3, Lda</t>
   </si>
   <si>
     <t>Selecção Do Êxito,Lda</t>
@@ -137,9 +116,6 @@
     <t>Rui Manuel Antunes Da Silva</t>
   </si>
   <si>
-    <t>Flor De S.Bernardo Padaria E</t>
-  </si>
-  <si>
     <t>Talho Concorrência 2 - Comércio De Carnes Unipessoal,Lda</t>
   </si>
   <si>
@@ -149,43 +125,16 @@
     <t>Ricardo Alexandre Martins Teixeira</t>
   </si>
   <si>
-    <t>Olhar Soberbo, Lda</t>
-  </si>
-  <si>
-    <t>Isaac José Oliveira - Unipessoal, Lda.</t>
-  </si>
-  <si>
     <t>João Beleza Prod. Alimentares, Lda</t>
   </si>
   <si>
     <t>Super - Talho Por Do Sol, Lda.</t>
   </si>
   <si>
-    <t>Cândida Maria Ferr.Martins Rocha</t>
-  </si>
-  <si>
-    <t>Talho Sérgio Santos Unip.Lda</t>
-  </si>
-  <si>
-    <t>Frutas Duarte, Lda</t>
-  </si>
-  <si>
     <t>Talho Origens Do Antuã, Unip. Lda</t>
   </si>
   <si>
-    <t>Léguas Suculentas - Unipessoal Lda.</t>
-  </si>
-  <si>
     <t>Maria Celeste Ferreira &amp; Ferreira, Lda.</t>
-  </si>
-  <si>
-    <t>Pedro Miguel Meireles Ferreira</t>
-  </si>
-  <si>
-    <t>1A5</t>
-  </si>
-  <si>
-    <t>Vitor Manuel De Oliveira Ferreira</t>
   </si>
   <si>
     <t>Armando Filipe De Sousa Barbosa</t>
@@ -198,12 +147,6 @@
   </si>
   <si>
     <t>91A120</t>
-  </si>
-  <si>
-    <t>Talhos - A.M. Mendonça, Unip.,Lda</t>
-  </si>
-  <si>
-    <t>Filipe Alves Unip., Lda</t>
   </si>
   <si>
     <t>César Freitas E Daniela Pinto, Lda</t>
@@ -251,16 +194,10 @@
     <t>FILIPE VARELA LOPES, UNIPESSOAL LDA</t>
   </si>
   <si>
-    <t>Manuel Alejandro da Silva Ibarra</t>
-  </si>
-  <si>
     <t>Talho Nelima - Pereira &amp; Filhos, Lda.</t>
   </si>
   <si>
     <t>Talho Central - Pereira da Silva &amp; Filhos, Lda.</t>
-  </si>
-  <si>
-    <t>Disprolafões - Produtos Alimentares, Lda.</t>
   </si>
   <si>
     <t>Francisco José Teixeira</t>
@@ -275,28 +212,79 @@
     <t>Salpitalhos - Comercio, Lda</t>
   </si>
   <si>
-    <t>A Rota dos Doces - Indústria de Pastelaria, Lda.</t>
+    <t>Talho Estádio - Comércio De Carnes, Lda.</t>
   </si>
   <si>
-    <t>Distriparedes - Supermercados, Lda.</t>
+    <t>MIGUEL GOMES BARBOSA, UNIPESSOAL LDA</t>
+  </si>
+  <si>
+    <t>Bruno Miguel Oliveira Martins</t>
+  </si>
+  <si>
+    <t>16A30</t>
+  </si>
+  <si>
+    <t>1A15</t>
+  </si>
+  <si>
+    <t>A VENCER</t>
+  </si>
+  <si>
+    <t>Moura &amp; Costa, Lda</t>
+  </si>
+  <si>
+    <t>Justino Ferreira &amp; Pinheiro - Unipessoal, Lda.</t>
+  </si>
+  <si>
+    <t>Talho Montes De Azurva 2, Lda.</t>
+  </si>
+  <si>
+    <t>Vera Lúcia Da Graça Ferreira</t>
+  </si>
+  <si>
+    <t>Talho Montes De Azurva 3, Lda</t>
+  </si>
+  <si>
+    <t>Manuel De Sousa Rodrigues</t>
+  </si>
+  <si>
+    <t>Flor De S.Bernardo Padaria E</t>
+  </si>
+  <si>
+    <t>Ingrediente Saliente - Talhos</t>
+  </si>
+  <si>
+    <t>Olhar Soberbo, Lda</t>
+  </si>
+  <si>
+    <t>Isaac José Oliveira - Unipessoal, Lda.</t>
   </si>
   <si>
     <t>Penafiel Carnes, Lda</t>
   </si>
   <si>
-    <t>Talho Estádio - Comércio De Carnes, Lda.</t>
+    <t>Cândida Maria Ferr.Martins Rocha</t>
   </si>
   <si>
-    <t>Jpa - Carnes De Cucujães, Lda</t>
+    <t>Gulosarraial- Comércio De Carnes</t>
   </si>
   <si>
-    <t>Secundino Horácio Freitas - Unipessoal, Lda.</t>
+    <t>Talho Sérgio Santos Unip.Lda</t>
   </si>
   <si>
-    <t>MIGUEL GOMES BARBOSA, UNIPESSOAL LDA</t>
+    <t>António Jorge Tavares Da Cruz</t>
   </si>
   <si>
-    <t>Ingrediente Saliente - Talhos</t>
+    <t>Frutas Duarte, Lda</t>
+  </si>
+  <si>
+    <t>Léguas Suculentas - Unipessoal Lda.</t>
+  </si>
+  <si>
+    <t>Pedro Miguel Meireles Ferreira</t>
+  </si>
+  <si>
+    <t>Vitor Manuel De Oliveira Ferreira</t>
   </si>
   <si>
     <t>Pedro Miguel Da Silva Lamarão</t>
@@ -305,34 +293,46 @@
     <t>Metade Gulosa, Lda</t>
   </si>
   <si>
+    <t>Jpa - Carnes De Cucujães, Lda</t>
+  </si>
+  <si>
+    <t>Colaço &amp; Correia, Lda</t>
+  </si>
+  <si>
+    <t>Talhos - A.M. Mendonça, Unip.,Lda</t>
+  </si>
+  <si>
+    <t>Filipe Alves Unip., Lda</t>
+  </si>
+  <si>
+    <t>Nuno Alexandre B. Maia Unip., Lda</t>
+  </si>
+  <si>
     <t>Satisfazverdade Unip., Lda.</t>
   </si>
   <si>
     <t>Fumeiros Sousa Viana - Unipessoal, Lda.</t>
   </si>
   <si>
-    <t>Bruno Miguel Oliveira Martins</t>
+    <t>Axioma Revigorado - Unipessoal, Lda. (Talho do Seixal)</t>
+  </si>
+  <si>
+    <t>Manuel Alejandro da Silva Ibarra</t>
+  </si>
+  <si>
+    <t>Disprolafões - Produtos Alimentares, Lda.</t>
+  </si>
+  <si>
+    <t>Secundino Horácio Freitas - Unipessoal, Lda.</t>
+  </si>
+  <si>
+    <t>A Rota dos Doces - Indústria de Pastelaria, Lda.</t>
+  </si>
+  <si>
+    <t>Distriparedes - Supermercados, Lda.</t>
   </si>
   <si>
     <t>António de Sousa Monteiro &amp; Filhos, Lda.</t>
-  </si>
-  <si>
-    <t>Manuel De Sousa Rodrigues</t>
-  </si>
-  <si>
-    <t>Gulosarraial- Comércio De Carnes</t>
-  </si>
-  <si>
-    <t>António Jorge Tavares Da Cruz</t>
-  </si>
-  <si>
-    <t>Colaço &amp; Correia, Lda</t>
-  </si>
-  <si>
-    <t>Nuno Alexandre B. Maia Unip., Lda</t>
-  </si>
-  <si>
-    <t>Axioma Revigorado - Unipessoal, Lda. (Talho do Seixal)</t>
   </si>
   <si>
     <t>Sérgio Quaresma - Unipessoal, Lda.</t>
@@ -784,7 +784,7 @@
         <v>11513</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
         <v>45905.458310185182</v>
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>11814</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>45912.512395833328</v>
@@ -846,7 +846,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2025</v>
@@ -969,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>211110699</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1256,7 +1256,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>211110699</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1297,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1305,16 +1305,16 @@
         <v>211110707</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1338,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>211110707</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1379,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>211111197</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1420,7 +1420,7 @@
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1428,16 +1428,16 @@
         <v>211111197</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -1461,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>211111197</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1502,7 +1502,7 @@
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>211111197</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1543,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>211111202</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>211111277</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1633,7 +1633,7 @@
         <v>211111293</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>211111293</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1707,7 +1707,7 @@
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
         <v>211111357</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1756,7 +1756,7 @@
         <v>211111357</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1789,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1797,10 +1797,10 @@
         <v>211111357</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1830,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>211111357</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1871,7 +1871,7 @@
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>211111408</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1912,7 +1912,7 @@
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>211111408</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1953,7 +1953,7 @@
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
         <v>211111408</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1994,7 +1994,7 @@
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>211111438</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -2035,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>211111613</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -2076,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2084,16 +2084,16 @@
         <v>211111613</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2125,7 +2125,7 @@
         <v>211111613</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2158,7 +2158,7 @@
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
         <v>211111629</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2199,7 +2199,7 @@
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>211111732</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2248,7 +2248,7 @@
         <v>211111732</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2289,10 +2289,10 @@
         <v>211111732</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>2025</v>
@@ -2330,7 +2330,7 @@
         <v>211111743</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2342,7 +2342,7 @@
         <v>11879</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1">
         <v>45913.403819444444</v>
@@ -2363,7 +2363,7 @@
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2371,7 +2371,7 @@
         <v>211111800</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2404,7 +2404,7 @@
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>211111887</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2424,7 +2424,7 @@
         <v>11481</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G42" s="1">
         <v>45905.3821412037</v>
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2453,7 +2453,7 @@
         <v>211111887</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2486,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>211111887</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2527,7 +2527,7 @@
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>211111887</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2568,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2576,10 +2576,10 @@
         <v>211111887</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>2025</v>
@@ -2609,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2617,10 +2617,10 @@
         <v>211111887</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -2650,7 +2650,7 @@
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2658,10 +2658,10 @@
         <v>211111933</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -2691,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2699,7 +2699,7 @@
         <v>211111933</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2732,7 +2732,7 @@
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>211111933</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2773,7 +2773,7 @@
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>211111933</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
         <v>211111933</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2855,7 +2855,7 @@
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>211111937</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2875,7 +2875,7 @@
         <v>12809</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G53" s="1">
         <v>45940.489849537036</v>
@@ -2896,7 +2896,7 @@
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2904,7 +2904,7 @@
         <v>211111960</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2937,7 +2937,7 @@
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2945,10 +2945,10 @@
         <v>211111960</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
         <v>2025</v>
@@ -2978,7 +2978,7 @@
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>211111960</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -3019,7 +3019,7 @@
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3027,10 +3027,10 @@
         <v>211111966</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -3039,7 +3039,7 @@
         <v>540</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G57" s="1">
         <v>45903</v>
@@ -3060,7 +3060,7 @@
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>211111966</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -3080,7 +3080,7 @@
         <v>11617</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G58" s="1">
         <v>45907.56821759259</v>
@@ -3101,7 +3101,7 @@
         <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>211111966</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3121,7 +3121,7 @@
         <v>11654</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G59" s="1">
         <v>45907.589421296296</v>
@@ -3142,7 +3142,7 @@
         <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3150,7 +3150,7 @@
         <v>211111966</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3162,7 +3162,7 @@
         <v>11802</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G60" s="1">
         <v>45912.472280092588</v>
@@ -3183,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>211111966</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3203,7 +3203,7 @@
         <v>12054</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G61" s="1">
         <v>45919.470567129625</v>
@@ -3224,7 +3224,7 @@
         <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>211111966</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3273,7 +3273,7 @@
         <v>211111966</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3306,7 +3306,7 @@
         <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>211111966</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3347,7 +3347,7 @@
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3355,7 +3355,7 @@
         <v>211111966</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3388,7 +3388,7 @@
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
         <v>211111966</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3429,7 +3429,7 @@
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>211111967</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3470,7 +3470,7 @@
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
         <v>211111967</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3511,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>211111973</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3552,7 +3552,7 @@
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3560,7 +3560,7 @@
         <v>211111973</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3593,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3601,7 +3601,7 @@
         <v>211111973</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3634,7 +3634,7 @@
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3642,7 +3642,7 @@
         <v>211111973</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3675,7 +3675,7 @@
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3683,10 +3683,10 @@
         <v>211111973</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -3716,7 +3716,7 @@
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>211111973</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3757,7 +3757,7 @@
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3765,7 +3765,7 @@
         <v>211111973</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3798,7 +3798,7 @@
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>211111977</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3818,7 +3818,7 @@
         <v>12565</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G76" s="1">
         <v>45924.454085648147</v>
@@ -3839,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3847,10 +3847,10 @@
         <v>211111977</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77">
         <v>2025</v>
@@ -3859,7 +3859,7 @@
         <v>859</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G77" s="1">
         <v>45931</v>
@@ -3880,7 +3880,7 @@
         <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
         <v>211111977</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3900,7 +3900,7 @@
         <v>12816</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G78" s="1">
         <v>45931.596817129626</v>
@@ -3921,7 +3921,7 @@
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3929,7 +3929,7 @@
         <v>211111989</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3962,7 +3962,7 @@
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3970,7 +3970,7 @@
         <v>211111989</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -4003,7 +4003,7 @@
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4011,7 +4011,7 @@
         <v>211111991</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -4044,7 +4044,7 @@
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>211111991</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4093,7 +4093,7 @@
         <v>211111991</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -4126,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
         <v>211111991</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4167,7 +4167,7 @@
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>211111991</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4208,7 +4208,7 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>211111991</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4249,7 +4249,7 @@
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4257,7 +4257,7 @@
         <v>211111991</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4290,7 +4290,7 @@
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>211111991</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4331,7 +4331,7 @@
         <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4339,7 +4339,7 @@
         <v>211112009</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4372,7 +4372,7 @@
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
         <v>211112009</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4392,7 +4392,7 @@
         <v>13428</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G90" s="1">
         <v>45956.589861111112</v>
@@ -4413,7 +4413,7 @@
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4421,7 +4421,7 @@
         <v>211112024</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4454,7 +4454,7 @@
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4462,7 +4462,7 @@
         <v>211112024</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4495,7 +4495,7 @@
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4503,7 +4503,7 @@
         <v>211112024</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4536,7 +4536,7 @@
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4544,7 +4544,7 @@
         <v>211112024</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4577,7 +4577,7 @@
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4585,7 +4585,7 @@
         <v>211112024</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4618,7 +4618,7 @@
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4626,7 +4626,7 @@
         <v>211112026</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4659,7 +4659,7 @@
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4667,7 +4667,7 @@
         <v>211112026</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4700,7 +4700,7 @@
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4708,7 +4708,7 @@
         <v>211112026</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4741,7 +4741,7 @@
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4749,10 +4749,10 @@
         <v>211112026</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99">
         <v>2025</v>
@@ -4782,7 +4782,7 @@
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4790,7 +4790,7 @@
         <v>211112026</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4823,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4831,7 +4831,7 @@
         <v>211112045</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4864,7 +4864,7 @@
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
         <v>211112045</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
         <v>211112045</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4946,7 +4946,7 @@
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4954,7 +4954,7 @@
         <v>211112045</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4987,7 +4987,7 @@
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4995,7 +4995,7 @@
         <v>211112053</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -5007,7 +5007,7 @@
         <v>11826</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G105" s="1">
         <v>45912.512673611112</v>
@@ -5028,7 +5028,7 @@
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5036,7 +5036,7 @@
         <v>211112053</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -5048,7 +5048,7 @@
         <v>12283</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G106" s="1">
         <v>45925.520648148144</v>
@@ -5069,7 +5069,7 @@
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5077,7 +5077,7 @@
         <v>211112053</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -5110,7 +5110,7 @@
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5118,7 +5118,7 @@
         <v>211112053</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -5151,7 +5151,7 @@
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5159,7 +5159,7 @@
         <v>211112066</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5192,7 +5192,7 @@
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5200,7 +5200,7 @@
         <v>211112066</v>
       </c>
       <c r="B110" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5233,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5241,7 +5241,7 @@
         <v>211112066</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5274,7 +5274,7 @@
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5282,7 +5282,7 @@
         <v>211112076</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5315,7 +5315,7 @@
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5323,7 +5323,7 @@
         <v>211112076</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5356,7 +5356,7 @@
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5364,7 +5364,7 @@
         <v>211112076</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5397,7 +5397,7 @@
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5405,7 +5405,7 @@
         <v>211112096</v>
       </c>
       <c r="B115" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5438,7 +5438,7 @@
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5446,7 +5446,7 @@
         <v>211112167</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5479,7 +5479,7 @@
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>211112167</v>
       </c>
       <c r="B117" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5520,7 +5520,7 @@
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5528,7 +5528,7 @@
         <v>211112167</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5561,7 +5561,7 @@
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5569,7 +5569,7 @@
         <v>211112167</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5602,7 +5602,7 @@
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5610,10 +5610,10 @@
         <v>211112221</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120">
         <v>2025</v>
@@ -5643,7 +5643,7 @@
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
         <v>211112221</v>
       </c>
       <c r="B121" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5684,7 +5684,7 @@
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5692,7 +5692,7 @@
         <v>211112221</v>
       </c>
       <c r="B122" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5733,10 +5733,10 @@
         <v>211112221</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D123">
         <v>2025</v>
@@ -5766,7 +5766,7 @@
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5774,7 +5774,7 @@
         <v>211112221</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5807,7 +5807,7 @@
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5815,7 +5815,7 @@
         <v>211112221</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5848,7 +5848,7 @@
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>211112221</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5889,7 +5889,7 @@
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5897,7 +5897,7 @@
         <v>211112221</v>
       </c>
       <c r="B127" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5930,7 +5930,7 @@
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5938,7 +5938,7 @@
         <v>211112240</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -5971,7 +5971,7 @@
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5979,7 +5979,7 @@
         <v>211112240</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -6012,7 +6012,7 @@
         <v>17</v>
       </c>
       <c r="M129" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6020,7 +6020,7 @@
         <v>211112240</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -6053,7 +6053,7 @@
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6061,7 +6061,7 @@
         <v>211112240</v>
       </c>
       <c r="B131" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -6094,7 +6094,7 @@
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6102,10 +6102,10 @@
         <v>211112240</v>
       </c>
       <c r="B132" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
@@ -6135,7 +6135,7 @@
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6143,7 +6143,7 @@
         <v>211112240</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6176,7 +6176,7 @@
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>211112240</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6217,7 +6217,7 @@
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6225,10 +6225,10 @@
         <v>211112240</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
@@ -6258,7 +6258,7 @@
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6266,7 +6266,7 @@
         <v>211112240</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6299,7 +6299,7 @@
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6307,7 +6307,7 @@
         <v>211112240</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6340,7 +6340,7 @@
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6348,7 +6348,7 @@
         <v>211112240</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6381,7 +6381,7 @@
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6389,7 +6389,7 @@
         <v>211112240</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6422,7 +6422,7 @@
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6430,7 +6430,7 @@
         <v>211112240</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6463,7 +6463,7 @@
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
         <v>211112240</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6504,7 +6504,7 @@
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
         <v>211112240</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6545,7 +6545,7 @@
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6553,7 +6553,7 @@
         <v>211112240</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6586,7 +6586,7 @@
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6594,7 +6594,7 @@
         <v>211112240</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6627,7 +6627,7 @@
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6635,7 +6635,7 @@
         <v>211112240</v>
       </c>
       <c r="B145" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6668,7 +6668,7 @@
         <v>17</v>
       </c>
       <c r="M145" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6676,7 +6676,7 @@
         <v>211112240</v>
       </c>
       <c r="B146" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6709,7 +6709,7 @@
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6717,7 +6717,7 @@
         <v>211112240</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6750,7 +6750,7 @@
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6758,7 +6758,7 @@
         <v>211112240</v>
       </c>
       <c r="B148" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6791,7 +6791,7 @@
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6799,7 +6799,7 @@
         <v>211112240</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6840,7 +6840,7 @@
         <v>211112240</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6881,10 +6881,10 @@
         <v>211112240</v>
       </c>
       <c r="B151" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D151">
         <v>2025</v>
@@ -6922,7 +6922,7 @@
         <v>211112240</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6963,7 +6963,7 @@
         <v>211112240</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6996,7 +6996,7 @@
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7004,7 +7004,7 @@
         <v>211112240</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -7037,7 +7037,7 @@
         <v>17</v>
       </c>
       <c r="M154" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7045,10 +7045,10 @@
         <v>211112240</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D155">
         <v>2025</v>
@@ -7078,7 +7078,7 @@
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7086,7 +7086,7 @@
         <v>211112240</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -7119,7 +7119,7 @@
         <v>17</v>
       </c>
       <c r="M156" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7127,7 +7127,7 @@
         <v>211112240</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7160,7 +7160,7 @@
         <v>17</v>
       </c>
       <c r="M157" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>211112243</v>
       </c>
       <c r="B158" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
@@ -7201,7 +7201,7 @@
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7209,7 +7209,7 @@
         <v>211112258</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
@@ -7242,7 +7242,7 @@
         <v>17</v>
       </c>
       <c r="M159" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7250,7 +7250,7 @@
         <v>211112263</v>
       </c>
       <c r="B160" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
@@ -7283,7 +7283,7 @@
         <v>17</v>
       </c>
       <c r="M160" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7291,7 +7291,7 @@
         <v>211112315</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -7324,7 +7324,7 @@
         <v>17</v>
       </c>
       <c r="M161" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7332,7 +7332,7 @@
         <v>211112315</v>
       </c>
       <c r="B162" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
@@ -7365,7 +7365,7 @@
         <v>17</v>
       </c>
       <c r="M162" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7373,7 +7373,7 @@
         <v>211112315</v>
       </c>
       <c r="B163" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
@@ -7406,7 +7406,7 @@
         <v>17</v>
       </c>
       <c r="M163" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7414,7 +7414,7 @@
         <v>211112337</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -7447,7 +7447,7 @@
         <v>17</v>
       </c>
       <c r="M164" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7455,7 +7455,7 @@
         <v>211112337</v>
       </c>
       <c r="B165" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
@@ -7488,7 +7488,7 @@
         <v>17</v>
       </c>
       <c r="M165" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7496,7 +7496,7 @@
         <v>211112353</v>
       </c>
       <c r="B166" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
@@ -7529,7 +7529,7 @@
         <v>17</v>
       </c>
       <c r="M166" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7537,10 +7537,10 @@
         <v>211112356</v>
       </c>
       <c r="B167" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D167">
         <v>2025</v>
@@ -7570,7 +7570,7 @@
         <v>17</v>
       </c>
       <c r="M167" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7578,10 +7578,10 @@
         <v>211112356</v>
       </c>
       <c r="B168" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
@@ -7611,7 +7611,7 @@
         <v>17</v>
       </c>
       <c r="M168" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7619,7 +7619,7 @@
         <v>211112356</v>
       </c>
       <c r="B169" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
@@ -7652,7 +7652,7 @@
         <v>17</v>
       </c>
       <c r="M169" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7660,16 +7660,16 @@
         <v>211112356</v>
       </c>
       <c r="B170" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C170" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D170" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E170" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
         <v>16</v>
@@ -7693,7 +7693,7 @@
         <v>17</v>
       </c>
       <c r="M170" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7701,7 +7701,7 @@
         <v>211112356</v>
       </c>
       <c r="B171" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
@@ -7734,7 +7734,7 @@
         <v>17</v>
       </c>
       <c r="M171" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7742,10 +7742,10 @@
         <v>211112356</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D172">
         <v>2025</v>
@@ -7775,7 +7775,7 @@
         <v>17</v>
       </c>
       <c r="M172" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7783,7 +7783,7 @@
         <v>211112356</v>
       </c>
       <c r="B173" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
@@ -7816,7 +7816,7 @@
         <v>17</v>
       </c>
       <c r="M173" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7824,7 +7824,7 @@
         <v>211112356</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
@@ -7857,7 +7857,7 @@
         <v>17</v>
       </c>
       <c r="M174" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7865,7 +7865,7 @@
         <v>211112356</v>
       </c>
       <c r="B175" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C175" t="s">
         <v>14</v>
@@ -7898,7 +7898,7 @@
         <v>17</v>
       </c>
       <c r="M175" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7906,7 +7906,7 @@
         <v>211112356</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C176" t="s">
         <v>14</v>
@@ -7939,7 +7939,7 @@
         <v>17</v>
       </c>
       <c r="M176" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7947,7 +7947,7 @@
         <v>211112356</v>
       </c>
       <c r="B177" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C177" t="s">
         <v>14</v>
@@ -7988,7 +7988,7 @@
         <v>211112356</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C178" t="s">
         <v>14</v>
@@ -8029,7 +8029,7 @@
         <v>211112356</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
@@ -8070,7 +8070,7 @@
         <v>211112356</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
@@ -8111,7 +8111,7 @@
         <v>211112356</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C181" t="s">
         <v>14</v>
@@ -8152,7 +8152,7 @@
         <v>211112356</v>
       </c>
       <c r="B182" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C182" t="s">
         <v>14</v>
@@ -8193,7 +8193,7 @@
         <v>211112356</v>
       </c>
       <c r="B183" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C183" t="s">
         <v>14</v>
@@ -8226,7 +8226,7 @@
         <v>17</v>
       </c>
       <c r="M183" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8234,7 +8234,7 @@
         <v>211112356</v>
       </c>
       <c r="B184" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C184" t="s">
         <v>14</v>
@@ -8267,7 +8267,7 @@
         <v>17</v>
       </c>
       <c r="M184" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8275,10 +8275,10 @@
         <v>211112356</v>
       </c>
       <c r="B185" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D185">
         <v>2025</v>
@@ -8308,7 +8308,7 @@
         <v>17</v>
       </c>
       <c r="M185" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8316,7 +8316,7 @@
         <v>211112356</v>
       </c>
       <c r="B186" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C186" t="s">
         <v>14</v>
@@ -8349,7 +8349,7 @@
         <v>17</v>
       </c>
       <c r="M186" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -8357,16 +8357,16 @@
         <v>211112380</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D187" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E187" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
         <v>16</v>
@@ -8390,7 +8390,7 @@
         <v>17</v>
       </c>
       <c r="M187" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -8398,13 +8398,13 @@
         <v>211112380</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D188" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E188">
         <v>168</v>
@@ -8431,7 +8431,7 @@
         <v>17</v>
       </c>
       <c r="M188" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8439,10 +8439,10 @@
         <v>211112380</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D189">
         <v>2025</v>
@@ -8472,7 +8472,7 @@
         <v>17</v>
       </c>
       <c r="M189" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8480,10 +8480,10 @@
         <v>211112380</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
@@ -8513,7 +8513,7 @@
         <v>17</v>
       </c>
       <c r="M190" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8521,10 +8521,10 @@
         <v>211112380</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
@@ -8554,7 +8554,7 @@
         <v>17</v>
       </c>
       <c r="M191" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8562,7 +8562,7 @@
         <v>211112386</v>
       </c>
       <c r="B192" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -8595,7 +8595,7 @@
         <v>17</v>
       </c>
       <c r="M192" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8603,7 +8603,7 @@
         <v>211112388</v>
       </c>
       <c r="B193" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C193" t="s">
         <v>14</v>
@@ -8636,7 +8636,7 @@
         <v>17</v>
       </c>
       <c r="M193" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8644,7 +8644,7 @@
         <v>211112388</v>
       </c>
       <c r="B194" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C194" t="s">
         <v>14</v>
@@ -8677,7 +8677,7 @@
         <v>17</v>
       </c>
       <c r="M194" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8685,7 +8685,7 @@
         <v>211112388</v>
       </c>
       <c r="B195" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
@@ -8718,7 +8718,7 @@
         <v>17</v>
       </c>
       <c r="M195" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8726,7 +8726,7 @@
         <v>211112388</v>
       </c>
       <c r="B196" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
@@ -8759,7 +8759,7 @@
         <v>17</v>
       </c>
       <c r="M196" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8767,7 +8767,7 @@
         <v>211112391</v>
       </c>
       <c r="B197" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C197" t="s">
         <v>14</v>
@@ -8800,7 +8800,7 @@
         <v>17</v>
       </c>
       <c r="M197" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8808,7 +8808,7 @@
         <v>211112391</v>
       </c>
       <c r="B198" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C198" t="s">
         <v>14</v>
@@ -8841,7 +8841,7 @@
         <v>17</v>
       </c>
       <c r="M198" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8849,7 +8849,7 @@
         <v>211112410</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C199" t="s">
         <v>14</v>
@@ -8882,7 +8882,7 @@
         <v>17</v>
       </c>
       <c r="M199" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8890,7 +8890,7 @@
         <v>211112410</v>
       </c>
       <c r="B200" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
@@ -8923,7 +8923,7 @@
         <v>17</v>
       </c>
       <c r="M200" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8931,7 +8931,7 @@
         <v>211112410</v>
       </c>
       <c r="B201" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
@@ -8964,7 +8964,7 @@
         <v>17</v>
       </c>
       <c r="M201" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8972,7 +8972,7 @@
         <v>211112410</v>
       </c>
       <c r="B202" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
@@ -9005,7 +9005,7 @@
         <v>17</v>
       </c>
       <c r="M202" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9013,7 +9013,7 @@
         <v>211112410</v>
       </c>
       <c r="B203" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C203" t="s">
         <v>14</v>
@@ -9046,7 +9046,7 @@
         <v>17</v>
       </c>
       <c r="M203" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9054,7 +9054,7 @@
         <v>211112429</v>
       </c>
       <c r="B204" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
@@ -9066,7 +9066,7 @@
         <v>8836</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G204" s="1">
         <v>45842.419490740736</v>
@@ -9087,7 +9087,7 @@
         <v>17</v>
       </c>
       <c r="M204" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9095,7 +9095,7 @@
         <v>211112429</v>
       </c>
       <c r="B205" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C205" t="s">
         <v>14</v>
@@ -9107,7 +9107,7 @@
         <v>10958</v>
       </c>
       <c r="F205" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G205" s="1">
         <v>45891.565983796296</v>
@@ -9136,7 +9136,7 @@
         <v>211112445</v>
       </c>
       <c r="B206" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C206" t="s">
         <v>14</v>
@@ -9148,7 +9148,7 @@
         <v>10444</v>
       </c>
       <c r="F206" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G206" s="1">
         <v>45879.37060185185</v>
@@ -9177,7 +9177,7 @@
         <v>211112445</v>
       </c>
       <c r="B207" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C207" t="s">
         <v>14</v>
@@ -9189,7 +9189,7 @@
         <v>10600</v>
       </c>
       <c r="F207" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G207" s="1">
         <v>45884.41333333333</v>
@@ -9218,7 +9218,7 @@
         <v>211112445</v>
       </c>
       <c r="B208" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C208" t="s">
         <v>14</v>
@@ -9230,7 +9230,7 @@
         <v>10954</v>
       </c>
       <c r="F208" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G208" s="1">
         <v>45891.565902777773</v>
@@ -9259,7 +9259,7 @@
         <v>211112445</v>
       </c>
       <c r="B209" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C209" t="s">
         <v>14</v>
@@ -9271,7 +9271,7 @@
         <v>11217</v>
       </c>
       <c r="F209" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G209" s="1">
         <v>45898.493379629625</v>
@@ -9292,7 +9292,7 @@
         <v>17</v>
       </c>
       <c r="M209" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9300,7 +9300,7 @@
         <v>211112445</v>
       </c>
       <c r="B210" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
@@ -9333,7 +9333,7 @@
         <v>17</v>
       </c>
       <c r="M210" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9341,7 +9341,7 @@
         <v>211112445</v>
       </c>
       <c r="B211" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
@@ -9353,7 +9353,7 @@
         <v>11799</v>
       </c>
       <c r="F211" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G211" s="1">
         <v>45912.472199074073</v>
@@ -9374,7 +9374,7 @@
         <v>17</v>
       </c>
       <c r="M211" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9382,7 +9382,7 @@
         <v>211112445</v>
       </c>
       <c r="B212" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C212" t="s">
         <v>14</v>
@@ -9415,7 +9415,7 @@
         <v>17</v>
       </c>
       <c r="M212" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -9423,7 +9423,7 @@
         <v>211112458</v>
       </c>
       <c r="B213" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
@@ -9456,7 +9456,7 @@
         <v>17</v>
       </c>
       <c r="M213" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -9464,7 +9464,7 @@
         <v>211112463</v>
       </c>
       <c r="B214" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
@@ -9476,7 +9476,7 @@
         <v>5601</v>
       </c>
       <c r="F214" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G214" s="1">
         <v>45765.364606481482</v>
@@ -9497,7 +9497,7 @@
         <v>17</v>
       </c>
       <c r="M214" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9505,7 +9505,7 @@
         <v>211112465</v>
       </c>
       <c r="B215" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C215" t="s">
         <v>14</v>
@@ -9538,7 +9538,7 @@
         <v>17</v>
       </c>
       <c r="M215" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9546,10 +9546,10 @@
         <v>211112466</v>
       </c>
       <c r="B216" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
@@ -9579,7 +9579,7 @@
         <v>17</v>
       </c>
       <c r="M216" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9587,7 +9587,7 @@
         <v>211112467</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -9620,7 +9620,7 @@
         <v>17</v>
       </c>
       <c r="M217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9628,7 +9628,7 @@
         <v>211112467</v>
       </c>
       <c r="B218" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -9661,7 +9661,7 @@
         <v>17</v>
       </c>
       <c r="M218" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9669,7 +9669,7 @@
         <v>211112467</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
@@ -9702,7 +9702,7 @@
         <v>17</v>
       </c>
       <c r="M219" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9710,7 +9710,7 @@
         <v>211112467</v>
       </c>
       <c r="B220" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
@@ -9751,7 +9751,7 @@
         <v>211112468</v>
       </c>
       <c r="B221" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
@@ -9784,7 +9784,7 @@
         <v>17</v>
       </c>
       <c r="M221" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>211112468</v>
       </c>
       <c r="B222" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
@@ -9825,7 +9825,7 @@
         <v>17</v>
       </c>
       <c r="M222" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9833,7 +9833,7 @@
         <v>211112468</v>
       </c>
       <c r="B223" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
@@ -9866,7 +9866,7 @@
         <v>17</v>
       </c>
       <c r="M223" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>211112471</v>
       </c>
       <c r="B224" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
@@ -9907,7 +9907,7 @@
         <v>17</v>
       </c>
       <c r="M224" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9915,7 +9915,7 @@
         <v>211112472</v>
       </c>
       <c r="B225" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
@@ -9948,7 +9948,7 @@
         <v>17</v>
       </c>
       <c r="M225" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9956,10 +9956,10 @@
         <v>211112472</v>
       </c>
       <c r="B226" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
@@ -9997,10 +9997,10 @@
         <v>211112473</v>
       </c>
       <c r="B227" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D227">
         <v>2025</v>
@@ -10030,7 +10030,7 @@
         <v>17</v>
       </c>
       <c r="M227" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10038,7 +10038,7 @@
         <v>211112483</v>
       </c>
       <c r="B228" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
@@ -10071,7 +10071,7 @@
         <v>17</v>
       </c>
       <c r="M228" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10079,10 +10079,10 @@
         <v>211112483</v>
       </c>
       <c r="B229" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D229">
         <v>2025</v>
@@ -10112,7 +10112,7 @@
         <v>17</v>
       </c>
       <c r="M229" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10120,7 +10120,7 @@
         <v>211112483</v>
       </c>
       <c r="B230" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
@@ -10153,7 +10153,7 @@
         <v>17</v>
       </c>
       <c r="M230" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10161,7 +10161,7 @@
         <v>211112483</v>
       </c>
       <c r="B231" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
@@ -10194,7 +10194,7 @@
         <v>17</v>
       </c>
       <c r="M231" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10202,7 +10202,7 @@
         <v>211112483</v>
       </c>
       <c r="B232" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -10235,7 +10235,7 @@
         <v>17</v>
       </c>
       <c r="M232" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10243,7 +10243,7 @@
         <v>211112483</v>
       </c>
       <c r="B233" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
@@ -10276,7 +10276,7 @@
         <v>17</v>
       </c>
       <c r="M233" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10284,7 +10284,7 @@
         <v>211112490</v>
       </c>
       <c r="B234" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -10296,7 +10296,7 @@
         <v>11329</v>
       </c>
       <c r="F234" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G234" s="1">
         <v>45900.497418981482</v>
@@ -10317,7 +10317,7 @@
         <v>17</v>
       </c>
       <c r="M234" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10325,7 +10325,7 @@
         <v>211112490</v>
       </c>
       <c r="B235" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -10337,7 +10337,7 @@
         <v>11613</v>
       </c>
       <c r="F235" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G235" s="1">
         <v>45907.568113425921</v>
@@ -10358,7 +10358,7 @@
         <v>17</v>
       </c>
       <c r="M235" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
         <v>211112490</v>
       </c>
       <c r="B236" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -10378,7 +10378,7 @@
         <v>12166</v>
       </c>
       <c r="F236" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G236" s="1">
         <v>45921.430775462963</v>
@@ -10399,7 +10399,7 @@
         <v>17</v>
       </c>
       <c r="M236" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10407,10 +10407,10 @@
         <v>211112490</v>
       </c>
       <c r="B237" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C237" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
@@ -10440,7 +10440,7 @@
         <v>17</v>
       </c>
       <c r="M237" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10448,7 +10448,7 @@
         <v>211112496</v>
       </c>
       <c r="B238" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
@@ -10481,7 +10481,7 @@
         <v>17</v>
       </c>
       <c r="M238" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -10489,7 +10489,7 @@
         <v>211112496</v>
       </c>
       <c r="B239" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C239" t="s">
         <v>14</v>
@@ -10522,7 +10522,7 @@
         <v>17</v>
       </c>
       <c r="M239" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -10530,7 +10530,7 @@
         <v>211112496</v>
       </c>
       <c r="B240" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
@@ -10563,7 +10563,7 @@
         <v>17</v>
       </c>
       <c r="M240" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10571,7 +10571,7 @@
         <v>211112496</v>
       </c>
       <c r="B241" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C241" t="s">
         <v>14</v>
@@ -10604,7 +10604,7 @@
         <v>17</v>
       </c>
       <c r="M241" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10612,7 +10612,7 @@
         <v>211112496</v>
       </c>
       <c r="B242" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
@@ -10645,7 +10645,7 @@
         <v>17</v>
       </c>
       <c r="M242" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10653,7 +10653,7 @@
         <v>211112508</v>
       </c>
       <c r="B243" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -10686,7 +10686,7 @@
         <v>17</v>
       </c>
       <c r="M243" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10694,10 +10694,10 @@
         <v>211112508</v>
       </c>
       <c r="B244" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D244">
         <v>2025</v>
@@ -10727,7 +10727,7 @@
         <v>17</v>
       </c>
       <c r="M244" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10735,7 +10735,7 @@
         <v>211112508</v>
       </c>
       <c r="B245" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -10768,7 +10768,7 @@
         <v>17</v>
       </c>
       <c r="M245" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10776,7 +10776,7 @@
         <v>211112533</v>
       </c>
       <c r="B246" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C246" t="s">
         <v>14</v>
@@ -10809,7 +10809,7 @@
         <v>17</v>
       </c>
       <c r="M246" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10817,7 +10817,7 @@
         <v>211112533</v>
       </c>
       <c r="B247" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
@@ -10850,7 +10850,7 @@
         <v>17</v>
       </c>
       <c r="M247" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10858,7 +10858,7 @@
         <v>211112539</v>
       </c>
       <c r="B248" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C248" t="s">
         <v>14</v>
@@ -10891,7 +10891,7 @@
         <v>17</v>
       </c>
       <c r="M248" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10899,7 +10899,7 @@
         <v>211112539</v>
       </c>
       <c r="B249" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
@@ -10932,7 +10932,7 @@
         <v>17</v>
       </c>
       <c r="M249" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10940,7 +10940,7 @@
         <v>211112545</v>
       </c>
       <c r="B250" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
@@ -10973,7 +10973,7 @@
         <v>17</v>
       </c>
       <c r="M250" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10981,7 +10981,7 @@
         <v>211112545</v>
       </c>
       <c r="B251" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
@@ -11014,7 +11014,7 @@
         <v>17</v>
       </c>
       <c r="M251" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -11022,7 +11022,7 @@
         <v>211112545</v>
       </c>
       <c r="B252" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
@@ -11055,7 +11055,7 @@
         <v>17</v>
       </c>
       <c r="M252" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11063,7 +11063,7 @@
         <v>211112548</v>
       </c>
       <c r="B253" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
@@ -11096,7 +11096,7 @@
         <v>17</v>
       </c>
       <c r="M253" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11104,7 +11104,7 @@
         <v>211112548</v>
       </c>
       <c r="B254" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
@@ -11137,7 +11137,7 @@
         <v>17</v>
       </c>
       <c r="M254" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11145,7 +11145,7 @@
         <v>211112560</v>
       </c>
       <c r="B255" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C255" t="s">
         <v>14</v>
@@ -11178,7 +11178,7 @@
         <v>17</v>
       </c>
       <c r="M255" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11186,7 +11186,7 @@
         <v>211112560</v>
       </c>
       <c r="B256" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C256" t="s">
         <v>14</v>
@@ -11219,7 +11219,7 @@
         <v>17</v>
       </c>
       <c r="M256" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11239,7 +11239,7 @@
         <v>13311</v>
       </c>
       <c r="F257" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G257" s="1">
         <v>45939.367430555554</v>
@@ -11260,7 +11260,7 @@
         <v>17</v>
       </c>
       <c r="M257" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/BBrito.xlsx
+++ b/BBrito.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulocosta\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F57AFB-3F06-48AD-8289-A07E0F62BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5380CC-2045-4666-922C-922FB39AE199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C472D74-6AB7-4877-A39C-7D10FA773EF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C472D74-6AB7-4877-A39C-7D10FA773EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="BBrito" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="85">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -104,16 +104,10 @@
     <t>RPR</t>
   </si>
   <si>
-    <t>Mpmurtosa Supermercados Unip.Lda</t>
-  </si>
-  <si>
     <t>Rui Manuel Antunes Da Silva</t>
   </si>
   <si>
     <t>Santos &amp; Dias, Lda</t>
-  </si>
-  <si>
-    <t>Ricardo Alexandre Martins Teixeira</t>
   </si>
   <si>
     <t>João Beleza Prod. Alimentares, Lda</t>
@@ -180,9 +174,6 @@
   </si>
   <si>
     <t>Casa do Aido - Unipessoal, Lda.</t>
-  </si>
-  <si>
-    <t>Salpitalhos - Comercio, Lda</t>
   </si>
   <si>
     <t>MIGUEL GOMES BARBOSA, UNIPESSOAL LDA</t>
@@ -275,9 +266,6 @@
     <t>Talho Do Bessa-Unip. Lda</t>
   </si>
   <si>
-    <t>Manuel Correia Silva &amp; Filhos, Lda</t>
-  </si>
-  <si>
     <t>Mercadinhos Adriano Supermercados, S.A.</t>
   </si>
   <si>
@@ -287,22 +275,22 @@
     <t>Catovaro-Comercio de Produtos Alimentares, Lda.</t>
   </si>
   <si>
-    <t>Carla Nazaré &amp; Jorge Mesquita,Lda</t>
-  </si>
-  <si>
-    <t>Sonhos Pioneiros, Lda</t>
-  </si>
-  <si>
-    <t>Secundino Horácio Freitas - Unipessoal, Lda.</t>
-  </si>
-  <si>
-    <t>António de Sousa Monteiro &amp; Filhos, Lda.</t>
-  </si>
-  <si>
     <t>Oásis da Paz - Talho e Charcutaria Lda</t>
   </si>
   <si>
     <t>Maria José Ferreira de Melo</t>
+  </si>
+  <si>
+    <t>Vera Lúcia Da Graça Ferreira</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Ingrediente Saliente - Talhos</t>
+  </si>
+  <si>
+    <t>Filipe Alves Unip., Lda</t>
   </si>
 </sst>
 </file>
@@ -677,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5CDD1D-73A0-4D01-9924-566D13893A1C}">
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,31 +736,31 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>13015</v>
+        <v>13540</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1">
-        <v>45947.31591435185</v>
+        <v>45961.381712962961</v>
       </c>
       <c r="H2" s="1">
-        <v>45917.315925925926</v>
+        <v>45931.382256944446</v>
       </c>
       <c r="I2" s="2">
         <v>17</v>
       </c>
       <c r="J2" s="3">
-        <v>72.02</v>
+        <v>150.01</v>
       </c>
       <c r="K2" s="3">
-        <v>72.02</v>
+        <v>150.01</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -789,31 +777,31 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>13317</v>
+        <v>13816</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>45954.375300925924</v>
+        <v>45969.350486111107</v>
       </c>
       <c r="H3" s="1">
-        <v>45924.375509259255</v>
+        <v>45939.352025462962</v>
       </c>
       <c r="I3" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3">
-        <v>86.56</v>
+        <v>99.03</v>
       </c>
       <c r="K3" s="3">
-        <v>86.56</v>
+        <v>99.03</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -830,31 +818,31 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>13540</v>
+        <v>14003</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45961.381712962961</v>
+        <v>45975.351215277777</v>
       </c>
       <c r="H4" s="1">
-        <v>45931.382256944446</v>
+        <v>45945.351504629631</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
       </c>
       <c r="J4" s="3">
-        <v>150.01</v>
+        <v>96.25</v>
       </c>
       <c r="K4" s="3">
-        <v>150.01</v>
+        <v>96.25</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -871,31 +859,31 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>13816</v>
+        <v>14428</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45969.350486111107</v>
+        <v>45989.35769675926</v>
       </c>
       <c r="H5" s="1">
-        <v>45939.352025462962</v>
+        <v>45959.358043981483</v>
       </c>
       <c r="I5" s="2">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="J5" s="3">
-        <v>99.03</v>
+        <v>179.53</v>
       </c>
       <c r="K5" s="3">
-        <v>99.03</v>
+        <v>179.53</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -906,37 +894,37 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
       </c>
       <c r="E6">
-        <v>14003</v>
+        <v>1005</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45975.351215277777</v>
+        <v>45995</v>
       </c>
       <c r="H6" s="1">
-        <v>45945.351504629631</v>
+        <v>45965</v>
       </c>
       <c r="I6" s="2">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="J6" s="3">
-        <v>96.25</v>
+        <v>-19.47</v>
       </c>
       <c r="K6" s="3">
-        <v>96.25</v>
+        <v>-19.47</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -947,45 +935,45 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
       </c>
       <c r="E7">
-        <v>14428</v>
+        <v>1009</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45989.35769675926</v>
+        <v>45996</v>
       </c>
       <c r="H7" s="1">
-        <v>45959.358043981483</v>
+        <v>45966</v>
       </c>
       <c r="I7" s="2">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="J7" s="3">
-        <v>179.53</v>
+        <v>-120.4</v>
       </c>
       <c r="K7" s="3">
-        <v>179.53</v>
+        <v>-120.4</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110699</v>
+        <v>211110610</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -994,39 +982,39 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>13564</v>
+        <v>14666</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45962.346782407403</v>
+        <v>45996.3908912037</v>
       </c>
       <c r="H8" s="1">
-        <v>45932.347708333335</v>
+        <v>45966.391226851847</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="J8" s="3">
-        <v>54.08</v>
+        <v>162.86000000000001</v>
       </c>
       <c r="K8" s="3">
-        <v>54.08</v>
+        <v>162.86000000000001</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211110699</v>
+        <v>211110610</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1035,31 +1023,31 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>13751</v>
+        <v>14877</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45968.333865740737</v>
+        <v>46003.355578703704</v>
       </c>
       <c r="H9" s="1">
-        <v>45938.334467592591</v>
+        <v>45973.356643518513</v>
       </c>
       <c r="I9" s="2">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="J9" s="3">
-        <v>186.95000000000002</v>
+        <v>97.960000000000008</v>
       </c>
       <c r="K9" s="3">
-        <v>186.95000000000002</v>
+        <v>97.960000000000008</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1067,40 +1055,40 @@
         <v>211110699</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>591</v>
+        <v>13564</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45976</v>
+        <v>45962.346782407403</v>
       </c>
       <c r="H10" s="1">
-        <v>45931</v>
+        <v>45932.347708333335</v>
       </c>
       <c r="I10" s="2">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="J10" s="3">
-        <v>-5.6000000000000005</v>
+        <v>54.08</v>
       </c>
       <c r="K10" s="3">
-        <v>-5.6000000000000005</v>
+        <v>54.08</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1108,7 +1096,7 @@
         <v>211110699</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1117,31 +1105,31 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>14164</v>
+        <v>13751</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45996.346909722219</v>
+        <v>45968.333865740737</v>
       </c>
       <c r="H11" s="1">
-        <v>45951.347291666665</v>
+        <v>45938.334467592591</v>
       </c>
       <c r="I11" s="2">
-        <v>-32</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3">
-        <v>56.81</v>
+        <v>186.95000000000002</v>
       </c>
       <c r="K11" s="3">
-        <v>56.81</v>
+        <v>186.95000000000002</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1149,7 +1137,7 @@
         <v>211110699</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1158,31 +1146,31 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>46003</v>
+        <v>45976</v>
       </c>
       <c r="H12" s="1">
-        <v>45958</v>
+        <v>45931</v>
       </c>
       <c r="I12" s="2">
-        <v>-39</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
-        <v>-12.92</v>
+        <v>-5.6000000000000005</v>
       </c>
       <c r="K12" s="3">
-        <v>-12.92</v>
+        <v>-5.6000000000000005</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1190,7 +1178,7 @@
         <v>211110699</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1199,80 +1187,80 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>14393</v>
+        <v>14164</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>46003.362164351849</v>
+        <v>45996.346909722219</v>
       </c>
       <c r="H13" s="1">
-        <v>45958.363402777773</v>
+        <v>45951.347291666665</v>
       </c>
       <c r="I13" s="2">
-        <v>-39</v>
+        <v>-18</v>
       </c>
       <c r="J13" s="3">
-        <v>133.72999999999999</v>
+        <v>56.81</v>
       </c>
       <c r="K13" s="3">
-        <v>133.72999999999999</v>
+        <v>56.81</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110707</v>
+        <v>211110699</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>620</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45938</v>
+        <v>46003</v>
       </c>
       <c r="H14" s="1">
-        <v>45908</v>
+        <v>45958</v>
       </c>
       <c r="I14" s="2">
-        <v>26</v>
+        <v>-25</v>
       </c>
       <c r="J14" s="3">
-        <v>-2509.46</v>
+        <v>-12.92</v>
       </c>
       <c r="K14" s="3">
-        <v>-1864.63</v>
+        <v>-12.92</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211110707</v>
+        <v>211110699</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1281,39 +1269,39 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>13038</v>
+        <v>14393</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45947.354548611111</v>
+        <v>46003.362164351849</v>
       </c>
       <c r="H15" s="1">
-        <v>45917.354548611111</v>
+        <v>45958.363402777773</v>
       </c>
       <c r="I15" s="2">
-        <v>17</v>
+        <v>-25</v>
       </c>
       <c r="J15" s="3">
-        <v>62.26</v>
+        <v>133.72999999999999</v>
       </c>
       <c r="K15" s="3">
-        <v>62.26</v>
+        <v>133.72999999999999</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211110707</v>
+        <v>211110699</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1322,39 +1310,39 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>13771</v>
+        <v>14622</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45968.349930555552</v>
+        <v>46010.379872685182</v>
       </c>
       <c r="H16" s="1">
-        <v>45938.350393518514</v>
+        <v>45965.380416666667</v>
       </c>
       <c r="I16" s="2">
-        <v>-4</v>
+        <v>-32</v>
       </c>
       <c r="J16" s="3">
-        <v>404.92</v>
+        <v>104.93</v>
       </c>
       <c r="K16" s="3">
-        <v>404.92</v>
+        <v>104.93</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211110707</v>
+        <v>211110699</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1363,48 +1351,48 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>14081</v>
+        <v>14836</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45977.282708333332</v>
+        <v>46017.36310185185</v>
       </c>
       <c r="H17" s="1">
-        <v>45947.283472222218</v>
+        <v>45972.364363425921</v>
       </c>
       <c r="I17" s="2">
-        <v>-13</v>
+        <v>-39</v>
       </c>
       <c r="J17" s="3">
-        <v>331.33</v>
+        <v>127.51</v>
       </c>
       <c r="K17" s="3">
-        <v>331.33</v>
+        <v>127.51</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211111197</v>
+        <v>211110707</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -1416,27 +1404,27 @@
         <v>45908</v>
       </c>
       <c r="I18" s="2">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J18" s="3">
-        <v>-2404.39</v>
+        <v>-2509.46</v>
       </c>
       <c r="K18" s="3">
-        <v>-152.12</v>
+        <v>-1864.63</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211111197</v>
+        <v>211110707</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1445,39 +1433,39 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>13696</v>
+        <v>13038</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45967.34275462963</v>
+        <v>45947.354548611111</v>
       </c>
       <c r="H19" s="1">
-        <v>45937.344513888886</v>
+        <v>45917.354548611111</v>
       </c>
       <c r="I19" s="2">
-        <v>-3</v>
+        <v>31</v>
       </c>
       <c r="J19" s="3">
-        <v>106.27</v>
+        <v>62.26</v>
       </c>
       <c r="K19" s="3">
-        <v>106.27</v>
+        <v>62.26</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211111197</v>
+        <v>211110707</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1486,39 +1474,39 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>13952</v>
+        <v>13771</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45974.350868055553</v>
+        <v>45968.349930555552</v>
       </c>
       <c r="H20" s="1">
-        <v>45944.351423611108</v>
+        <v>45938.350393518514</v>
       </c>
       <c r="I20" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3">
-        <v>100.34</v>
+        <v>404.92</v>
       </c>
       <c r="K20" s="3">
-        <v>100.34</v>
+        <v>404.92</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211111293</v>
+        <v>211110707</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1527,39 +1515,39 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>13697</v>
+        <v>14081</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45967.344652777778</v>
+        <v>45977.282708333332</v>
       </c>
       <c r="H21" s="1">
-        <v>45937.344942129625</v>
+        <v>45947.283472222218</v>
       </c>
       <c r="I21" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>96.570000000000007</v>
+        <v>331.33</v>
       </c>
       <c r="K21" s="3">
-        <v>96.570000000000007</v>
+        <v>331.33</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211111293</v>
+        <v>211110707</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1568,80 +1556,80 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>13956</v>
+        <v>14663</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45974.362430555557</v>
+        <v>45996.387037037035</v>
       </c>
       <c r="H22" s="1">
-        <v>45944.362777777773</v>
+        <v>45966.387592592589</v>
       </c>
       <c r="I22" s="2">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="J22" s="3">
-        <v>86.26</v>
+        <v>312.95</v>
       </c>
       <c r="K22" s="3">
-        <v>86.26</v>
+        <v>312.95</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211111293</v>
+        <v>211111197</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>14162</v>
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45981.346238425926</v>
+        <v>45938</v>
       </c>
       <c r="H23" s="1">
-        <v>45951.34643518518</v>
+        <v>45908</v>
       </c>
       <c r="I23" s="2">
-        <v>-17</v>
+        <v>40</v>
       </c>
       <c r="J23" s="3">
-        <v>65.97</v>
+        <v>-2404.39</v>
       </c>
       <c r="K23" s="3">
-        <v>65.97</v>
+        <v>-152.12</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211111293</v>
+        <v>211111197</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1650,39 +1638,39 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>14389</v>
+        <v>13696</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45988.35864583333</v>
+        <v>45967.34275462963</v>
       </c>
       <c r="H24" s="1">
-        <v>45958.359918981478</v>
+        <v>45937.344513888886</v>
       </c>
       <c r="I24" s="2">
-        <v>-24</v>
+        <v>11</v>
       </c>
       <c r="J24" s="3">
-        <v>52.9</v>
+        <v>106.27</v>
       </c>
       <c r="K24" s="3">
-        <v>52.9</v>
+        <v>106.27</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211111408</v>
+        <v>211111197</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1691,39 +1679,39 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>11568</v>
+        <v>13952</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45906.457361111112</v>
+        <v>45974.350868055553</v>
       </c>
       <c r="H25" s="1">
-        <v>45876.4602662037</v>
+        <v>45944.351423611108</v>
       </c>
       <c r="I25" s="2">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3">
-        <v>598.43000000000006</v>
+        <v>100.34</v>
       </c>
       <c r="K25" s="3">
-        <v>598.43000000000006</v>
+        <v>100.34</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211111408</v>
+        <v>211111197</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1732,39 +1720,39 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>12117</v>
+        <v>14625</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45920.51258101852</v>
+        <v>45995.382986111108</v>
       </c>
       <c r="H26" s="1">
-        <v>45890.512592592589</v>
+        <v>45965.383240740739</v>
       </c>
       <c r="I26" s="2">
-        <v>44</v>
+        <v>-17</v>
       </c>
       <c r="J26" s="3">
-        <v>386.1</v>
+        <v>232.73000000000002</v>
       </c>
       <c r="K26" s="3">
-        <v>386.1</v>
+        <v>232.73000000000002</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111408</v>
+        <v>211111197</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1773,39 +1761,39 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>12368</v>
+        <v>14839</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45927.430960648147</v>
+        <v>46002.365671296291</v>
       </c>
       <c r="H27" s="1">
-        <v>45897.430960648147</v>
+        <v>45972.365914351853</v>
       </c>
       <c r="I27" s="2">
-        <v>37</v>
+        <v>-24</v>
       </c>
       <c r="J27" s="3">
-        <v>322.44</v>
+        <v>104.89</v>
       </c>
       <c r="K27" s="3">
-        <v>322.44</v>
+        <v>104.89</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111493</v>
+        <v>211111202</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1814,80 +1802,80 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>13959</v>
+        <v>14838</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45974.364525462959</v>
+        <v>46002.364918981482</v>
       </c>
       <c r="H28" s="1">
-        <v>45944.365046296298</v>
+        <v>45972.365532407406</v>
       </c>
       <c r="I28" s="2">
-        <v>-10</v>
+        <v>-24</v>
       </c>
       <c r="J28" s="3">
-        <v>313.04000000000002</v>
+        <v>112.53</v>
       </c>
       <c r="K28" s="3">
-        <v>313.04000000000002</v>
+        <v>112.53</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111613</v>
+        <v>211111293</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>13697</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45925</v>
+        <v>45967.344652777778</v>
       </c>
       <c r="H29" s="1">
-        <v>45895</v>
+        <v>45937.344942129625</v>
       </c>
       <c r="I29" s="2">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J29" s="3">
-        <v>-384.06</v>
+        <v>96.570000000000007</v>
       </c>
       <c r="K29" s="3">
-        <v>-59.84</v>
+        <v>96.570000000000007</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111613</v>
+        <v>211111293</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1896,39 +1884,39 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>14027</v>
+        <v>13956</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45975.39571759259</v>
+        <v>45974.362430555557</v>
       </c>
       <c r="H30" s="1">
-        <v>45945.396307870367</v>
+        <v>45944.362777777773</v>
       </c>
       <c r="I30" s="2">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="J30" s="3">
-        <v>24.1</v>
+        <v>86.26</v>
       </c>
       <c r="K30" s="3">
-        <v>24.1</v>
+        <v>86.26</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111613</v>
+        <v>211111293</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1937,39 +1925,39 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>14225</v>
+        <v>14162</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45982.366423611107</v>
+        <v>45981.346238425926</v>
       </c>
       <c r="H31" s="1">
-        <v>45952.367129629631</v>
+        <v>45951.34643518518</v>
       </c>
       <c r="I31" s="2">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="J31" s="3">
-        <v>163.88</v>
+        <v>65.97</v>
       </c>
       <c r="K31" s="3">
-        <v>163.88</v>
+        <v>65.97</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111743</v>
+        <v>211111293</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1978,80 +1966,80 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>13596</v>
+        <v>14389</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45962.459282407406</v>
+        <v>45988.35864583333</v>
       </c>
       <c r="H32" s="1">
-        <v>45932.460300925923</v>
+        <v>45958.359918981478</v>
       </c>
       <c r="I32" s="2">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="J32" s="3">
-        <v>723.48</v>
+        <v>52.9</v>
       </c>
       <c r="K32" s="3">
-        <v>723.48</v>
+        <v>52.9</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111743</v>
+        <v>211111293</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>589</v>
+        <v>14624</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45976</v>
+        <v>45995.382268518515</v>
       </c>
       <c r="H33" s="1">
-        <v>45931</v>
+        <v>45965.382789351846</v>
       </c>
       <c r="I33" s="2">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="J33" s="3">
-        <v>-13.74</v>
+        <v>58.49</v>
       </c>
       <c r="K33" s="3">
-        <v>-13.74</v>
+        <v>58.49</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111794</v>
+        <v>211111293</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -2060,80 +2048,80 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>14051</v>
+        <v>14835</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45976.356990740736</v>
+        <v>46002.362719907404</v>
       </c>
       <c r="H34" s="1">
-        <v>45946.357430555552</v>
+        <v>45972.362962962958</v>
       </c>
       <c r="I34" s="2">
-        <v>-12</v>
+        <v>-24</v>
       </c>
       <c r="J34" s="3">
-        <v>449.37</v>
+        <v>48.660000000000004</v>
       </c>
       <c r="K34" s="3">
-        <v>449.37</v>
+        <v>48.660000000000004</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111794</v>
+        <v>211111613</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>14403</v>
+        <v>1770</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45988.388854166667</v>
+        <v>45962</v>
       </c>
       <c r="H35" s="1">
-        <v>45958.390277777777</v>
+        <v>45962</v>
       </c>
       <c r="I35" s="2">
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="J35" s="3">
-        <v>943.30000000000007</v>
+        <v>-292.54000000000002</v>
       </c>
       <c r="K35" s="3">
-        <v>943.30000000000007</v>
+        <v>-164.4</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111887</v>
+        <v>211111613</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2142,80 +2130,80 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>12281</v>
+        <v>14875</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45925.518483796295</v>
+        <v>46003.354039351849</v>
       </c>
       <c r="H36" s="1">
-        <v>45895.518495370372</v>
+        <v>45973.354386574072</v>
       </c>
       <c r="I36" s="2">
-        <v>39</v>
+        <v>-25</v>
       </c>
       <c r="J36" s="3">
-        <v>337.99</v>
+        <v>138.49</v>
       </c>
       <c r="K36" s="3">
-        <v>337.99</v>
+        <v>138.49</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111911</v>
+        <v>211111743</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
       </c>
       <c r="E37">
-        <v>604</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>46000</v>
+        <v>45976</v>
       </c>
       <c r="H37" s="1">
-        <v>45940</v>
+        <v>45974</v>
       </c>
       <c r="I37" s="2">
-        <v>-36</v>
+        <v>2</v>
       </c>
       <c r="J37" s="3">
-        <v>-3.5500000000000003</v>
+        <v>709.74</v>
       </c>
       <c r="K37" s="3">
-        <v>-3.5500000000000003</v>
+        <v>709.74</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111911</v>
+        <v>211111743</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2224,39 +2212,39 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>13878</v>
+        <v>14919</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>46000.370266203703</v>
+        <v>46019.353599537033</v>
       </c>
       <c r="H38" s="1">
-        <v>45940.370624999996</v>
+        <v>45974.353865740741</v>
       </c>
       <c r="I38" s="2">
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="J38" s="3">
-        <v>584.32000000000005</v>
+        <v>516.83000000000004</v>
       </c>
       <c r="K38" s="3">
-        <v>584.32000000000005</v>
+        <v>516.83000000000004</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111933</v>
+        <v>211111800</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2265,80 +2253,80 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>13551</v>
+        <v>14837</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45961.407708333332</v>
+        <v>45999</v>
       </c>
       <c r="H39" s="1">
-        <v>45931.408125000002</v>
+        <v>45972.36478009259</v>
       </c>
       <c r="I39" s="2">
-        <v>3</v>
+        <v>-21</v>
       </c>
       <c r="J39" s="3">
-        <v>392.68</v>
+        <v>125.79</v>
       </c>
       <c r="K39" s="3">
-        <v>392.68</v>
+        <v>125.79</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111933</v>
+        <v>211111911</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40">
-        <v>13770</v>
+        <v>604</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45968.348541666666</v>
+        <v>46000</v>
       </c>
       <c r="H40" s="1">
-        <v>45938.349791666667</v>
+        <v>45940</v>
       </c>
       <c r="I40" s="2">
-        <v>-4</v>
+        <v>-22</v>
       </c>
       <c r="J40" s="3">
-        <v>298.58</v>
+        <v>-3.5500000000000003</v>
       </c>
       <c r="K40" s="3">
-        <v>298.58</v>
+        <v>-3.5500000000000003</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>211111933</v>
+        <v>211111911</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2347,162 +2335,162 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>13890</v>
+        <v>13878</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45970.410057870366</v>
+        <v>46000.370266203703</v>
       </c>
       <c r="H41" s="1">
-        <v>45940.410509259258</v>
+        <v>45940.370624999996</v>
       </c>
       <c r="I41" s="2">
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="J41" s="3">
-        <v>46.32</v>
+        <v>584.32000000000005</v>
       </c>
       <c r="K41" s="3">
-        <v>46.32</v>
+        <v>584.32000000000005</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>211111933</v>
+        <v>211111911</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42">
-        <v>14087</v>
+        <v>627</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45977.328240740739</v>
+        <v>46024</v>
       </c>
       <c r="H42" s="1">
-        <v>45947.331574074073</v>
+        <v>45964</v>
       </c>
       <c r="I42" s="2">
-        <v>-13</v>
+        <v>-46</v>
       </c>
       <c r="J42" s="3">
-        <v>190.76</v>
+        <v>-5.51</v>
       </c>
       <c r="K42" s="3">
-        <v>190.76</v>
+        <v>-5.51</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111944</v>
+        <v>211111933</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>587</v>
+        <v>14652</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45961</v>
+        <v>45996.361435185187</v>
       </c>
       <c r="H43" s="1">
-        <v>45931</v>
+        <v>45966.363668981481</v>
       </c>
       <c r="I43" s="2">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="J43" s="3">
-        <v>-130.84</v>
+        <v>573.87</v>
       </c>
       <c r="K43" s="3">
-        <v>-130.84</v>
+        <v>573.87</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111944</v>
+        <v>211111933</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
       </c>
       <c r="E44">
-        <v>13537</v>
+        <v>1015</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45961.376134259255</v>
+        <v>46001</v>
       </c>
       <c r="H44" s="1">
-        <v>45931.376793981479</v>
+        <v>45971</v>
       </c>
       <c r="I44" s="2">
-        <v>3</v>
+        <v>-23</v>
       </c>
       <c r="J44" s="3">
-        <v>1321.04</v>
+        <v>-275</v>
       </c>
       <c r="K44" s="3">
-        <v>1321.04</v>
+        <v>-275</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>211111944</v>
+        <v>211111933</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2511,39 +2499,39 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>14426</v>
+        <v>14987</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45989.355694444443</v>
+        <v>46005.395138888889</v>
       </c>
       <c r="H45" s="1">
-        <v>45959.356006944443</v>
+        <v>45975.404479166667</v>
       </c>
       <c r="I45" s="2">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="J45" s="3">
-        <v>1418.01</v>
+        <v>464.61</v>
       </c>
       <c r="K45" s="3">
-        <v>1418.01</v>
+        <v>464.61</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>211111960</v>
+        <v>211111944</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2552,80 +2540,80 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>11438</v>
+        <v>14426</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45904.523854166662</v>
+        <v>45989.355694444443</v>
       </c>
       <c r="H46" s="1">
-        <v>45874.523865740739</v>
+        <v>45959.356006944443</v>
       </c>
       <c r="I46" s="2">
-        <v>60</v>
+        <v>-11</v>
       </c>
       <c r="J46" s="3">
-        <v>270.91000000000003</v>
+        <v>1418.01</v>
       </c>
       <c r="K46" s="3">
-        <v>270.91000000000003</v>
+        <v>1418.01</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>211111966</v>
+        <v>211111944</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>2025</v>
       </c>
       <c r="E47">
-        <v>13762</v>
+        <v>996</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45968.341828703698</v>
+        <v>45991</v>
       </c>
       <c r="H47" s="1">
-        <v>45938.342094907406</v>
+        <v>45961</v>
       </c>
       <c r="I47" s="2">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="J47" s="3">
-        <v>295.48</v>
+        <v>-782.59</v>
       </c>
       <c r="K47" s="3">
-        <v>295.48</v>
+        <v>-782.59</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>211111966</v>
+        <v>211111960</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2634,31 +2622,31 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>13897</v>
+        <v>11438</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45969</v>
+        <v>45904.523854166662</v>
       </c>
       <c r="H48" s="1">
-        <v>45940.417222222219</v>
+        <v>45874.523865740739</v>
       </c>
       <c r="I48" s="2">
-        <v>-5</v>
+        <v>74</v>
       </c>
       <c r="J48" s="3">
-        <v>78.150000000000006</v>
+        <v>270.91000000000003</v>
       </c>
       <c r="K48" s="3">
-        <v>78.150000000000006</v>
+        <v>270.91000000000003</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2666,7 +2654,7 @@
         <v>211111966</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2675,31 +2663,31 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>14036</v>
+        <v>13762</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G49" s="1">
-        <v>45969</v>
+        <v>45968.341828703698</v>
       </c>
       <c r="H49" s="1">
-        <v>45945.404537037037</v>
+        <v>45938.342094907406</v>
       </c>
       <c r="I49" s="2">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="J49" s="3">
-        <v>448.62</v>
+        <v>295.48</v>
       </c>
       <c r="K49" s="3">
-        <v>448.62</v>
+        <v>295.48</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2707,7 +2695,7 @@
         <v>211111966</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2716,31 +2704,31 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>14331</v>
+        <v>13897</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G50" s="1">
         <v>45969</v>
       </c>
       <c r="H50" s="1">
-        <v>45954.368032407408</v>
+        <v>45940.417222222219</v>
       </c>
       <c r="I50" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="J50" s="3">
-        <v>130.5</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="K50" s="3">
-        <v>130.5</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2748,40 +2736,40 @@
         <v>211111966</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51">
-        <v>601</v>
+        <v>14036</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G51" s="1">
         <v>45969</v>
       </c>
       <c r="H51" s="1">
-        <v>45939</v>
+        <v>45945.404537037037</v>
       </c>
       <c r="I51" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="J51" s="3">
-        <v>-8.73</v>
+        <v>448.62</v>
       </c>
       <c r="K51" s="3">
-        <v>-8.73</v>
+        <v>448.62</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2789,40 +2777,40 @@
         <v>211111966</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52">
-        <v>602</v>
+        <v>14331</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G52" s="1">
         <v>45969</v>
       </c>
       <c r="H52" s="1">
-        <v>45940</v>
+        <v>45954.368032407408</v>
       </c>
       <c r="I52" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="J52" s="3">
-        <v>-9.19</v>
+        <v>130.5</v>
       </c>
       <c r="K52" s="3">
-        <v>-9.19</v>
+        <v>130.5</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2830,7 +2818,7 @@
         <v>211111966</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -2839,121 +2827,121 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G53" s="1">
         <v>45969</v>
       </c>
       <c r="H53" s="1">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="I53" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="J53" s="3">
-        <v>-9.19</v>
+        <v>-8.73</v>
       </c>
       <c r="K53" s="3">
-        <v>-9.19</v>
+        <v>-8.73</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>211111967</v>
+        <v>211111966</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54">
-        <v>13767</v>
+        <v>602</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G54" s="1">
-        <v>45968.345162037032</v>
+        <v>45969</v>
       </c>
       <c r="H54" s="1">
-        <v>45938.345590277779</v>
+        <v>45940</v>
       </c>
       <c r="I54" s="2">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="J54" s="3">
-        <v>37.92</v>
+        <v>-9.19</v>
       </c>
       <c r="K54" s="3">
-        <v>37.92</v>
+        <v>-9.19</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>211111967</v>
+        <v>211111966</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55">
-        <v>14430</v>
+        <v>605</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G55" s="1">
-        <v>45989.359097222223</v>
+        <v>45969</v>
       </c>
       <c r="H55" s="1">
-        <v>45959.359560185185</v>
+        <v>45940</v>
       </c>
       <c r="I55" s="2">
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="J55" s="3">
-        <v>67.37</v>
+        <v>-9.19</v>
       </c>
       <c r="K55" s="3">
-        <v>67.37</v>
+        <v>-9.19</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>211111973</v>
+        <v>211111966</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2962,39 +2950,39 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>13765</v>
+        <v>14749</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45968.344259259255</v>
+        <v>45999</v>
       </c>
       <c r="H56" s="1">
-        <v>45938.344548611109</v>
+        <v>45968.374571759254</v>
       </c>
       <c r="I56" s="2">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="J56" s="3">
-        <v>72.210000000000008</v>
+        <v>228.28</v>
       </c>
       <c r="K56" s="3">
-        <v>72.210000000000008</v>
+        <v>228.28</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>211111973</v>
+        <v>211111966</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -3003,39 +2991,39 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>14235</v>
+        <v>14988</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45982.383842592593</v>
+        <v>45999</v>
       </c>
       <c r="H57" s="1">
-        <v>45952.384259259255</v>
+        <v>45975.404953703699</v>
       </c>
       <c r="I57" s="2">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="J57" s="3">
-        <v>35.08</v>
+        <v>178.94</v>
       </c>
       <c r="K57" s="3">
-        <v>35.08</v>
+        <v>178.94</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>211111973</v>
+        <v>211111967</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -3044,31 +3032,31 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>14240</v>
+        <v>14897</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45982.400335648148</v>
+        <v>46003.408020833333</v>
       </c>
       <c r="H58" s="1">
-        <v>45952.405370370368</v>
+        <v>45973.40893518518</v>
       </c>
       <c r="I58" s="2">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="J58" s="3">
-        <v>66.03</v>
+        <v>80.59</v>
       </c>
       <c r="K58" s="3">
-        <v>66.03</v>
+        <v>80.59</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3076,7 +3064,7 @@
         <v>211111973</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3085,39 +3073,39 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>14432</v>
+        <v>13765</v>
       </c>
       <c r="F59" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="1">
-        <v>45989.360393518517</v>
+        <v>45968.344259259255</v>
       </c>
       <c r="H59" s="1">
-        <v>45959.360706018517</v>
+        <v>45938.344548611109</v>
       </c>
       <c r="I59" s="2">
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="J59" s="3">
-        <v>88.68</v>
+        <v>72.210000000000008</v>
       </c>
       <c r="K59" s="3">
-        <v>88.68</v>
+        <v>72.210000000000008</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>211111989</v>
+        <v>211111973</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3126,39 +3114,39 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>13362</v>
+        <v>14235</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G60" s="1">
-        <v>45955.447013888886</v>
+        <v>45982.383842592593</v>
       </c>
       <c r="H60" s="1">
-        <v>45925.447453703702</v>
+        <v>45952.384259259255</v>
       </c>
       <c r="I60" s="2">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="J60" s="3">
-        <v>39.700000000000003</v>
+        <v>35.08</v>
       </c>
       <c r="K60" s="3">
-        <v>1</v>
+        <v>35.08</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>211111991</v>
+        <v>211111973</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3167,39 +3155,39 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>13645</v>
+        <v>14240</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G61" s="1">
-        <v>45963.444490740738</v>
+        <v>45982.400335648148</v>
       </c>
       <c r="H61" s="1">
-        <v>45933.444837962961</v>
+        <v>45952.405370370368</v>
       </c>
       <c r="I61" s="2">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J61" s="3">
-        <v>98.56</v>
+        <v>66.03</v>
       </c>
       <c r="K61" s="3">
-        <v>98.56</v>
+        <v>66.03</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211111991</v>
+        <v>211111973</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3208,80 +3196,80 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>13658</v>
+        <v>14432</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G62" s="1">
-        <v>45963.684733796297</v>
+        <v>45989.360393518517</v>
       </c>
       <c r="H62" s="1">
-        <v>45933.685787037037</v>
+        <v>45959.360706018517</v>
       </c>
       <c r="I62" s="2">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="J62" s="3">
-        <v>59.78</v>
+        <v>88.68</v>
       </c>
       <c r="K62" s="3">
-        <v>59.78</v>
+        <v>88.68</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211111991</v>
+        <v>211111973</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>2025</v>
       </c>
       <c r="E63">
-        <v>13791</v>
+        <v>995</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45968.398287037038</v>
+        <v>45991</v>
       </c>
       <c r="H63" s="1">
-        <v>45938.398611111108</v>
+        <v>45961</v>
       </c>
       <c r="I63" s="2">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="J63" s="3">
-        <v>127.47</v>
+        <v>-27.98</v>
       </c>
       <c r="K63" s="3">
-        <v>127.47</v>
+        <v>-27.98</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211111991</v>
+        <v>211111973</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3290,39 +3278,39 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>13889</v>
+        <v>14655</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45976</v>
+        <v>45996.373680555553</v>
       </c>
       <c r="H64" s="1">
-        <v>45940.409895833334</v>
+        <v>45966.374189814815</v>
       </c>
       <c r="I64" s="2">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="J64" s="3">
-        <v>85.34</v>
+        <v>82.210000000000008</v>
       </c>
       <c r="K64" s="3">
-        <v>85.34</v>
+        <v>82.210000000000008</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>211111991</v>
+        <v>211111973</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3331,39 +3319,39 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>14038</v>
+        <v>14900</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45976</v>
+        <v>46003.412511574075</v>
       </c>
       <c r="H65" s="1">
-        <v>45945.405995370369</v>
+        <v>45973.412962962961</v>
       </c>
       <c r="I65" s="2">
-        <v>-12</v>
+        <v>-25</v>
       </c>
       <c r="J65" s="3">
-        <v>95.56</v>
+        <v>80.320000000000007</v>
       </c>
       <c r="K65" s="3">
-        <v>95.56</v>
+        <v>80.320000000000007</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211111991</v>
+        <v>211111989</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3372,31 +3360,31 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>14107</v>
+        <v>13362</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45976</v>
+        <v>45955.447013888886</v>
       </c>
       <c r="H66" s="1">
-        <v>45947.38486111111</v>
+        <v>45925.447453703702</v>
       </c>
       <c r="I66" s="2">
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="J66" s="3">
-        <v>121.09</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="K66" s="3">
-        <v>121.09</v>
+        <v>1</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3404,7 +3392,7 @@
         <v>211111991</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3413,31 +3401,31 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>14213</v>
+        <v>14658</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45976</v>
+        <v>46006</v>
       </c>
       <c r="H67" s="1">
-        <v>45952.347546296296</v>
+        <v>45966.375567129631</v>
       </c>
       <c r="I67" s="2">
-        <v>-12</v>
+        <v>-28</v>
       </c>
       <c r="J67" s="3">
-        <v>76.16</v>
+        <v>129.09</v>
       </c>
       <c r="K67" s="3">
-        <v>76.16</v>
+        <v>129.09</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3445,7 +3433,7 @@
         <v>211111991</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3454,39 +3442,39 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>14239</v>
+        <v>14888</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45976</v>
+        <v>46006</v>
       </c>
       <c r="H68" s="1">
-        <v>45952.400196759256</v>
+        <v>45973.398414351846</v>
       </c>
       <c r="I68" s="2">
-        <v>-12</v>
+        <v>-28</v>
       </c>
       <c r="J68" s="3">
-        <v>36.21</v>
+        <v>116.54</v>
       </c>
       <c r="K68" s="3">
-        <v>36.21</v>
+        <v>116.54</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211111991</v>
+        <v>211112009</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3495,80 +3483,80 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>14434</v>
+        <v>14650</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45976</v>
+        <v>45996.359942129631</v>
       </c>
       <c r="H69" s="1">
-        <v>45959.363136574073</v>
+        <v>45966.360821759255</v>
       </c>
       <c r="I69" s="2">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="J69" s="3">
-        <v>200.1</v>
+        <v>64</v>
       </c>
       <c r="K69" s="3">
-        <v>200.1</v>
+        <v>64</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211111991</v>
+        <v>211112009</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>944</v>
+        <v>14957</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45976</v>
+        <v>46005.348020833335</v>
       </c>
       <c r="H70" s="1">
-        <v>45945</v>
+        <v>45975.348425925928</v>
       </c>
       <c r="I70" s="2">
-        <v>-12</v>
+        <v>-27</v>
       </c>
       <c r="J70" s="3">
-        <v>-18.34</v>
+        <v>116.19</v>
       </c>
       <c r="K70" s="3">
-        <v>-18.34</v>
+        <v>116.19</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211112009</v>
+        <v>211112024</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3577,31 +3565,31 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>13291</v>
+        <v>13717</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45954.348009259258</v>
+        <v>45967.369537037033</v>
       </c>
       <c r="H71" s="1">
-        <v>45924.348379629628</v>
+        <v>45937.369988425926</v>
       </c>
       <c r="I71" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J71" s="3">
-        <v>89.7</v>
+        <v>145.4</v>
       </c>
       <c r="K71" s="3">
-        <v>89.7</v>
+        <v>145.4</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3609,7 +3597,7 @@
         <v>211112024</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3618,31 +3606,31 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>13717</v>
+        <v>14390</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45967.369537037033</v>
+        <v>45988.36005787037</v>
       </c>
       <c r="H72" s="1">
-        <v>45937.369988425926</v>
+        <v>45958.360335648147</v>
       </c>
       <c r="I72" s="2">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="J72" s="3">
-        <v>145.4</v>
+        <v>243.62</v>
       </c>
       <c r="K72" s="3">
-        <v>145.4</v>
+        <v>243.62</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3650,40 +3638,40 @@
         <v>211112024</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
       </c>
       <c r="E73">
-        <v>14390</v>
+        <v>990</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45988.36005787037</v>
+        <v>45991</v>
       </c>
       <c r="H73" s="1">
-        <v>45958.360335648147</v>
+        <v>45961</v>
       </c>
       <c r="I73" s="2">
-        <v>-24</v>
+        <v>-13</v>
       </c>
       <c r="J73" s="3">
-        <v>243.62</v>
+        <v>-52.910000000000004</v>
       </c>
       <c r="K73" s="3">
-        <v>243.62</v>
+        <v>-52.910000000000004</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3691,7 +3679,7 @@
         <v>211112026</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3712,7 +3700,7 @@
         <v>45918.411550925921</v>
       </c>
       <c r="I74" s="2">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J74" s="3">
         <v>111.81</v>
@@ -3724,7 +3712,7 @@
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3732,7 +3720,7 @@
         <v>211112026</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -3753,7 +3741,7 @@
         <v>45923</v>
       </c>
       <c r="I75" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J75" s="3">
         <v>-18.57</v>
@@ -3765,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3773,7 +3761,7 @@
         <v>211112026</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3794,7 +3782,7 @@
         <v>45923.393321759257</v>
       </c>
       <c r="I76" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J76" s="3">
         <v>103.51</v>
@@ -3806,7 +3794,7 @@
         <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3814,7 +3802,7 @@
         <v>211112026</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3835,7 +3823,7 @@
         <v>45939.352708333332</v>
       </c>
       <c r="I77" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J77" s="3">
         <v>77.2</v>
@@ -3847,7 +3835,7 @@
         <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3855,7 +3843,7 @@
         <v>211112026</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3876,7 +3864,7 @@
         <v>45944.362280092588</v>
       </c>
       <c r="I78" s="2">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="J78" s="3">
         <v>119.64</v>
@@ -3888,7 +3876,7 @@
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3896,7 +3884,7 @@
         <v>211112026</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3917,7 +3905,7 @@
         <v>45953.368449074071</v>
       </c>
       <c r="I79" s="2">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="J79" s="3">
         <v>105.66</v>
@@ -3929,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3937,7 +3925,7 @@
         <v>211112045</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3949,7 +3937,7 @@
         <v>13547</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G80" s="1">
         <v>45961.401666666665</v>
@@ -3958,7 +3946,7 @@
         <v>45931.40221064815</v>
       </c>
       <c r="I80" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J80" s="3">
         <v>92.95</v>
@@ -3970,7 +3958,7 @@
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3978,7 +3966,7 @@
         <v>211112045</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3990,7 +3978,7 @@
         <v>13755</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G81" s="1">
         <v>45968.335856481477</v>
@@ -3999,7 +3987,7 @@
         <v>45938.336319444439</v>
       </c>
       <c r="I81" s="2">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="J81" s="3">
         <v>155.26</v>
@@ -4011,7 +3999,7 @@
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4019,7 +4007,7 @@
         <v>211112045</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -4031,7 +4019,7 @@
         <v>13798</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G82" s="1">
         <v>45968.40861111111</v>
@@ -4040,7 +4028,7 @@
         <v>45938.411689814813</v>
       </c>
       <c r="I82" s="2">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="J82" s="3">
         <v>32.51</v>
@@ -4052,7 +4040,7 @@
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4060,7 +4048,7 @@
         <v>211112045</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -4072,7 +4060,7 @@
         <v>13847</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G83" s="1">
         <v>45969.4215162037</v>
@@ -4081,7 +4069,7 @@
         <v>45939.431932870371</v>
       </c>
       <c r="I83" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="J83" s="3">
         <v>40.44</v>
@@ -4093,7 +4081,7 @@
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4101,7 +4089,7 @@
         <v>211112045</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
@@ -4113,7 +4101,7 @@
         <v>603</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G84" s="1">
         <v>45970</v>
@@ -4122,7 +4110,7 @@
         <v>45940</v>
       </c>
       <c r="I84" s="2">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="J84" s="3">
         <v>-4.76</v>
@@ -4134,7 +4122,7 @@
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4142,7 +4130,7 @@
         <v>211112045</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4154,7 +4142,7 @@
         <v>14033</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G85" s="1">
         <v>45975.401574074072</v>
@@ -4163,7 +4151,7 @@
         <v>45945.402152777773</v>
       </c>
       <c r="I85" s="2">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="J85" s="3">
         <v>94.37</v>
@@ -4175,7 +4163,7 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4183,7 +4171,7 @@
         <v>211112045</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4195,7 +4183,7 @@
         <v>14227</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G86" s="1">
         <v>45982.368032407408</v>
@@ -4204,7 +4192,7 @@
         <v>45952.36850694444</v>
       </c>
       <c r="I86" s="2">
-        <v>-18</v>
+        <v>-4</v>
       </c>
       <c r="J86" s="3">
         <v>192.56</v>
@@ -4216,7 +4204,7 @@
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4224,7 +4212,7 @@
         <v>211112045</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4236,7 +4224,7 @@
         <v>14459</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G87" s="1">
         <v>45989.408414351848</v>
@@ -4245,7 +4233,7 @@
         <v>45959.410694444443</v>
       </c>
       <c r="I87" s="2">
-        <v>-25</v>
+        <v>-11</v>
       </c>
       <c r="J87" s="3">
         <v>228.87</v>
@@ -4257,15 +4245,15 @@
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112053</v>
+        <v>211112045</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4274,72 +4262,72 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>13718</v>
+        <v>14721</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45967.370150462964</v>
+        <v>45998.346412037034</v>
       </c>
       <c r="H88" s="1">
-        <v>45937.370729166665</v>
+        <v>45968.34679398148</v>
       </c>
       <c r="I88" s="2">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="J88" s="3">
-        <v>555.20000000000005</v>
+        <v>127.65</v>
       </c>
       <c r="K88" s="3">
-        <v>555.20000000000005</v>
+        <v>127.65</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112053</v>
+        <v>211112045</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>936</v>
+        <v>14886</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45973</v>
+        <v>46003.39230324074</v>
       </c>
       <c r="H89" s="1">
-        <v>45943</v>
+        <v>45973.393368055556</v>
       </c>
       <c r="I89" s="2">
-        <v>-9</v>
+        <v>-25</v>
       </c>
       <c r="J89" s="3">
-        <v>-161.67000000000002</v>
+        <v>183.95000000000002</v>
       </c>
       <c r="K89" s="3">
-        <v>-161.67000000000002</v>
+        <v>183.95000000000002</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4347,40 +4335,40 @@
         <v>211112053</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>2025</v>
       </c>
       <c r="E90">
-        <v>13954</v>
+        <v>936</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45974.360856481479</v>
+        <v>45973</v>
       </c>
       <c r="H90" s="1">
-        <v>45944.361099537033</v>
+        <v>45943</v>
       </c>
       <c r="I90" s="2">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="J90" s="3">
-        <v>375.05</v>
+        <v>-161.67000000000002</v>
       </c>
       <c r="K90" s="3">
-        <v>375.05</v>
+        <v>-161.67000000000002</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4388,7 +4376,7 @@
         <v>211112053</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4397,31 +4385,31 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>14190</v>
+        <v>13954</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45981.393703703703</v>
+        <v>45974.360856481479</v>
       </c>
       <c r="H91" s="1">
-        <v>45951.395011574074</v>
+        <v>45944.361099537033</v>
       </c>
       <c r="I91" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="J91" s="3">
-        <v>550.76</v>
+        <v>375.05</v>
       </c>
       <c r="K91" s="3">
-        <v>550.76</v>
+        <v>375.05</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4429,7 +4417,7 @@
         <v>211112053</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4438,39 +4426,39 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>14502</v>
+        <v>14190</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45990.371562499997</v>
+        <v>45981.393703703703</v>
       </c>
       <c r="H92" s="1">
-        <v>45960.372708333329</v>
+        <v>45951.395011574074</v>
       </c>
       <c r="I92" s="2">
-        <v>-26</v>
+        <v>-3</v>
       </c>
       <c r="J92" s="3">
-        <v>542.41999999999996</v>
+        <v>550.76</v>
       </c>
       <c r="K92" s="3">
-        <v>542.41999999999996</v>
+        <v>550.76</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112062</v>
+        <v>211112053</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4479,39 +4467,39 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>13653</v>
+        <v>14502</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45963.478831018518</v>
+        <v>45990.371562499997</v>
       </c>
       <c r="H93" s="1">
-        <v>45933.479432870372</v>
+        <v>45960.372708333329</v>
       </c>
       <c r="I93" s="2">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="J93" s="3">
-        <v>25.23</v>
+        <v>542.41999999999996</v>
       </c>
       <c r="K93" s="3">
-        <v>25.23</v>
+        <v>542.41999999999996</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112066</v>
+        <v>211112062</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4520,80 +4508,80 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>14471</v>
+        <v>13653</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45989.45207175926</v>
+        <v>45963.478831018518</v>
       </c>
       <c r="H94" s="1">
-        <v>45959.45680555555</v>
+        <v>45933.479432870372</v>
       </c>
       <c r="I94" s="2">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="J94" s="3">
-        <v>374.99</v>
+        <v>25.23</v>
       </c>
       <c r="K94" s="3">
-        <v>374.99</v>
+        <v>25.23</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112076</v>
+        <v>211112062</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>902</v>
+        <v>14651</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45961</v>
+        <v>45996.360983796294</v>
       </c>
       <c r="H95" s="1">
-        <v>45931</v>
+        <v>45966.361284722218</v>
       </c>
       <c r="I95" s="2">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="J95" s="3">
-        <v>-31.35</v>
+        <v>47.53</v>
       </c>
       <c r="K95" s="3">
-        <v>-31.35</v>
+        <v>47.53</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112076</v>
+        <v>211112062</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4602,39 +4590,39 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>13541</v>
+        <v>14876</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45961.386400462958</v>
+        <v>46003.354537037034</v>
       </c>
       <c r="H96" s="1">
-        <v>45931.38722222222</v>
+        <v>45973.354826388888</v>
       </c>
       <c r="I96" s="2">
-        <v>3</v>
+        <v>-25</v>
       </c>
       <c r="J96" s="3">
-        <v>72.64</v>
+        <v>41.75</v>
       </c>
       <c r="K96" s="3">
-        <v>72.64</v>
+        <v>41.75</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112076</v>
+        <v>211112066</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4643,31 +4631,31 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>14011</v>
+        <v>14894</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45975.355358796296</v>
+        <v>46003.405231481476</v>
       </c>
       <c r="H97" s="1">
-        <v>45945.355543981481</v>
+        <v>45973.405659722222</v>
       </c>
       <c r="I97" s="2">
-        <v>-11</v>
+        <v>-25</v>
       </c>
       <c r="J97" s="3">
-        <v>53.25</v>
+        <v>106.32000000000001</v>
       </c>
       <c r="K97" s="3">
-        <v>53.25</v>
+        <v>106.32000000000001</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4675,7 +4663,7 @@
         <v>211112076</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4684,39 +4672,39 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>14445</v>
+        <v>14893</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45989.376018518517</v>
+        <v>46003.401932870365</v>
       </c>
       <c r="H98" s="1">
-        <v>45959.384791666664</v>
+        <v>45973.404444444444</v>
       </c>
       <c r="I98" s="2">
         <v>-25</v>
       </c>
       <c r="J98" s="3">
-        <v>60.97</v>
+        <v>34.46</v>
       </c>
       <c r="K98" s="3">
-        <v>60.97</v>
+        <v>34.46</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112167</v>
+        <v>211112221</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4725,80 +4713,80 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>13843</v>
+        <v>13079</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45969.40924768518</v>
+        <v>45947.476076388884</v>
       </c>
       <c r="H99" s="1">
-        <v>45939.40966435185</v>
+        <v>45917.476759259254</v>
       </c>
       <c r="I99" s="2">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="J99" s="3">
-        <v>160.64000000000001</v>
+        <v>69.83</v>
       </c>
       <c r="K99" s="3">
-        <v>160.64000000000001</v>
+        <v>69.83</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112167</v>
+        <v>211112221</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
       </c>
       <c r="E100">
-        <v>13853</v>
+        <v>942</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45969.443564814814</v>
+        <v>45975</v>
       </c>
       <c r="H100" s="1">
-        <v>45939.444097222222</v>
+        <v>45945</v>
       </c>
       <c r="I100" s="2">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>18.61</v>
+        <v>-72.510000000000005</v>
       </c>
       <c r="K100" s="3">
-        <v>18.61</v>
+        <v>-72.510000000000005</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112167</v>
+        <v>211112221</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4807,31 +4795,31 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>14055</v>
+        <v>14035</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45976.360104166662</v>
+        <v>45975.403275462959</v>
       </c>
       <c r="H101" s="1">
-        <v>45946.36037037037</v>
+        <v>45945.403680555552</v>
       </c>
       <c r="I101" s="2">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="J101" s="3">
-        <v>148.14000000000001</v>
+        <v>411.85</v>
       </c>
       <c r="K101" s="3">
-        <v>148.14000000000001</v>
+        <v>411.85</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4839,7 +4827,7 @@
         <v>211112221</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4848,31 +4836,31 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>13079</v>
+        <v>14082</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45947.476076388884</v>
+        <v>45977.283738425926</v>
       </c>
       <c r="H102" s="1">
-        <v>45917.476759259254</v>
+        <v>45947.284189814811</v>
       </c>
       <c r="I102" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J102" s="3">
-        <v>69.83</v>
+        <v>149.37</v>
       </c>
       <c r="K102" s="3">
-        <v>69.83</v>
+        <v>149.37</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4880,7 +4868,7 @@
         <v>211112221</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4889,31 +4877,31 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>13535</v>
+        <v>14208</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45961.374710648146</v>
+        <v>45982.344583333332</v>
       </c>
       <c r="H103" s="1">
-        <v>45931.375300925924</v>
+        <v>45952.344849537032</v>
       </c>
       <c r="I103" s="2">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="J103" s="3">
-        <v>379.39</v>
+        <v>280.12</v>
       </c>
       <c r="K103" s="3">
-        <v>379.39</v>
+        <v>280.12</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4921,7 +4909,7 @@
         <v>211112221</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4930,31 +4918,31 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>13778</v>
+        <v>14437</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45968.366944444446</v>
+        <v>45989.364317129628</v>
       </c>
       <c r="H104" s="1">
-        <v>45938.367291666662</v>
+        <v>45959.364583333328</v>
       </c>
       <c r="I104" s="2">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="J104" s="3">
-        <v>211.94</v>
+        <v>319.62</v>
       </c>
       <c r="K104" s="3">
-        <v>211.94</v>
+        <v>319.62</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4962,40 +4950,40 @@
         <v>211112221</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
       </c>
       <c r="E105">
-        <v>13785</v>
+        <v>1004</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45968.384143518517</v>
+        <v>45991</v>
       </c>
       <c r="H105" s="1">
-        <v>45938.385057870371</v>
+        <v>45961</v>
       </c>
       <c r="I105" s="2">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="J105" s="3">
-        <v>18.66</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="K105" s="3">
-        <v>18.66</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5003,7 +4991,7 @@
         <v>211112221</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -5012,31 +5000,31 @@
         <v>2025</v>
       </c>
       <c r="E106">
-        <v>942</v>
+        <v>997</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45975</v>
+        <v>45991</v>
       </c>
       <c r="H106" s="1">
-        <v>45945</v>
+        <v>45961</v>
       </c>
       <c r="I106" s="2">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="J106" s="3">
-        <v>-72.510000000000005</v>
+        <v>-13.92</v>
       </c>
       <c r="K106" s="3">
-        <v>-72.510000000000005</v>
+        <v>-13.92</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5044,7 +5032,7 @@
         <v>211112221</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -5053,31 +5041,31 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>14035</v>
+        <v>14660</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45975.403275462959</v>
+        <v>45996.382187499999</v>
       </c>
       <c r="H107" s="1">
-        <v>45945.403680555552</v>
+        <v>45966.383599537032</v>
       </c>
       <c r="I107" s="2">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="J107" s="3">
-        <v>411.85</v>
+        <v>227.8</v>
       </c>
       <c r="K107" s="3">
-        <v>411.85</v>
+        <v>227.8</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5085,40 +5073,40 @@
         <v>211112221</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
       </c>
       <c r="E108">
-        <v>14082</v>
+        <v>1019</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45977.283738425926</v>
+        <v>46001</v>
       </c>
       <c r="H108" s="1">
-        <v>45947.284189814811</v>
+        <v>45971</v>
       </c>
       <c r="I108" s="2">
-        <v>-13</v>
+        <v>-23</v>
       </c>
       <c r="J108" s="3">
-        <v>149.37</v>
+        <v>-16.97</v>
       </c>
       <c r="K108" s="3">
-        <v>149.37</v>
+        <v>-16.97</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5126,7 +5114,7 @@
         <v>211112221</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5135,36 +5123,36 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>14208</v>
+        <v>14878</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45982.344583333332</v>
+        <v>46003.356793981482</v>
       </c>
       <c r="H109" s="1">
-        <v>45952.344849537032</v>
+        <v>45973.357129629629</v>
       </c>
       <c r="I109" s="2">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="J109" s="3">
-        <v>280.12</v>
+        <v>387.43</v>
       </c>
       <c r="K109" s="3">
-        <v>280.12</v>
+        <v>387.43</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112221</v>
+        <v>211112240</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
@@ -5176,31 +5164,31 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>14437</v>
+        <v>5989</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45989.364317129628</v>
+        <v>45786.460960648146</v>
       </c>
       <c r="H110" s="1">
-        <v>45959.364583333328</v>
+        <v>45756.462222222217</v>
       </c>
       <c r="I110" s="2">
-        <v>-25</v>
+        <v>192</v>
       </c>
       <c r="J110" s="3">
-        <v>319.62</v>
+        <v>661.05000000000007</v>
       </c>
       <c r="K110" s="3">
-        <v>319.62</v>
+        <v>394.16</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5208,7 +5196,7 @@
         <v>211112240</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5217,31 +5205,31 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>5707</v>
+        <v>6013</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45781.442291666666</v>
+        <v>45786.667129629626</v>
       </c>
       <c r="H111" s="1">
-        <v>45751.444201388884</v>
+        <v>45756.669849537036</v>
       </c>
       <c r="I111" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J111" s="3">
-        <v>965.58</v>
+        <v>455.28000000000003</v>
       </c>
       <c r="K111" s="3">
-        <v>255.06</v>
+        <v>455.28000000000003</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5249,7 +5237,7 @@
         <v>211112240</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
         <v>19</v>
@@ -5258,31 +5246,31 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45785</v>
+        <v>45793</v>
       </c>
       <c r="H112" s="1">
-        <v>45755</v>
+        <v>45763</v>
       </c>
       <c r="I112" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J112" s="3">
-        <v>-21.95</v>
+        <v>-43.28</v>
       </c>
       <c r="K112" s="3">
-        <v>-21.95</v>
+        <v>-43.28</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5290,7 +5278,7 @@
         <v>211112240</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5299,31 +5287,31 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>5989</v>
+        <v>6399</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45786.460960648146</v>
+        <v>45793.514664351853</v>
       </c>
       <c r="H113" s="1">
-        <v>45756.462222222217</v>
+        <v>45763.515972222223</v>
       </c>
       <c r="I113" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J113" s="3">
-        <v>661.05000000000007</v>
+        <v>1254.4000000000001</v>
       </c>
       <c r="K113" s="3">
-        <v>661.05000000000007</v>
+        <v>1254.4000000000001</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5331,7 +5319,7 @@
         <v>211112240</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5340,31 +5328,31 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>6013</v>
+        <v>6686</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45786.667129629626</v>
+        <v>45800.395335648143</v>
       </c>
       <c r="H114" s="1">
-        <v>45756.669849537036</v>
+        <v>45770.399178240739</v>
       </c>
       <c r="I114" s="2">
         <v>178</v>
       </c>
       <c r="J114" s="3">
-        <v>455.28000000000003</v>
+        <v>1004.34</v>
       </c>
       <c r="K114" s="3">
-        <v>455.28000000000003</v>
+        <v>1004.34</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5372,40 +5360,40 @@
         <v>211112240</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115">
-        <v>391</v>
+        <v>6810</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45793</v>
+        <v>45801.441759259258</v>
       </c>
       <c r="H115" s="1">
-        <v>45763</v>
+        <v>45771.442615740736</v>
       </c>
       <c r="I115" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J115" s="3">
-        <v>-43.28</v>
+        <v>263.54000000000002</v>
       </c>
       <c r="K115" s="3">
-        <v>-43.28</v>
+        <v>263.54000000000002</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5413,7 +5401,7 @@
         <v>211112240</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5422,31 +5410,31 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>6399</v>
+        <v>6970</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45793.514664351853</v>
+        <v>45807.56925925926</v>
       </c>
       <c r="H116" s="1">
-        <v>45763.515972222223</v>
+        <v>45777.570763888885</v>
       </c>
       <c r="I116" s="2">
         <v>171</v>
       </c>
       <c r="J116" s="3">
-        <v>1254.4000000000001</v>
+        <v>820.59</v>
       </c>
       <c r="K116" s="3">
-        <v>1254.4000000000001</v>
+        <v>820.59</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5454,7 +5442,7 @@
         <v>211112240</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5463,31 +5451,31 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>6686</v>
+        <v>7304</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45800.395335648143</v>
+        <v>45814.449664351851</v>
       </c>
       <c r="H117" s="1">
-        <v>45770.399178240739</v>
+        <v>45784.449849537035</v>
       </c>
       <c r="I117" s="2">
         <v>164</v>
       </c>
       <c r="J117" s="3">
-        <v>1004.34</v>
+        <v>664.49</v>
       </c>
       <c r="K117" s="3">
-        <v>1004.34</v>
+        <v>664.49</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5495,7 +5483,7 @@
         <v>211112240</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5504,31 +5492,31 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>6810</v>
+        <v>7462</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45801.441759259258</v>
+        <v>45816.453692129631</v>
       </c>
       <c r="H118" s="1">
-        <v>45771.442615740736</v>
+        <v>45786.454224537032</v>
       </c>
       <c r="I118" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J118" s="3">
-        <v>263.54000000000002</v>
+        <v>556.16</v>
       </c>
       <c r="K118" s="3">
-        <v>263.54000000000002</v>
+        <v>556.16</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5536,7 +5524,7 @@
         <v>211112240</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5545,31 +5533,31 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>6970</v>
+        <v>7884</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45807.56925925926</v>
+        <v>45823.474143518513</v>
       </c>
       <c r="H119" s="1">
-        <v>45777.570763888885</v>
+        <v>45793.474398148144</v>
       </c>
       <c r="I119" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J119" s="3">
-        <v>820.59</v>
+        <v>917.36</v>
       </c>
       <c r="K119" s="3">
-        <v>820.59</v>
+        <v>917.36</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5577,7 +5565,7 @@
         <v>211112240</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5586,31 +5574,31 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>7304</v>
+        <v>8121</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45814.449664351851</v>
+        <v>45828.463171296295</v>
       </c>
       <c r="H120" s="1">
-        <v>45784.449849537035</v>
+        <v>45798.463564814811</v>
       </c>
       <c r="I120" s="2">
         <v>150</v>
       </c>
       <c r="J120" s="3">
-        <v>664.49</v>
+        <v>801.17000000000007</v>
       </c>
       <c r="K120" s="3">
-        <v>664.49</v>
+        <v>801.17000000000007</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5618,7 +5606,7 @@
         <v>211112240</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5627,31 +5615,31 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>7462</v>
+        <v>8267</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45816.453692129631</v>
+        <v>45830.511828703704</v>
       </c>
       <c r="H121" s="1">
-        <v>45786.454224537032</v>
+        <v>45800.512916666667</v>
       </c>
       <c r="I121" s="2">
         <v>148</v>
       </c>
       <c r="J121" s="3">
-        <v>556.16</v>
+        <v>724.49</v>
       </c>
       <c r="K121" s="3">
-        <v>556.16</v>
+        <v>724.49</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5659,7 +5647,7 @@
         <v>211112240</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -5668,31 +5656,31 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>7884</v>
+        <v>8652</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45823.474143518513</v>
+        <v>45837.485810185186</v>
       </c>
       <c r="H122" s="1">
-        <v>45793.474398148144</v>
+        <v>45807.486099537033</v>
       </c>
       <c r="I122" s="2">
         <v>141</v>
       </c>
       <c r="J122" s="3">
-        <v>917.36</v>
+        <v>812.97</v>
       </c>
       <c r="K122" s="3">
-        <v>917.36</v>
+        <v>812.97</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5700,40 +5688,40 @@
         <v>211112240</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
-      <c r="D123" t="s">
-        <v>15</v>
+      <c r="D123">
+        <v>2025</v>
       </c>
       <c r="E123">
-        <v>8121</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45828.463171296295</v>
+        <v>45844.452881944446</v>
       </c>
       <c r="H123" s="1">
-        <v>45798.463564814811</v>
+        <v>45814.461909722224</v>
       </c>
       <c r="I123" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J123" s="3">
-        <v>801.17000000000007</v>
+        <v>929.61</v>
       </c>
       <c r="K123" s="3">
-        <v>801.17000000000007</v>
+        <v>929.61</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5741,7 +5729,7 @@
         <v>211112240</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5750,31 +5738,31 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>8267</v>
+        <v>9086</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45830.511828703704</v>
+        <v>45849.534050925926</v>
       </c>
       <c r="H124" s="1">
-        <v>45800.512916666667</v>
+        <v>45819.535196759258</v>
       </c>
       <c r="I124" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J124" s="3">
-        <v>724.49</v>
+        <v>975.75</v>
       </c>
       <c r="K124" s="3">
-        <v>724.49</v>
+        <v>975.75</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5782,7 +5770,7 @@
         <v>211112240</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5791,25 +5779,25 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>8652</v>
+        <v>9529</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45837.485810185186</v>
+        <v>45858.556944444441</v>
       </c>
       <c r="H125" s="1">
-        <v>45807.486099537033</v>
+        <v>45828.558032407404</v>
       </c>
       <c r="I125" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J125" s="3">
-        <v>812.97</v>
+        <v>1109.44</v>
       </c>
       <c r="K125" s="3">
-        <v>812.97</v>
+        <v>1109.44</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -5823,40 +5811,40 @@
         <v>211112240</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
-      <c r="D126">
-        <v>2025</v>
+      <c r="D126" t="s">
+        <v>15</v>
       </c>
       <c r="E126">
-        <v>42</v>
+        <v>10465</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45844.452881944446</v>
+        <v>45879.386631944442</v>
       </c>
       <c r="H126" s="1">
-        <v>45814.461909722224</v>
+        <v>45849.391759259255</v>
       </c>
       <c r="I126" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="J126" s="3">
-        <v>929.61</v>
+        <v>1023.88</v>
       </c>
       <c r="K126" s="3">
-        <v>929.61</v>
+        <v>1023.88</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5864,7 +5852,7 @@
         <v>211112240</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5873,31 +5861,31 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>9086</v>
+        <v>10733</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45849.534050925926</v>
+        <v>45886.415636574071</v>
       </c>
       <c r="H127" s="1">
-        <v>45819.535196759258</v>
+        <v>45856.415648148148</v>
       </c>
       <c r="I127" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J127" s="3">
-        <v>975.75</v>
+        <v>1377.55</v>
       </c>
       <c r="K127" s="3">
-        <v>975.75</v>
+        <v>1377.55</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5905,40 +5893,40 @@
         <v>211112240</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D128">
+        <v>2025</v>
       </c>
       <c r="E128">
-        <v>9529</v>
+        <v>664</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45858.556944444441</v>
+        <v>45891</v>
       </c>
       <c r="H128" s="1">
-        <v>45828.558032407404</v>
+        <v>45861</v>
       </c>
       <c r="I128" s="2">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J128" s="3">
-        <v>1109.44</v>
+        <v>-17.23</v>
       </c>
       <c r="K128" s="3">
-        <v>1109.44</v>
+        <v>-17.23</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5946,7 +5934,7 @@
         <v>211112240</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5955,25 +5943,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>10465</v>
+        <v>11045</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45879.386631944442</v>
+        <v>45893.489039351851</v>
       </c>
       <c r="H129" s="1">
-        <v>45849.391759259255</v>
+        <v>45863.489039351851</v>
       </c>
       <c r="I129" s="2">
         <v>85</v>
       </c>
       <c r="J129" s="3">
-        <v>1023.88</v>
+        <v>394.38</v>
       </c>
       <c r="K129" s="3">
-        <v>1023.88</v>
+        <v>394.38</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5987,7 +5975,7 @@
         <v>211112240</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5996,25 +5984,25 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>10733</v>
+        <v>11223</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45886.415636574071</v>
+        <v>45898.495729166665</v>
       </c>
       <c r="H130" s="1">
-        <v>45856.415648148148</v>
+        <v>45868.495729166665</v>
       </c>
       <c r="I130" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J130" s="3">
-        <v>1377.55</v>
+        <v>386.87</v>
       </c>
       <c r="K130" s="3">
-        <v>1377.55</v>
+        <v>386.87</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -6028,34 +6016,34 @@
         <v>211112240</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
       </c>
       <c r="E131">
-        <v>664</v>
+        <v>11420</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45891</v>
+        <v>45903.708877314813</v>
       </c>
       <c r="H131" s="1">
-        <v>45861</v>
+        <v>45873.712222222217</v>
       </c>
       <c r="I131" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J131" s="3">
-        <v>-17.23</v>
+        <v>206.27</v>
       </c>
       <c r="K131" s="3">
-        <v>-17.23</v>
+        <v>206.27</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -6069,40 +6057,40 @@
         <v>211112240</v>
       </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D132">
+        <v>2025</v>
       </c>
       <c r="E132">
-        <v>11045</v>
+        <v>791</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45893.489039351851</v>
+        <v>45925</v>
       </c>
       <c r="H132" s="1">
-        <v>45863.489039351851</v>
+        <v>45895</v>
       </c>
       <c r="I132" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="J132" s="3">
-        <v>394.38</v>
+        <v>-49.59</v>
       </c>
       <c r="K132" s="3">
-        <v>394.38</v>
+        <v>-49.59</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6110,7 +6098,7 @@
         <v>211112240</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6119,31 +6107,31 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>11223</v>
+        <v>14661</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45898.495729166665</v>
+        <v>45996.384027777778</v>
       </c>
       <c r="H133" s="1">
-        <v>45868.495729166665</v>
+        <v>45966.384699074071</v>
       </c>
       <c r="I133" s="2">
-        <v>66</v>
+        <v>-18</v>
       </c>
       <c r="J133" s="3">
-        <v>386.87</v>
+        <v>379.93</v>
       </c>
       <c r="K133" s="3">
-        <v>386.87</v>
+        <v>379.93</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6151,7 +6139,7 @@
         <v>211112240</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6160,80 +6148,80 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>11420</v>
+        <v>14887</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45903.708877314813</v>
+        <v>46003.394328703704</v>
       </c>
       <c r="H134" s="1">
-        <v>45873.712222222217</v>
+        <v>45973.394710648143</v>
       </c>
       <c r="I134" s="2">
-        <v>61</v>
+        <v>-25</v>
       </c>
       <c r="J134" s="3">
-        <v>206.27</v>
+        <v>415.76</v>
       </c>
       <c r="K134" s="3">
-        <v>206.27</v>
+        <v>415.76</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112240</v>
+        <v>211112243</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
       </c>
       <c r="E135">
-        <v>791</v>
+        <v>13327</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45925</v>
+        <v>45954.386620370366</v>
       </c>
       <c r="H135" s="1">
-        <v>45895</v>
+        <v>45924.387071759258</v>
       </c>
       <c r="I135" s="2">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J135" s="3">
-        <v>-49.59</v>
+        <v>528.85</v>
       </c>
       <c r="K135" s="3">
-        <v>-49.59</v>
+        <v>300</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112240</v>
+        <v>211112263</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6242,80 +6230,80 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>14446</v>
+        <v>13427</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45989.38548611111</v>
+        <v>45941.589108796295</v>
       </c>
       <c r="H136" s="1">
-        <v>45959.385925925926</v>
+        <v>45926.589722222219</v>
       </c>
       <c r="I136" s="2">
-        <v>-25</v>
+        <v>37</v>
       </c>
       <c r="J136" s="3">
-        <v>265.03000000000003</v>
+        <v>41.35</v>
       </c>
       <c r="K136" s="3">
-        <v>265.03000000000003</v>
+        <v>41.35</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112243</v>
+        <v>211112315</v>
       </c>
       <c r="B137" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D137">
+        <v>2025</v>
       </c>
       <c r="E137">
-        <v>13327</v>
+        <v>980</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45954.386620370366</v>
+        <v>45988</v>
       </c>
       <c r="H137" s="1">
-        <v>45924.387071759258</v>
+        <v>45958</v>
       </c>
       <c r="I137" s="2">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J137" s="3">
-        <v>528.85</v>
+        <v>-20.43</v>
       </c>
       <c r="K137" s="3">
-        <v>300</v>
+        <v>-20.43</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112244</v>
+        <v>211112315</v>
       </c>
       <c r="B138" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6324,39 +6312,39 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>14457</v>
+        <v>14649</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45989.404918981483</v>
+        <v>45996.359270833331</v>
       </c>
       <c r="H138" s="1">
-        <v>45959.405370370368</v>
+        <v>45966.359803240739</v>
       </c>
       <c r="I138" s="2">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="J138" s="3">
-        <v>410.66</v>
+        <v>101.27</v>
       </c>
       <c r="K138" s="3">
-        <v>410.66</v>
+        <v>101.27</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112263</v>
+        <v>211112315</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6365,39 +6353,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>13427</v>
+        <v>14874</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45941.589108796295</v>
+        <v>46003.353368055556</v>
       </c>
       <c r="H139" s="1">
-        <v>45926.589722222219</v>
+        <v>45973.353888888887</v>
       </c>
       <c r="I139" s="2">
-        <v>23</v>
+        <v>-25</v>
       </c>
       <c r="J139" s="3">
-        <v>41.35</v>
+        <v>123.81</v>
       </c>
       <c r="K139" s="3">
-        <v>41.35</v>
+        <v>123.81</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112315</v>
+        <v>211112337</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6406,39 +6394,39 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>13768</v>
+        <v>14907</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45968.345729166664</v>
+        <v>46003.418981481482</v>
       </c>
       <c r="H140" s="1">
-        <v>45938.345949074072</v>
+        <v>45973.419340277775</v>
       </c>
       <c r="I140" s="2">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="J140" s="3">
-        <v>79.47</v>
+        <v>39.58</v>
       </c>
       <c r="K140" s="3">
-        <v>79.47</v>
+        <v>39.58</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112315</v>
+        <v>211112341</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6447,72 +6435,72 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>14210</v>
+        <v>13766</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45982.345509259256</v>
+        <v>45959.344687500001</v>
       </c>
       <c r="H141" s="1">
-        <v>45952.345787037033</v>
+        <v>45938.345011574071</v>
       </c>
       <c r="I141" s="2">
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="J141" s="3">
-        <v>166.39000000000001</v>
+        <v>175.45000000000002</v>
       </c>
       <c r="K141" s="3">
-        <v>166.39000000000001</v>
+        <v>175.45000000000002</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112315</v>
+        <v>211112341</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>980</v>
+        <v>14086</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45988</v>
+        <v>45968.327372685184</v>
       </c>
       <c r="H142" s="1">
-        <v>45958</v>
+        <v>45947.328020833331</v>
       </c>
       <c r="I142" s="2">
-        <v>-24</v>
+        <v>10</v>
       </c>
       <c r="J142" s="3">
-        <v>-20.43</v>
+        <v>58.300000000000004</v>
       </c>
       <c r="K142" s="3">
-        <v>-20.43</v>
+        <v>58.300000000000004</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6520,40 +6508,40 @@
         <v>211112341</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
       </c>
       <c r="E143">
-        <v>13766</v>
+        <v>623</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45959.344687500001</v>
+        <v>45980</v>
       </c>
       <c r="H143" s="1">
-        <v>45938.345011574071</v>
+        <v>45959</v>
       </c>
       <c r="I143" s="2">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="J143" s="3">
-        <v>175.45000000000002</v>
+        <v>-6.74</v>
       </c>
       <c r="K143" s="3">
-        <v>175.45000000000002</v>
+        <v>-6.74</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6561,7 +6549,7 @@
         <v>211112341</v>
       </c>
       <c r="B144" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6570,80 +6558,80 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>14086</v>
+        <v>14431</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45968.327372685184</v>
+        <v>45980.35969907407</v>
       </c>
       <c r="H144" s="1">
-        <v>45947.328020833331</v>
+        <v>45959.360243055555</v>
       </c>
       <c r="I144" s="2">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J144" s="3">
-        <v>58.300000000000004</v>
+        <v>174.72</v>
       </c>
       <c r="K144" s="3">
-        <v>58.300000000000004</v>
+        <v>174.72</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112341</v>
+        <v>211112379</v>
       </c>
       <c r="B145" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145">
-        <v>623</v>
+        <v>14489</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G145" s="1">
-        <v>45980</v>
+        <v>45975.355231481481</v>
       </c>
       <c r="H145" s="1">
-        <v>45959</v>
+        <v>45960.355532407404</v>
       </c>
       <c r="I145" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="J145" s="3">
-        <v>-6.74</v>
+        <v>179.19</v>
       </c>
       <c r="K145" s="3">
-        <v>-6.74</v>
+        <v>179.19</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
       </c>
       <c r="M145" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112341</v>
+        <v>211112379</v>
       </c>
       <c r="B146" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6652,113 +6640,113 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>14431</v>
+        <v>14501</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G146" s="1">
-        <v>45980.35969907407</v>
+        <v>45975.37118055555</v>
       </c>
       <c r="H146" s="1">
-        <v>45959.360243055555</v>
+        <v>45960.371423611112</v>
       </c>
       <c r="I146" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="J146" s="3">
-        <v>174.72</v>
+        <v>23.990000000000002</v>
       </c>
       <c r="K146" s="3">
-        <v>174.72</v>
+        <v>23.990000000000002</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112379</v>
+        <v>211112380</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147">
-        <v>14489</v>
+        <v>33</v>
+      </c>
+      <c r="E147" t="s">
+        <v>36</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45975.355231481481</v>
+        <v>45461</v>
       </c>
       <c r="H147" s="1">
-        <v>45960.355532407404</v>
+        <v>45440</v>
       </c>
       <c r="I147" s="2">
-        <v>-11</v>
+        <v>517</v>
       </c>
       <c r="J147" s="3">
-        <v>179.19</v>
+        <v>-4.55</v>
       </c>
       <c r="K147" s="3">
-        <v>179.19</v>
+        <v>-4.55</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112379</v>
+        <v>211112380</v>
       </c>
       <c r="B148" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E148">
-        <v>14501</v>
+        <v>168</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45975.37118055555</v>
+        <v>45625</v>
       </c>
       <c r="H148" s="1">
-        <v>45960.371423611112</v>
+        <v>45610</v>
       </c>
       <c r="I148" s="2">
-        <v>-11</v>
+        <v>353</v>
       </c>
       <c r="J148" s="3">
-        <v>23.990000000000002</v>
+        <v>-4.22</v>
       </c>
       <c r="K148" s="3">
-        <v>23.990000000000002</v>
+        <v>-4.22</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6766,40 +6754,40 @@
         <v>211112380</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
-      </c>
-      <c r="D149" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="D149">
+        <v>2025</v>
+      </c>
+      <c r="E149">
+        <v>46</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45461</v>
+        <v>45685</v>
       </c>
       <c r="H149" s="1">
-        <v>45440</v>
+        <v>45670</v>
       </c>
       <c r="I149" s="2">
-        <v>503</v>
+        <v>293</v>
       </c>
       <c r="J149" s="3">
-        <v>-4.55</v>
+        <v>-64.710000000000008</v>
       </c>
       <c r="K149" s="3">
-        <v>-4.55</v>
+        <v>-64.710000000000008</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6807,40 +6795,40 @@
         <v>211112380</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E150">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45625</v>
+        <v>45707</v>
       </c>
       <c r="H150" s="1">
-        <v>45610</v>
+        <v>45692</v>
       </c>
       <c r="I150" s="2">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="J150" s="3">
-        <v>-4.22</v>
+        <v>-1.51</v>
       </c>
       <c r="K150" s="3">
-        <v>-4.22</v>
+        <v>-1.51</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6848,130 +6836,130 @@
         <v>211112380</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
       </c>
-      <c r="D151">
-        <v>2025</v>
+      <c r="D151" t="s">
+        <v>15</v>
       </c>
       <c r="E151">
-        <v>46</v>
+        <v>321</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45685</v>
+        <v>45758</v>
       </c>
       <c r="H151" s="1">
-        <v>45670</v>
+        <v>45743</v>
       </c>
       <c r="I151" s="2">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="J151" s="3">
-        <v>-64.710000000000008</v>
+        <v>-5.15</v>
       </c>
       <c r="K151" s="3">
-        <v>-64.710000000000008</v>
+        <v>-5.15</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112380</v>
+        <v>211112386</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152">
-        <v>159</v>
+        <v>14295</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G152" s="1">
-        <v>45707</v>
+        <v>45983.406712962962</v>
       </c>
       <c r="H152" s="1">
-        <v>45692</v>
+        <v>45953.407175925924</v>
       </c>
       <c r="I152" s="2">
-        <v>257</v>
+        <v>-5</v>
       </c>
       <c r="J152" s="3">
-        <v>-1.51</v>
+        <v>385.84000000000003</v>
       </c>
       <c r="K152" s="3">
-        <v>-1.51</v>
+        <v>385.84000000000003</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112380</v>
+        <v>211112386</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153">
-        <v>321</v>
+        <v>14499</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G153" s="1">
-        <v>45758</v>
+        <v>45990.367546296293</v>
       </c>
       <c r="H153" s="1">
-        <v>45743</v>
+        <v>45960.369351851848</v>
       </c>
       <c r="I153" s="2">
-        <v>206</v>
+        <v>-12</v>
       </c>
       <c r="J153" s="3">
-        <v>-5.15</v>
+        <v>22.76</v>
       </c>
       <c r="K153" s="3">
-        <v>-5.15</v>
+        <v>22.76</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112386</v>
+        <v>211112388</v>
       </c>
       <c r="B154" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6980,39 +6968,39 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>14295</v>
+        <v>4145</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="1">
-        <v>45983.406712962962</v>
+        <v>45744.414965277778</v>
       </c>
       <c r="H154" s="1">
-        <v>45953.407175925924</v>
+        <v>45723.415497685186</v>
       </c>
       <c r="I154" s="2">
-        <v>-19</v>
+        <v>234</v>
       </c>
       <c r="J154" s="3">
-        <v>385.84000000000003</v>
+        <v>253.95000000000002</v>
       </c>
       <c r="K154" s="3">
-        <v>385.84000000000003</v>
+        <v>253.95000000000002</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
       </c>
       <c r="M154" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112386</v>
+        <v>211112391</v>
       </c>
       <c r="B155" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -7021,80 +7009,80 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>14499</v>
+        <v>13826</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G155" s="1">
-        <v>45990.367546296293</v>
+        <v>45969.361446759256</v>
       </c>
       <c r="H155" s="1">
-        <v>45960.369351851848</v>
+        <v>45939.36210648148</v>
       </c>
       <c r="I155" s="2">
-        <v>-26</v>
+        <v>9</v>
       </c>
       <c r="J155" s="3">
-        <v>22.76</v>
+        <v>46.050000000000004</v>
       </c>
       <c r="K155" s="3">
-        <v>22.76</v>
+        <v>46.050000000000004</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112388</v>
+        <v>211112410</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D156">
+        <v>2025</v>
       </c>
       <c r="E156">
-        <v>3556</v>
+        <v>248</v>
       </c>
       <c r="F156" t="s">
         <v>16</v>
       </c>
       <c r="G156" s="1">
-        <v>45735.399155092593</v>
+        <v>45752</v>
       </c>
       <c r="H156" s="1">
-        <v>45714.401678240742</v>
+        <v>45737</v>
       </c>
       <c r="I156" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J156" s="3">
-        <v>475.38</v>
+        <v>-35.78</v>
       </c>
       <c r="K156" s="3">
-        <v>475.38</v>
+        <v>-35.78</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
       </c>
       <c r="M156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>211112388</v>
+        <v>211112410</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7103,25 +7091,25 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>4145</v>
+        <v>10607</v>
       </c>
       <c r="F157" t="s">
         <v>16</v>
       </c>
       <c r="G157" s="1">
-        <v>45744.414965277778</v>
+        <v>45869.420972222222</v>
       </c>
       <c r="H157" s="1">
-        <v>45723.415497685186</v>
+        <v>45854.420983796292</v>
       </c>
       <c r="I157" s="2">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="J157" s="3">
-        <v>253.95000000000002</v>
+        <v>39.800000000000004</v>
       </c>
       <c r="K157" s="3">
-        <v>253.95000000000002</v>
+        <v>39.800000000000004</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -7132,10 +7120,10 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>211112391</v>
+        <v>211112410</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
@@ -7144,31 +7132,31 @@
         <v>15</v>
       </c>
       <c r="E158">
-        <v>13826</v>
+        <v>13031</v>
       </c>
       <c r="F158" t="s">
         <v>16</v>
       </c>
       <c r="G158" s="1">
-        <v>45969.361446759256</v>
+        <v>45932.354363425926</v>
       </c>
       <c r="H158" s="1">
-        <v>45939.36210648148</v>
+        <v>45917.354363425926</v>
       </c>
       <c r="I158" s="2">
-        <v>-5</v>
+        <v>46</v>
       </c>
       <c r="J158" s="3">
-        <v>46.050000000000004</v>
+        <v>93.87</v>
       </c>
       <c r="K158" s="3">
-        <v>46.050000000000004</v>
+        <v>93.87</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7176,40 +7164,40 @@
         <v>211112410</v>
       </c>
       <c r="B159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>248</v>
+        <v>13880</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>45752</v>
+        <v>45970.373437499999</v>
       </c>
       <c r="H159" s="1">
-        <v>45737</v>
+        <v>45940.373726851853</v>
       </c>
       <c r="I159" s="2">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="J159" s="3">
-        <v>-35.78</v>
+        <v>110.17</v>
       </c>
       <c r="K159" s="3">
-        <v>-35.78</v>
+        <v>110.17</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
       </c>
       <c r="M159" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7217,7 +7205,7 @@
         <v>211112410</v>
       </c>
       <c r="B160" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
@@ -7226,31 +7214,31 @@
         <v>15</v>
       </c>
       <c r="E160">
-        <v>10607</v>
+        <v>14088</v>
       </c>
       <c r="F160" t="s">
         <v>16</v>
       </c>
       <c r="G160" s="1">
-        <v>45869.420972222222</v>
+        <v>45977.334861111107</v>
       </c>
       <c r="H160" s="1">
-        <v>45854.420983796292</v>
+        <v>45947.335381944446</v>
       </c>
       <c r="I160" s="2">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="J160" s="3">
-        <v>39.800000000000004</v>
+        <v>94.76</v>
       </c>
       <c r="K160" s="3">
-        <v>39.800000000000004</v>
+        <v>94.76</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
       </c>
       <c r="M160" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7258,7 +7246,7 @@
         <v>211112410</v>
       </c>
       <c r="B161" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -7267,31 +7255,31 @@
         <v>15</v>
       </c>
       <c r="E161">
-        <v>13031</v>
+        <v>14311</v>
       </c>
       <c r="F161" t="s">
         <v>16</v>
       </c>
       <c r="G161" s="1">
-        <v>45932.354363425926</v>
+        <v>45984.349768518514</v>
       </c>
       <c r="H161" s="1">
-        <v>45917.354363425926</v>
+        <v>45954.349988425922</v>
       </c>
       <c r="I161" s="2">
-        <v>32</v>
+        <v>-6</v>
       </c>
       <c r="J161" s="3">
-        <v>93.87</v>
+        <v>194.34</v>
       </c>
       <c r="K161" s="3">
-        <v>93.87</v>
+        <v>194.34</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
       </c>
       <c r="M161" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7299,40 +7287,40 @@
         <v>211112410</v>
       </c>
       <c r="B162" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D162">
+        <v>2025</v>
       </c>
       <c r="E162">
-        <v>13880</v>
+        <v>972</v>
       </c>
       <c r="F162" t="s">
         <v>16</v>
       </c>
       <c r="G162" s="1">
-        <v>45970.373437499999</v>
+        <v>45988</v>
       </c>
       <c r="H162" s="1">
-        <v>45940.373726851853</v>
+        <v>45958</v>
       </c>
       <c r="I162" s="2">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="J162" s="3">
-        <v>110.17</v>
+        <v>-94.76</v>
       </c>
       <c r="K162" s="3">
-        <v>110.17</v>
+        <v>-94.76</v>
       </c>
       <c r="L162" t="s">
         <v>17</v>
       </c>
       <c r="M162" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7340,7 +7328,7 @@
         <v>211112410</v>
       </c>
       <c r="B163" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
@@ -7349,31 +7337,31 @@
         <v>15</v>
       </c>
       <c r="E163">
-        <v>14088</v>
+        <v>14449</v>
       </c>
       <c r="F163" t="s">
         <v>16</v>
       </c>
       <c r="G163" s="1">
-        <v>45977.334861111107</v>
+        <v>45989.388854166667</v>
       </c>
       <c r="H163" s="1">
-        <v>45947.335381944446</v>
+        <v>45959.389432870368</v>
       </c>
       <c r="I163" s="2">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="J163" s="3">
-        <v>94.76</v>
+        <v>279.70999999999998</v>
       </c>
       <c r="K163" s="3">
-        <v>94.76</v>
+        <v>279.70999999999998</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
       </c>
       <c r="M163" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7381,7 +7369,7 @@
         <v>211112410</v>
       </c>
       <c r="B164" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -7390,80 +7378,80 @@
         <v>15</v>
       </c>
       <c r="E164">
-        <v>14311</v>
+        <v>14990</v>
       </c>
       <c r="F164" t="s">
         <v>16</v>
       </c>
       <c r="G164" s="1">
-        <v>45984.349768518514</v>
+        <v>46005.407847222217</v>
       </c>
       <c r="H164" s="1">
-        <v>45954.349988425922</v>
+        <v>45975.408402777779</v>
       </c>
       <c r="I164" s="2">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="J164" s="3">
-        <v>194.34</v>
+        <v>132.94</v>
       </c>
       <c r="K164" s="3">
-        <v>194.34</v>
+        <v>132.94</v>
       </c>
       <c r="L164" t="s">
         <v>17</v>
       </c>
       <c r="M164" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>211112410</v>
+        <v>211112445</v>
       </c>
       <c r="B165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
       </c>
       <c r="E165">
-        <v>972</v>
+        <v>11217</v>
       </c>
       <c r="F165" t="s">
         <v>16</v>
       </c>
       <c r="G165" s="1">
-        <v>45988</v>
+        <v>45898.493379629625</v>
       </c>
       <c r="H165" s="1">
-        <v>45958</v>
+        <v>45868.493379629625</v>
       </c>
       <c r="I165" s="2">
-        <v>-24</v>
+        <v>80</v>
       </c>
       <c r="J165" s="3">
-        <v>-94.76</v>
+        <v>275.47000000000003</v>
       </c>
       <c r="K165" s="3">
-        <v>-94.76</v>
+        <v>185.47</v>
       </c>
       <c r="L165" t="s">
         <v>17</v>
       </c>
       <c r="M165" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>211112410</v>
+        <v>211112445</v>
       </c>
       <c r="B166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
@@ -7472,39 +7460,39 @@
         <v>15</v>
       </c>
       <c r="E166">
-        <v>14449</v>
+        <v>11623</v>
       </c>
       <c r="F166" t="s">
         <v>16</v>
       </c>
       <c r="G166" s="1">
-        <v>45989.388854166667</v>
+        <v>45907.571909722217</v>
       </c>
       <c r="H166" s="1">
-        <v>45959.389432870368</v>
+        <v>45877.571921296294</v>
       </c>
       <c r="I166" s="2">
-        <v>-25</v>
+        <v>71</v>
       </c>
       <c r="J166" s="3">
-        <v>279.70999999999998</v>
+        <v>377.33</v>
       </c>
       <c r="K166" s="3">
-        <v>279.70999999999998</v>
+        <v>377.33</v>
       </c>
       <c r="L166" t="s">
         <v>17</v>
       </c>
       <c r="M166" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>211112445</v>
+        <v>211112458</v>
       </c>
       <c r="B167" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
@@ -7513,39 +7501,39 @@
         <v>15</v>
       </c>
       <c r="E167">
-        <v>11217</v>
+        <v>13073</v>
       </c>
       <c r="F167" t="s">
         <v>16</v>
       </c>
       <c r="G167" s="1">
-        <v>45898.493379629625</v>
+        <v>45977.466226851851</v>
       </c>
       <c r="H167" s="1">
-        <v>45868.493379629625</v>
+        <v>45917.466412037036</v>
       </c>
       <c r="I167" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="J167" s="3">
-        <v>275.47000000000003</v>
+        <v>59.15</v>
       </c>
       <c r="K167" s="3">
-        <v>275.47000000000003</v>
+        <v>59.15</v>
       </c>
       <c r="L167" t="s">
         <v>17</v>
       </c>
       <c r="M167" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>211112445</v>
+        <v>211112465</v>
       </c>
       <c r="B168" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
@@ -7554,121 +7542,121 @@
         <v>15</v>
       </c>
       <c r="E168">
-        <v>11623</v>
+        <v>14623</v>
       </c>
       <c r="F168" t="s">
         <v>16</v>
       </c>
       <c r="G168" s="1">
-        <v>45907.571909722217</v>
+        <v>45995.380567129629</v>
       </c>
       <c r="H168" s="1">
-        <v>45877.571921296294</v>
+        <v>45965.381331018514</v>
       </c>
       <c r="I168" s="2">
-        <v>57</v>
+        <v>-17</v>
       </c>
       <c r="J168" s="3">
-        <v>377.33</v>
+        <v>128.94999999999999</v>
       </c>
       <c r="K168" s="3">
-        <v>377.33</v>
+        <v>128.94999999999999</v>
       </c>
       <c r="L168" t="s">
         <v>17</v>
       </c>
       <c r="M168" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>211112445</v>
+        <v>211112465</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D169">
+        <v>2025</v>
       </c>
       <c r="E169">
-        <v>13040</v>
+        <v>1012</v>
       </c>
       <c r="F169" t="s">
         <v>16</v>
       </c>
       <c r="G169" s="1">
-        <v>45947.354594907403</v>
+        <v>45996</v>
       </c>
       <c r="H169" s="1">
-        <v>45917.354594907403</v>
+        <v>45966</v>
       </c>
       <c r="I169" s="2">
-        <v>17</v>
+        <v>-18</v>
       </c>
       <c r="J169" s="3">
-        <v>76.900000000000006</v>
+        <v>-9.5299999999999994</v>
       </c>
       <c r="K169" s="3">
-        <v>76.900000000000006</v>
+        <v>-9.5299999999999994</v>
       </c>
       <c r="L169" t="s">
         <v>17</v>
       </c>
       <c r="M169" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>211112458</v>
+        <v>211112466</v>
       </c>
       <c r="B170" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170">
-        <v>13073</v>
+        <v>487</v>
       </c>
       <c r="F170" t="s">
         <v>16</v>
       </c>
       <c r="G170" s="1">
-        <v>45977.466226851851</v>
+        <v>45827</v>
       </c>
       <c r="H170" s="1">
-        <v>45917.466412037036</v>
+        <v>45820</v>
       </c>
       <c r="I170" s="2">
-        <v>-13</v>
+        <v>151</v>
       </c>
       <c r="J170" s="3">
-        <v>59.15</v>
+        <v>-9.67</v>
       </c>
       <c r="K170" s="3">
-        <v>59.15</v>
+        <v>-4.83</v>
       </c>
       <c r="L170" t="s">
         <v>17</v>
       </c>
       <c r="M170" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>211112465</v>
+        <v>211112467</v>
       </c>
       <c r="B171" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
@@ -7677,72 +7665,72 @@
         <v>15</v>
       </c>
       <c r="E171">
-        <v>13242</v>
+        <v>9505</v>
       </c>
       <c r="F171" t="s">
         <v>16</v>
       </c>
       <c r="G171" s="1">
-        <v>45953.356666666667</v>
+        <v>45843.511874999997</v>
       </c>
       <c r="H171" s="1">
-        <v>45923.357581018514</v>
+        <v>45828.513657407406</v>
       </c>
       <c r="I171" s="2">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="J171" s="3">
-        <v>57.15</v>
+        <v>554.03</v>
       </c>
       <c r="K171" s="3">
-        <v>57.15</v>
+        <v>554.03</v>
       </c>
       <c r="L171" t="s">
         <v>17</v>
       </c>
       <c r="M171" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>211112466</v>
+        <v>211112467</v>
       </c>
       <c r="B172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
       </c>
       <c r="E172">
-        <v>487</v>
+        <v>9967</v>
       </c>
       <c r="F172" t="s">
         <v>16</v>
       </c>
       <c r="G172" s="1">
-        <v>45827</v>
+        <v>45855.436157407406</v>
       </c>
       <c r="H172" s="1">
-        <v>45820</v>
+        <v>45840.436168981483</v>
       </c>
       <c r="I172" s="2">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J172" s="3">
-        <v>-9.67</v>
+        <v>579.14</v>
       </c>
       <c r="K172" s="3">
-        <v>-4.83</v>
+        <v>579.14</v>
       </c>
       <c r="L172" t="s">
         <v>17</v>
       </c>
       <c r="M172" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7750,7 +7738,7 @@
         <v>211112467</v>
       </c>
       <c r="B173" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
@@ -7759,25 +7747,25 @@
         <v>15</v>
       </c>
       <c r="E173">
-        <v>9505</v>
+        <v>10339</v>
       </c>
       <c r="F173" t="s">
         <v>16</v>
       </c>
       <c r="G173" s="1">
-        <v>45843.511874999997</v>
+        <v>45862.422569444439</v>
       </c>
       <c r="H173" s="1">
-        <v>45828.513657407406</v>
+        <v>45847.422581018516</v>
       </c>
       <c r="I173" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J173" s="3">
-        <v>554.03</v>
+        <v>483.82</v>
       </c>
       <c r="K173" s="3">
-        <v>554.03</v>
+        <v>483.82</v>
       </c>
       <c r="L173" t="s">
         <v>17</v>
@@ -7791,7 +7779,7 @@
         <v>211112467</v>
       </c>
       <c r="B174" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
@@ -7800,31 +7788,31 @@
         <v>15</v>
       </c>
       <c r="E174">
-        <v>9967</v>
+        <v>10632</v>
       </c>
       <c r="F174" t="s">
         <v>16</v>
       </c>
       <c r="G174" s="1">
-        <v>45855.436157407406</v>
+        <v>45869.465671296297</v>
       </c>
       <c r="H174" s="1">
-        <v>45840.436168981483</v>
+        <v>45854.465682870366</v>
       </c>
       <c r="I174" s="2">
         <v>109</v>
       </c>
       <c r="J174" s="3">
-        <v>579.14</v>
+        <v>456.34000000000003</v>
       </c>
       <c r="K174" s="3">
-        <v>579.14</v>
+        <v>456.34000000000003</v>
       </c>
       <c r="L174" t="s">
         <v>17</v>
       </c>
       <c r="M174" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7832,122 +7820,122 @@
         <v>211112467</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
         <v>15</v>
       </c>
       <c r="E175">
-        <v>10339</v>
+        <v>599</v>
       </c>
       <c r="F175" t="s">
         <v>16</v>
       </c>
       <c r="G175" s="1">
-        <v>45862.422569444439</v>
+        <v>45954</v>
       </c>
       <c r="H175" s="1">
-        <v>45847.422581018516</v>
+        <v>45939</v>
       </c>
       <c r="I175" s="2">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="J175" s="3">
-        <v>483.82</v>
+        <v>-18.12</v>
       </c>
       <c r="K175" s="3">
-        <v>483.82</v>
+        <v>-18.12</v>
       </c>
       <c r="L175" t="s">
         <v>17</v>
       </c>
       <c r="M175" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>211112467</v>
+        <v>211112468</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C176" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
       </c>
       <c r="E176">
-        <v>10632</v>
+        <v>592</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G176" s="1">
-        <v>45869.465671296297</v>
+        <v>45961</v>
       </c>
       <c r="H176" s="1">
-        <v>45854.465682870366</v>
+        <v>45931</v>
       </c>
       <c r="I176" s="2">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="J176" s="3">
-        <v>456.34000000000003</v>
+        <v>-6.67</v>
       </c>
       <c r="K176" s="3">
-        <v>456.34000000000003</v>
+        <v>-6.67</v>
       </c>
       <c r="L176" t="s">
         <v>17</v>
       </c>
       <c r="M176" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>211112467</v>
+        <v>211112468</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
       </c>
       <c r="E177">
-        <v>599</v>
+        <v>13568</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G177" s="1">
-        <v>45954</v>
+        <v>45962.379490740735</v>
       </c>
       <c r="H177" s="1">
-        <v>45939</v>
+        <v>45932.380057870367</v>
       </c>
       <c r="I177" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J177" s="3">
-        <v>-18.12</v>
+        <v>108.7</v>
       </c>
       <c r="K177" s="3">
-        <v>-18.12</v>
+        <v>108.7</v>
       </c>
       <c r="L177" t="s">
         <v>17</v>
       </c>
       <c r="M177" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7955,40 +7943,40 @@
         <v>211112468</v>
       </c>
       <c r="B178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C178" t="s">
         <v>19</v>
       </c>
-      <c r="D178" t="s">
-        <v>15</v>
+      <c r="D178">
+        <v>2025</v>
       </c>
       <c r="E178">
-        <v>592</v>
+        <v>905</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G178" s="1">
-        <v>45961</v>
+        <v>45963</v>
       </c>
       <c r="H178" s="1">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="I178" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J178" s="3">
-        <v>-6.67</v>
+        <v>-31.64</v>
       </c>
       <c r="K178" s="3">
-        <v>-6.67</v>
+        <v>-31.64</v>
       </c>
       <c r="L178" t="s">
         <v>17</v>
       </c>
       <c r="M178" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -7996,7 +7984,7 @@
         <v>211112468</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
@@ -8005,80 +7993,80 @@
         <v>15</v>
       </c>
       <c r="E179">
-        <v>13568</v>
+        <v>14498</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G179" s="1">
-        <v>45962.379490740735</v>
+        <v>45990.366226851853</v>
       </c>
       <c r="H179" s="1">
-        <v>45932.380057870367</v>
+        <v>45960.366793981477</v>
       </c>
       <c r="I179" s="2">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="J179" s="3">
-        <v>108.7</v>
+        <v>117</v>
       </c>
       <c r="K179" s="3">
-        <v>108.7</v>
+        <v>117</v>
       </c>
       <c r="L179" t="s">
         <v>17</v>
       </c>
       <c r="M179" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>211112468</v>
+        <v>211112471</v>
       </c>
       <c r="B180" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
-      </c>
-      <c r="D180">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
       </c>
       <c r="E180">
-        <v>905</v>
+        <v>14918</v>
       </c>
       <c r="F180" t="s">
         <v>16</v>
       </c>
       <c r="G180" s="1">
-        <v>45963</v>
+        <v>46004.353113425925</v>
       </c>
       <c r="H180" s="1">
-        <v>45933</v>
+        <v>45974.353449074071</v>
       </c>
       <c r="I180" s="2">
-        <v>1</v>
+        <v>-26</v>
       </c>
       <c r="J180" s="3">
-        <v>-31.64</v>
+        <v>125.03</v>
       </c>
       <c r="K180" s="3">
-        <v>-31.64</v>
+        <v>125.03</v>
       </c>
       <c r="L180" t="s">
         <v>17</v>
       </c>
       <c r="M180" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>211112468</v>
+        <v>211112471</v>
       </c>
       <c r="B181" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C181" t="s">
         <v>14</v>
@@ -8087,39 +8075,39 @@
         <v>15</v>
       </c>
       <c r="E181">
-        <v>14498</v>
+        <v>15004</v>
       </c>
       <c r="F181" t="s">
         <v>16</v>
       </c>
       <c r="G181" s="1">
-        <v>45990.366226851853</v>
+        <v>46005.528935185182</v>
       </c>
       <c r="H181" s="1">
-        <v>45960.366793981477</v>
+        <v>45975.529270833329</v>
       </c>
       <c r="I181" s="2">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="J181" s="3">
-        <v>117</v>
+        <v>89.58</v>
       </c>
       <c r="K181" s="3">
-        <v>117</v>
+        <v>89.58</v>
       </c>
       <c r="L181" t="s">
         <v>17</v>
       </c>
       <c r="M181" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>211112471</v>
+        <v>211112472</v>
       </c>
       <c r="B182" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C182" t="s">
         <v>14</v>
@@ -8128,80 +8116,80 @@
         <v>15</v>
       </c>
       <c r="E182">
-        <v>13367</v>
+        <v>9735</v>
       </c>
       <c r="F182" t="s">
         <v>16</v>
       </c>
       <c r="G182" s="1">
-        <v>45955.451516203699</v>
+        <v>45849.30768518518</v>
       </c>
       <c r="H182" s="1">
-        <v>45925.451736111107</v>
+        <v>45834.308206018519</v>
       </c>
       <c r="I182" s="2">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="J182" s="3">
-        <v>216.03</v>
+        <v>80.87</v>
       </c>
       <c r="K182" s="3">
-        <v>216.03</v>
+        <v>80.87</v>
       </c>
       <c r="L182" t="s">
         <v>17</v>
       </c>
       <c r="M182" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>211112471</v>
+        <v>211112472</v>
       </c>
       <c r="B183" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183">
-        <v>14277</v>
+        <v>537</v>
       </c>
       <c r="F183" t="s">
         <v>16</v>
       </c>
       <c r="G183" s="1">
-        <v>45983.368599537032</v>
+        <v>45885</v>
       </c>
       <c r="H183" s="1">
-        <v>45953.369247685187</v>
+        <v>45870</v>
       </c>
       <c r="I183" s="2">
-        <v>-19</v>
+        <v>93</v>
       </c>
       <c r="J183" s="3">
-        <v>210.34</v>
+        <v>-1.05</v>
       </c>
       <c r="K183" s="3">
-        <v>210.34</v>
+        <v>-1.05</v>
       </c>
       <c r="L183" t="s">
         <v>17</v>
       </c>
       <c r="M183" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>211112472</v>
+        <v>211112483</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C184" t="s">
         <v>14</v>
@@ -8210,80 +8198,80 @@
         <v>15</v>
       </c>
       <c r="E184">
-        <v>9735</v>
+        <v>14231</v>
       </c>
       <c r="F184" t="s">
         <v>16</v>
       </c>
       <c r="G184" s="1">
-        <v>45849.30768518518</v>
+        <v>45997.371307870366</v>
       </c>
       <c r="H184" s="1">
-        <v>45834.308206018519</v>
+        <v>45952.373206018514</v>
       </c>
       <c r="I184" s="2">
-        <v>115</v>
+        <v>-19</v>
       </c>
       <c r="J184" s="3">
-        <v>80.87</v>
+        <v>281.36</v>
       </c>
       <c r="K184" s="3">
-        <v>80.87</v>
+        <v>281.36</v>
       </c>
       <c r="L184" t="s">
         <v>17</v>
       </c>
       <c r="M184" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>211112472</v>
+        <v>211112483</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
       </c>
       <c r="E185">
-        <v>537</v>
+        <v>14626</v>
       </c>
       <c r="F185" t="s">
         <v>16</v>
       </c>
       <c r="G185" s="1">
-        <v>45885</v>
+        <v>46010.385833333334</v>
       </c>
       <c r="H185" s="1">
-        <v>45870</v>
+        <v>45965.38622685185</v>
       </c>
       <c r="I185" s="2">
-        <v>79</v>
+        <v>-32</v>
       </c>
       <c r="J185" s="3">
-        <v>-1.05</v>
+        <v>492.54</v>
       </c>
       <c r="K185" s="3">
-        <v>-1.05</v>
+        <v>492.54</v>
       </c>
       <c r="L185" t="s">
         <v>17</v>
       </c>
       <c r="M185" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>211112472</v>
+        <v>211112483</v>
       </c>
       <c r="B186" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C186" t="s">
         <v>14</v>
@@ -8292,39 +8280,39 @@
         <v>15</v>
       </c>
       <c r="E186">
-        <v>13846</v>
+        <v>14811</v>
       </c>
       <c r="F186" t="s">
         <v>16</v>
       </c>
       <c r="G186" s="1">
-        <v>45969.412743055553</v>
+        <v>46017.346168981479</v>
       </c>
       <c r="H186" s="1">
-        <v>45939.421342592592</v>
+        <v>45972.346828703703</v>
       </c>
       <c r="I186" s="2">
-        <v>-5</v>
+        <v>-39</v>
       </c>
       <c r="J186" s="3">
-        <v>195.20000000000002</v>
+        <v>240.37</v>
       </c>
       <c r="K186" s="3">
-        <v>195.20000000000002</v>
+        <v>240.37</v>
       </c>
       <c r="L186" t="s">
         <v>17</v>
       </c>
       <c r="M186" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>211112472</v>
+        <v>211112496</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C187" t="s">
         <v>14</v>
@@ -8333,80 +8321,80 @@
         <v>15</v>
       </c>
       <c r="E187">
-        <v>14059</v>
+        <v>14228</v>
       </c>
       <c r="F187" t="s">
         <v>16</v>
       </c>
       <c r="G187" s="1">
-        <v>45976.371898148143</v>
+        <v>45982.368634259255</v>
       </c>
       <c r="H187" s="1">
-        <v>45946.373888888884</v>
+        <v>45952.369976851849</v>
       </c>
       <c r="I187" s="2">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="J187" s="3">
-        <v>129.51</v>
+        <v>116.25</v>
       </c>
       <c r="K187" s="3">
-        <v>129.51</v>
+        <v>116.25</v>
       </c>
       <c r="L187" t="s">
         <v>17</v>
       </c>
       <c r="M187" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>211112483</v>
+        <v>211112496</v>
       </c>
       <c r="B188" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
-      </c>
-      <c r="D188">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
       </c>
       <c r="E188">
-        <v>846</v>
+        <v>14453</v>
       </c>
       <c r="F188" t="s">
         <v>16</v>
       </c>
       <c r="G188" s="1">
-        <v>45939</v>
+        <v>45989.399953703702</v>
       </c>
       <c r="H188" s="1">
-        <v>45909</v>
+        <v>45959.400636574072</v>
       </c>
       <c r="I188" s="2">
-        <v>25</v>
+        <v>-11</v>
       </c>
       <c r="J188" s="3">
-        <v>-2.71</v>
+        <v>233.56</v>
       </c>
       <c r="K188" s="3">
-        <v>-2.71</v>
+        <v>233.56</v>
       </c>
       <c r="L188" t="s">
         <v>17</v>
       </c>
       <c r="M188" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>211112483</v>
+        <v>211112496</v>
       </c>
       <c r="B189" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C189" t="s">
         <v>14</v>
@@ -8415,39 +8403,39 @@
         <v>15</v>
       </c>
       <c r="E189">
-        <v>13695</v>
+        <v>14834</v>
       </c>
       <c r="F189" t="s">
         <v>16</v>
       </c>
       <c r="G189" s="1">
-        <v>45967.340960648144</v>
+        <v>46002.361863425926</v>
       </c>
       <c r="H189" s="1">
-        <v>45937.342615740738</v>
+        <v>45972.362569444442</v>
       </c>
       <c r="I189" s="2">
-        <v>-3</v>
+        <v>-24</v>
       </c>
       <c r="J189" s="3">
-        <v>471.23</v>
+        <v>351.93</v>
       </c>
       <c r="K189" s="3">
-        <v>471.23</v>
+        <v>351.93</v>
       </c>
       <c r="L189" t="s">
         <v>17</v>
       </c>
       <c r="M189" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>211112483</v>
+        <v>211112524</v>
       </c>
       <c r="B190" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C190" t="s">
         <v>14</v>
@@ -8456,39 +8444,39 @@
         <v>15</v>
       </c>
       <c r="E190">
-        <v>13819</v>
+        <v>14543</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
       </c>
       <c r="G190" s="1">
-        <v>45984.35324074074</v>
+        <v>45976.390231481477</v>
       </c>
       <c r="H190" s="1">
-        <v>45939.355671296296</v>
+        <v>45961.391759259255</v>
       </c>
       <c r="I190" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="J190" s="3">
-        <v>201.4</v>
+        <v>339.2</v>
       </c>
       <c r="K190" s="3">
-        <v>201.4</v>
+        <v>339.2</v>
       </c>
       <c r="L190" t="s">
         <v>17</v>
       </c>
       <c r="M190" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>211112483</v>
+        <v>211112539</v>
       </c>
       <c r="B191" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C191" t="s">
         <v>14</v>
@@ -8497,39 +8485,39 @@
         <v>15</v>
       </c>
       <c r="E191">
-        <v>14028</v>
+        <v>11512</v>
       </c>
       <c r="F191" t="s">
         <v>16</v>
       </c>
       <c r="G191" s="1">
-        <v>45990.39644675926</v>
+        <v>45935.458287037036</v>
       </c>
       <c r="H191" s="1">
-        <v>45945.39675925926</v>
+        <v>45875.458287037036</v>
       </c>
       <c r="I191" s="2">
-        <v>-26</v>
+        <v>43</v>
       </c>
       <c r="J191" s="3">
-        <v>21.72</v>
+        <v>1417.42</v>
       </c>
       <c r="K191" s="3">
-        <v>21.72</v>
+        <v>1417.42</v>
       </c>
       <c r="L191" t="s">
         <v>17</v>
       </c>
       <c r="M191" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>211112483</v>
+        <v>211112539</v>
       </c>
       <c r="B192" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -8538,121 +8526,121 @@
         <v>15</v>
       </c>
       <c r="E192">
-        <v>14071</v>
+        <v>11787</v>
       </c>
       <c r="F192" t="s">
         <v>16</v>
       </c>
       <c r="G192" s="1">
-        <v>45991.436921296292</v>
+        <v>45942.471863425926</v>
       </c>
       <c r="H192" s="1">
-        <v>45946.442870370367</v>
+        <v>45882.471863425926</v>
       </c>
       <c r="I192" s="2">
-        <v>-27</v>
+        <v>36</v>
       </c>
       <c r="J192" s="3">
-        <v>164.4</v>
+        <v>1428.29</v>
       </c>
       <c r="K192" s="3">
-        <v>164.4</v>
+        <v>1428.29</v>
       </c>
       <c r="L192" t="s">
         <v>17</v>
       </c>
       <c r="M192" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>211112483</v>
+        <v>211112548</v>
       </c>
       <c r="B193" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
       </c>
       <c r="E193">
-        <v>947</v>
+        <v>12806</v>
       </c>
       <c r="F193" t="s">
         <v>16</v>
       </c>
       <c r="G193" s="1">
-        <v>45992</v>
+        <v>45925.487187499995</v>
       </c>
       <c r="H193" s="1">
-        <v>45947</v>
+        <v>45910.487187499995</v>
       </c>
       <c r="I193" s="2">
-        <v>-28</v>
+        <v>53</v>
       </c>
       <c r="J193" s="3">
-        <v>-6.2</v>
+        <v>47.550000000000004</v>
       </c>
       <c r="K193" s="3">
-        <v>-6.2</v>
+        <v>47.550000000000004</v>
       </c>
       <c r="L193" t="s">
         <v>17</v>
       </c>
       <c r="M193" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>211112483</v>
+        <v>211112548</v>
       </c>
       <c r="B194" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
-      </c>
-      <c r="D194" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D194">
+        <v>2025</v>
       </c>
       <c r="E194">
-        <v>14231</v>
+        <v>886</v>
       </c>
       <c r="F194" t="s">
         <v>16</v>
       </c>
       <c r="G194" s="1">
-        <v>45997.371307870366</v>
+        <v>45940</v>
       </c>
       <c r="H194" s="1">
-        <v>45952.373206018514</v>
+        <v>45925</v>
       </c>
       <c r="I194" s="2">
-        <v>-33</v>
+        <v>38</v>
       </c>
       <c r="J194" s="3">
-        <v>281.36</v>
+        <v>-52.2</v>
       </c>
       <c r="K194" s="3">
-        <v>281.36</v>
+        <v>-52.2</v>
       </c>
       <c r="L194" t="s">
         <v>17</v>
       </c>
       <c r="M194" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>211112496</v>
+        <v>211112561</v>
       </c>
       <c r="B195" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
@@ -8661,482 +8649,31 @@
         <v>15</v>
       </c>
       <c r="E195">
-        <v>14005</v>
+        <v>14917</v>
       </c>
       <c r="F195" t="s">
         <v>16</v>
       </c>
       <c r="G195" s="1">
-        <v>45975.352233796293</v>
+        <v>45989.350717592592</v>
       </c>
       <c r="H195" s="1">
-        <v>45945.352673611109</v>
+        <v>45974.352835648147</v>
       </c>
       <c r="I195" s="2">
         <v>-11</v>
       </c>
       <c r="J195" s="3">
-        <v>223.81</v>
+        <v>107.69</v>
       </c>
       <c r="K195" s="3">
-        <v>223.81</v>
+        <v>107.69</v>
       </c>
       <c r="L195" t="s">
         <v>17</v>
       </c>
       <c r="M195" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>211112496</v>
-      </c>
-      <c r="B196" t="s">
-        <v>47</v>
-      </c>
-      <c r="C196" t="s">
-        <v>14</v>
-      </c>
-      <c r="D196" t="s">
-        <v>15</v>
-      </c>
-      <c r="E196">
-        <v>14228</v>
-      </c>
-      <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" s="1">
-        <v>45982.368634259255</v>
-      </c>
-      <c r="H196" s="1">
-        <v>45952.369976851849</v>
-      </c>
-      <c r="I196" s="2">
-        <v>-18</v>
-      </c>
-      <c r="J196" s="3">
-        <v>116.25</v>
-      </c>
-      <c r="K196" s="3">
-        <v>116.25</v>
-      </c>
-      <c r="L196" t="s">
-        <v>17</v>
-      </c>
-      <c r="M196" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>211112496</v>
-      </c>
-      <c r="B197" t="s">
-        <v>47</v>
-      </c>
-      <c r="C197" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" t="s">
-        <v>15</v>
-      </c>
-      <c r="E197">
-        <v>14453</v>
-      </c>
-      <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" s="1">
-        <v>45989.399953703702</v>
-      </c>
-      <c r="H197" s="1">
-        <v>45959.400636574072</v>
-      </c>
-      <c r="I197" s="2">
-        <v>-25</v>
-      </c>
-      <c r="J197" s="3">
-        <v>233.56</v>
-      </c>
-      <c r="K197" s="3">
-        <v>233.56</v>
-      </c>
-      <c r="L197" t="s">
-        <v>17</v>
-      </c>
-      <c r="M197" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>211112508</v>
-      </c>
-      <c r="B198" t="s">
-        <v>85</v>
-      </c>
-      <c r="C198" t="s">
-        <v>14</v>
-      </c>
-      <c r="D198" t="s">
-        <v>15</v>
-      </c>
-      <c r="E198">
-        <v>14219</v>
-      </c>
-      <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" s="1">
-        <v>45982.351689814815</v>
-      </c>
-      <c r="H198" s="1">
-        <v>45952.357256944444</v>
-      </c>
-      <c r="I198" s="2">
-        <v>-18</v>
-      </c>
-      <c r="J198" s="3">
-        <v>522.61</v>
-      </c>
-      <c r="K198" s="3">
-        <v>522.61</v>
-      </c>
-      <c r="L198" t="s">
-        <v>17</v>
-      </c>
-      <c r="M198" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>211112524</v>
-      </c>
-      <c r="B199" t="s">
-        <v>88</v>
-      </c>
-      <c r="C199" t="s">
-        <v>14</v>
-      </c>
-      <c r="D199" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199">
-        <v>14543</v>
-      </c>
-      <c r="F199" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" s="1">
-        <v>45976.390231481477</v>
-      </c>
-      <c r="H199" s="1">
-        <v>45961.391759259255</v>
-      </c>
-      <c r="I199" s="2">
-        <v>-12</v>
-      </c>
-      <c r="J199" s="3">
-        <v>339.2</v>
-      </c>
-      <c r="K199" s="3">
-        <v>339.2</v>
-      </c>
-      <c r="L199" t="s">
-        <v>17</v>
-      </c>
-      <c r="M199" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>211112539</v>
-      </c>
-      <c r="B200" t="s">
-        <v>73</v>
-      </c>
-      <c r="C200" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200">
-        <v>11512</v>
-      </c>
-      <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" s="1">
-        <v>45935.458287037036</v>
-      </c>
-      <c r="H200" s="1">
-        <v>45875.458287037036</v>
-      </c>
-      <c r="I200" s="2">
-        <v>29</v>
-      </c>
-      <c r="J200" s="3">
-        <v>1417.42</v>
-      </c>
-      <c r="K200" s="3">
-        <v>1417.42</v>
-      </c>
-      <c r="L200" t="s">
-        <v>17</v>
-      </c>
-      <c r="M200" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>211112539</v>
-      </c>
-      <c r="B201" t="s">
-        <v>73</v>
-      </c>
-      <c r="C201" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" t="s">
-        <v>15</v>
-      </c>
-      <c r="E201">
-        <v>11787</v>
-      </c>
-      <c r="F201" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" s="1">
-        <v>45942.471863425926</v>
-      </c>
-      <c r="H201" s="1">
-        <v>45882.471863425926</v>
-      </c>
-      <c r="I201" s="2">
-        <v>22</v>
-      </c>
-      <c r="J201" s="3">
-        <v>1428.29</v>
-      </c>
-      <c r="K201" s="3">
-        <v>1428.29</v>
-      </c>
-      <c r="L201" t="s">
-        <v>17</v>
-      </c>
-      <c r="M201" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>211112548</v>
-      </c>
-      <c r="B202" t="s">
-        <v>49</v>
-      </c>
-      <c r="C202" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" t="s">
-        <v>15</v>
-      </c>
-      <c r="E202">
-        <v>12806</v>
-      </c>
-      <c r="F202" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" s="1">
-        <v>45925.487187499995</v>
-      </c>
-      <c r="H202" s="1">
-        <v>45910.487187499995</v>
-      </c>
-      <c r="I202" s="2">
-        <v>39</v>
-      </c>
-      <c r="J202" s="3">
-        <v>47.550000000000004</v>
-      </c>
-      <c r="K202" s="3">
-        <v>47.550000000000004</v>
-      </c>
-      <c r="L202" t="s">
-        <v>17</v>
-      </c>
-      <c r="M202" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>211112548</v>
-      </c>
-      <c r="B203" t="s">
-        <v>49</v>
-      </c>
-      <c r="C203" t="s">
-        <v>19</v>
-      </c>
-      <c r="D203">
-        <v>2025</v>
-      </c>
-      <c r="E203">
-        <v>886</v>
-      </c>
-      <c r="F203" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" s="1">
-        <v>45940</v>
-      </c>
-      <c r="H203" s="1">
-        <v>45925</v>
-      </c>
-      <c r="I203" s="2">
-        <v>24</v>
-      </c>
-      <c r="J203" s="3">
-        <v>-52.2</v>
-      </c>
-      <c r="K203" s="3">
-        <v>-52.2</v>
-      </c>
-      <c r="L203" t="s">
-        <v>17</v>
-      </c>
-      <c r="M203" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>211112560</v>
-      </c>
-      <c r="B204" t="s">
-        <v>86</v>
-      </c>
-      <c r="C204" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" t="s">
-        <v>15</v>
-      </c>
-      <c r="E204">
-        <v>14052</v>
-      </c>
-      <c r="F204" t="s">
-        <v>16</v>
-      </c>
-      <c r="G204" s="1">
-        <v>45976.357569444444</v>
-      </c>
-      <c r="H204" s="1">
-        <v>45946.357847222222</v>
-      </c>
-      <c r="I204" s="2">
-        <v>-12</v>
-      </c>
-      <c r="J204" s="3">
-        <v>39.770000000000003</v>
-      </c>
-      <c r="K204" s="3">
-        <v>39.770000000000003</v>
-      </c>
-      <c r="L204" t="s">
-        <v>17</v>
-      </c>
-      <c r="M204" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>211112560</v>
-      </c>
-      <c r="B205" t="s">
-        <v>86</v>
-      </c>
-      <c r="C205" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" t="s">
-        <v>15</v>
-      </c>
-      <c r="E205">
-        <v>14506</v>
-      </c>
-      <c r="F205" t="s">
-        <v>16</v>
-      </c>
-      <c r="G205" s="1">
-        <v>45990.376562500001</v>
-      </c>
-      <c r="H205" s="1">
-        <v>45960.376875000002</v>
-      </c>
-      <c r="I205" s="2">
-        <v>-26</v>
-      </c>
-      <c r="J205" s="3">
-        <v>181.08</v>
-      </c>
-      <c r="K205" s="3">
-        <v>181.08</v>
-      </c>
-      <c r="L205" t="s">
-        <v>17</v>
-      </c>
-      <c r="M205" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>211112561</v>
-      </c>
-      <c r="B206" t="s">
-        <v>74</v>
-      </c>
-      <c r="C206" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" t="s">
-        <v>15</v>
-      </c>
-      <c r="E206">
-        <v>13311</v>
-      </c>
-      <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" s="1">
-        <v>45939.367430555554</v>
-      </c>
-      <c r="H206" s="1">
-        <v>45924.370428240742</v>
-      </c>
-      <c r="I206" s="2">
-        <v>25</v>
-      </c>
-      <c r="J206" s="3">
-        <v>188.76</v>
-      </c>
-      <c r="K206" s="3">
-        <v>188.76</v>
-      </c>
-      <c r="L206" t="s">
-        <v>17</v>
-      </c>
-      <c r="M206" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
